--- a/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="2025-08-12" sheetId="1" r:id="rId1"/>
+    <sheet name="2025-08-13" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="158">
   <si>
     <t>名称</t>
   </si>
@@ -52,12 +52,18 @@
     <t>胜利股份</t>
   </si>
   <si>
+    <t>湖南投资</t>
+  </si>
+  <si>
     <t>德龙汇能</t>
   </si>
   <si>
     <t>三木集团</t>
   </si>
   <si>
+    <t>茂化实华</t>
+  </si>
+  <si>
     <t>永安林业</t>
   </si>
   <si>
@@ -82,12 +88,18 @@
     <t>楚环科技</t>
   </si>
   <si>
+    <t>播恩集团</t>
+  </si>
+  <si>
     <t>中天服务</t>
   </si>
   <si>
     <t>*ST交投</t>
   </si>
   <si>
+    <t>合兴包装</t>
+  </si>
+  <si>
     <t>双箭股份</t>
   </si>
   <si>
@@ -100,24 +112,18 @@
     <t>乔治白</t>
   </si>
   <si>
+    <t>世龙实业</t>
+  </si>
+  <si>
     <t>众兴菌业</t>
   </si>
   <si>
     <t>瑞尔特</t>
   </si>
   <si>
-    <t>豪尔赛</t>
-  </si>
-  <si>
     <t>嘉美包装</t>
   </si>
   <si>
-    <t>优彩资源</t>
-  </si>
-  <si>
-    <t>津膜科技</t>
-  </si>
-  <si>
     <t>顶固集创</t>
   </si>
   <si>
@@ -127,15 +133,15 @@
     <t>冠中生态</t>
   </si>
   <si>
-    <t>华绿生物</t>
-  </si>
-  <si>
-    <t>东南电子</t>
+    <t>新巨丰</t>
   </si>
   <si>
     <t>森泰股份</t>
   </si>
   <si>
+    <t>美新科技</t>
+  </si>
+  <si>
     <t>宁波联合</t>
   </si>
   <si>
@@ -145,7 +151,13 @@
     <t>民丰特纸</t>
   </si>
   <si>
-    <t>京投发展</t>
+    <t>广东明珠</t>
+  </si>
+  <si>
+    <t>栖霞建设</t>
+  </si>
+  <si>
+    <t>申华控股</t>
   </si>
   <si>
     <t>欧亚集团</t>
@@ -157,22 +169,25 @@
     <t>京能置业</t>
   </si>
   <si>
+    <t>钱江生化</t>
+  </si>
+  <si>
     <t>百大集团</t>
   </si>
   <si>
-    <t>博闻科技</t>
-  </si>
-  <si>
     <t>广电电气</t>
   </si>
   <si>
+    <t>三峰环境</t>
+  </si>
+  <si>
     <t>丰林集团</t>
   </si>
   <si>
     <t>彩蝶实业</t>
   </si>
   <si>
-    <t>恒尚节能</t>
+    <t>万丰股份</t>
   </si>
   <si>
     <t>建研院</t>
@@ -187,33 +202,33 @@
     <t>歌力思</t>
   </si>
   <si>
-    <t>中持股份</t>
-  </si>
-  <si>
-    <t>恒誉环保</t>
-  </si>
-  <si>
     <t>美腾科技</t>
   </si>
   <si>
-    <t>超讯通信</t>
-  </si>
-  <si>
     <t>顺网科技</t>
   </si>
   <si>
     <t>中科金财</t>
   </si>
   <si>
+    <t>紫光股份</t>
+  </si>
+  <si>
     <t>000407</t>
   </si>
   <si>
+    <t>000548</t>
+  </si>
+  <si>
     <t>000593</t>
   </si>
   <si>
     <t>000632</t>
   </si>
   <si>
+    <t>000637</t>
+  </si>
+  <si>
     <t>000663</t>
   </si>
   <si>
@@ -238,12 +253,18 @@
     <t>001336</t>
   </si>
   <si>
+    <t>001366</t>
+  </si>
+  <si>
     <t>002188</t>
   </si>
   <si>
     <t>002200</t>
   </si>
   <si>
+    <t>002228</t>
+  </si>
+  <si>
     <t>002381</t>
   </si>
   <si>
@@ -256,24 +277,18 @@
     <t>002687</t>
   </si>
   <si>
+    <t>002748</t>
+  </si>
+  <si>
     <t>002772</t>
   </si>
   <si>
     <t>002790</t>
   </si>
   <si>
-    <t>002963</t>
-  </si>
-  <si>
     <t>002969</t>
   </si>
   <si>
-    <t>002998</t>
-  </si>
-  <si>
-    <t>300334</t>
-  </si>
-  <si>
     <t>300749</t>
   </si>
   <si>
@@ -283,15 +298,15 @@
     <t>300948</t>
   </si>
   <si>
-    <t>300970</t>
-  </si>
-  <si>
-    <t>301359</t>
+    <t>301296</t>
   </si>
   <si>
     <t>301429</t>
   </si>
   <si>
+    <t>301588</t>
+  </si>
+  <si>
     <t>600051</t>
   </si>
   <si>
@@ -301,7 +316,13 @@
     <t>600235</t>
   </si>
   <si>
-    <t>600683</t>
+    <t>600382</t>
+  </si>
+  <si>
+    <t>600533</t>
+  </si>
+  <si>
+    <t>600653</t>
   </si>
   <si>
     <t>600697</t>
@@ -313,22 +334,25 @@
     <t>600791</t>
   </si>
   <si>
+    <t>600796</t>
+  </si>
+  <si>
     <t>600865</t>
   </si>
   <si>
-    <t>600883</t>
-  </si>
-  <si>
     <t>601616</t>
   </si>
   <si>
+    <t>601827</t>
+  </si>
+  <si>
     <t>601996</t>
   </si>
   <si>
     <t>603073</t>
   </si>
   <si>
-    <t>603137</t>
+    <t>603172</t>
   </si>
   <si>
     <t>603183</t>
@@ -343,24 +367,18 @@
     <t>603808</t>
   </si>
   <si>
-    <t>603903</t>
-  </si>
-  <si>
-    <t>688309</t>
-  </si>
-  <si>
     <t>688420</t>
   </si>
   <si>
-    <t>603322</t>
-  </si>
-  <si>
     <t>300113</t>
   </si>
   <si>
     <t>002657</t>
   </si>
   <si>
+    <t>000938</t>
+  </si>
+  <si>
     <t>沪深A股</t>
   </si>
   <si>
@@ -370,18 +388,24 @@
     <t>科创板</t>
   </si>
   <si>
-    <t>2025-08-11 16:13:00</t>
-  </si>
-  <si>
-    <t>2025-08-12 09:31:00</t>
+    <t>2025-08-12 16:10:00</t>
+  </si>
+  <si>
+    <t>1755048660000</t>
   </si>
   <si>
     <t>燃气</t>
   </si>
   <si>
+    <t>公路铁路运输</t>
+  </si>
+  <si>
     <t>综合</t>
   </si>
   <si>
+    <t>石油加工贸易</t>
+  </si>
+  <si>
     <t>种植业与林业</t>
   </si>
   <si>
@@ -406,22 +430,25 @@
     <t>环保设备</t>
   </si>
   <si>
+    <t>农产品加工</t>
+  </si>
+  <si>
     <t>房地产</t>
   </si>
   <si>
     <t>建筑装饰</t>
   </si>
   <si>
+    <t>包装印刷</t>
+  </si>
+  <si>
     <t>橡胶制品</t>
   </si>
   <si>
     <t>服装家纺</t>
   </si>
   <si>
-    <t>包装印刷</t>
-  </si>
-  <si>
-    <t>化学纤维</t>
+    <t>化学原料</t>
   </si>
   <si>
     <t>通用设备</t>
@@ -430,15 +457,15 @@
     <t>环境治理</t>
   </si>
   <si>
-    <t>其他电子</t>
-  </si>
-  <si>
     <t>建筑材料</t>
   </si>
   <si>
     <t>造纸</t>
   </si>
   <si>
+    <t>钢铁</t>
+  </si>
+  <si>
     <t>零售</t>
   </si>
   <si>
@@ -448,16 +475,19 @@
     <t>纺织制造</t>
   </si>
   <si>
+    <t>化学制品</t>
+  </si>
+  <si>
     <t>其他社会服务</t>
   </si>
   <si>
     <t>专用设备</t>
   </si>
   <si>
+    <t>通信服务</t>
+  </si>
+  <si>
     <t>IT服务</t>
-  </si>
-  <si>
-    <t>通信服务</t>
   </si>
 </sst>
 </file>
@@ -815,7 +845,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -858,25 +888,25 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E2">
         <v>3.54</v>
       </c>
       <c r="F2">
-        <v>1.13</v>
+        <v>1.98</v>
       </c>
       <c r="G2">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -887,25 +917,25 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E3">
-        <v>6.49</v>
+        <v>5.68</v>
       </c>
       <c r="F3">
-        <v>2.16</v>
+        <v>-0.18</v>
       </c>
       <c r="G3">
-        <v>1.97</v>
+        <v>2.01</v>
       </c>
       <c r="H3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -916,25 +946,25 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E4">
-        <v>4.08</v>
+        <v>6.49</v>
       </c>
       <c r="F4">
-        <v>2.21</v>
+        <v>2.62</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -945,25 +975,25 @@
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E5">
-        <v>7.11</v>
+        <v>4.08</v>
       </c>
       <c r="F5">
-        <v>0.42</v>
+        <v>1.72</v>
       </c>
       <c r="G5">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I5" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -974,25 +1004,25 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E6">
-        <v>4.99</v>
+        <v>4.31</v>
       </c>
       <c r="F6">
-        <v>1.4</v>
+        <v>-0.46</v>
       </c>
       <c r="G6">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I6" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1003,25 +1033,25 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E7">
-        <v>19.77</v>
+        <v>7.11</v>
       </c>
       <c r="F7">
-        <v>12.8</v>
+        <v>0.7</v>
       </c>
       <c r="G7">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1032,25 +1062,25 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E8">
-        <v>25.82</v>
+        <v>4.99</v>
       </c>
       <c r="F8">
-        <v>7.98</v>
+        <v>0.4</v>
       </c>
       <c r="G8">
-        <v>1.69</v>
+        <v>1.99</v>
       </c>
       <c r="H8" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1061,25 +1091,25 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E9">
-        <v>18.18</v>
+        <v>19.77</v>
       </c>
       <c r="F9">
-        <v>14.14</v>
+        <v>11.84</v>
       </c>
       <c r="G9">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H9" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I9" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1090,25 +1120,25 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E10">
-        <v>8.73</v>
+        <v>25.82</v>
       </c>
       <c r="F10">
-        <v>4.24</v>
+        <v>8.17</v>
       </c>
       <c r="G10">
-        <v>2.03</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1119,25 +1149,25 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E11">
-        <v>19.88</v>
+        <v>18.18</v>
       </c>
       <c r="F11">
-        <v>12.17</v>
+        <v>14.52</v>
       </c>
       <c r="G11">
-        <v>1.88</v>
+        <v>1.99</v>
       </c>
       <c r="H11" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1148,25 +1178,25 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E12">
-        <v>21.38</v>
+        <v>8.73</v>
       </c>
       <c r="F12">
-        <v>13.99</v>
+        <v>5.61</v>
       </c>
       <c r="G12">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="H12" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1177,25 +1207,25 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E13">
-        <v>5.94</v>
+        <v>19.88</v>
       </c>
       <c r="F13">
-        <v>2.69</v>
+        <v>13.08</v>
       </c>
       <c r="G13">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1206,25 +1236,25 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E14">
-        <v>7.22</v>
+        <v>21.38</v>
       </c>
       <c r="F14">
-        <v>5.4</v>
+        <v>13.99</v>
       </c>
       <c r="G14">
-        <v>0.58</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H14" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1235,25 +1265,25 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E15">
-        <v>7.01</v>
+        <v>13.62</v>
       </c>
       <c r="F15">
-        <v>2.14</v>
+        <v>-0.88</v>
       </c>
       <c r="G15">
-        <v>1.07</v>
+        <v>2.01</v>
       </c>
       <c r="H15" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1264,25 +1294,25 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E16">
-        <v>6.67</v>
+        <v>5.94</v>
       </c>
       <c r="F16">
-        <v>-1.5</v>
+        <v>0.67</v>
       </c>
       <c r="G16">
-        <v>0.29</v>
+        <v>1.97</v>
       </c>
       <c r="H16" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1293,25 +1323,25 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E17">
-        <v>5.13</v>
+        <v>7.22</v>
       </c>
       <c r="F17">
-        <v>5.85</v>
+        <v>4.16</v>
       </c>
       <c r="G17">
-        <v>2.01</v>
+        <v>0.57</v>
       </c>
       <c r="H17" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1322,25 +1352,25 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E18">
-        <v>4.6</v>
+        <v>3.42</v>
       </c>
       <c r="F18">
-        <v>6.52</v>
+        <v>-0.29</v>
       </c>
       <c r="G18">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1351,25 +1381,25 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E19">
-        <v>8.140000000000001</v>
+        <v>7.01</v>
       </c>
       <c r="F19">
-        <v>3.56</v>
+        <v>2.28</v>
       </c>
       <c r="G19">
-        <v>1.97</v>
+        <v>1.07</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I19" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1380,25 +1410,25 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E20">
-        <v>7.76</v>
+        <v>6.67</v>
       </c>
       <c r="F20">
-        <v>0.77</v>
+        <v>-2.7</v>
       </c>
       <c r="G20">
-        <v>1.99</v>
+        <v>0.29</v>
       </c>
       <c r="H20" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I20" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1409,25 +1439,25 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E21">
-        <v>13.15</v>
+        <v>5.13</v>
       </c>
       <c r="F21">
-        <v>0.84</v>
+        <v>5.65</v>
       </c>
       <c r="G21">
-        <v>1.91</v>
+        <v>2.01</v>
       </c>
       <c r="H21" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1438,25 +1468,25 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E22">
-        <v>3.67</v>
+        <v>4.6</v>
       </c>
       <c r="F22">
-        <v>0.54</v>
+        <v>6.52</v>
       </c>
       <c r="G22">
-        <v>1.99</v>
+        <v>1.56</v>
       </c>
       <c r="H22" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1467,25 +1497,25 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E23">
-        <v>7.49</v>
+        <v>10.18</v>
       </c>
       <c r="F23">
-        <v>13.08</v>
+        <v>-0.39</v>
       </c>
       <c r="G23">
-        <v>2.12</v>
+        <v>2.01</v>
       </c>
       <c r="H23" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I23" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1496,25 +1526,25 @@
         <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E24">
-        <v>7.44</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F24">
-        <v>1.75</v>
+        <v>3.07</v>
       </c>
       <c r="G24">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H24" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I24" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1525,25 +1555,25 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E25">
-        <v>8.869999999999999</v>
+        <v>7.76</v>
       </c>
       <c r="F25">
-        <v>4.96</v>
+        <v>0.39</v>
       </c>
       <c r="G25">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="H25" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I25" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1554,25 +1584,25 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E26">
-        <v>15.14</v>
+        <v>3.67</v>
       </c>
       <c r="F26">
-        <v>5.55</v>
+        <v>-0.27</v>
       </c>
       <c r="G26">
         <v>1.98</v>
       </c>
       <c r="H26" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I26" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1583,25 +1613,25 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E27">
-        <v>11.52</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="F27">
-        <v>4.95</v>
+        <v>3.16</v>
       </c>
       <c r="G27">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="H27" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1612,25 +1642,25 @@
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E28">
-        <v>15.27</v>
+        <v>15.14</v>
       </c>
       <c r="F28">
-        <v>3.86</v>
+        <v>4.56</v>
       </c>
       <c r="G28">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H28" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I28" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1641,25 +1671,25 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E29">
-        <v>22.35</v>
+        <v>11.52</v>
       </c>
       <c r="F29">
-        <v>2.1</v>
+        <v>4.08</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="H29" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I29" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1670,25 +1700,25 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="E30">
-        <v>18.17</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F30">
-        <v>15.47</v>
+        <v>-1.04</v>
       </c>
       <c r="G30">
-        <v>1.74</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I30" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1699,25 +1729,25 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E31">
-        <v>7.48</v>
+        <v>18.17</v>
       </c>
       <c r="F31">
-        <v>5.75</v>
+        <v>16.07</v>
       </c>
       <c r="G31">
-        <v>1.37</v>
+        <v>1.75</v>
       </c>
       <c r="H31" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I31" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1728,25 +1758,25 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E32">
-        <v>2.83</v>
+        <v>19.84</v>
       </c>
       <c r="F32">
-        <v>5.65</v>
+        <v>-0.55</v>
       </c>
       <c r="G32">
         <v>2.01</v>
       </c>
       <c r="H32" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1757,25 +1787,25 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E33">
-        <v>6.38</v>
+        <v>7.48</v>
       </c>
       <c r="F33">
-        <v>5.17</v>
+        <v>6.82</v>
       </c>
       <c r="G33">
-        <v>1.89</v>
+        <v>1.38</v>
       </c>
       <c r="H33" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I33" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1786,25 +1816,25 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E34">
-        <v>4.14</v>
+        <v>2.83</v>
       </c>
       <c r="F34">
-        <v>3.62</v>
+        <v>5.3</v>
       </c>
       <c r="G34">
-        <v>1.68</v>
+        <v>2.01</v>
       </c>
       <c r="H34" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I34" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1815,25 +1845,25 @@
         <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E35">
-        <v>12.33</v>
+        <v>6.38</v>
       </c>
       <c r="F35">
-        <v>3.49</v>
+        <v>4.55</v>
       </c>
       <c r="G35">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="H35" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I35" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1844,25 +1874,25 @@
         <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E36">
-        <v>11.95</v>
+        <v>5.85</v>
       </c>
       <c r="F36">
-        <v>9.289999999999999</v>
+        <v>-0.68</v>
       </c>
       <c r="G36">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="H36" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I36" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1873,25 +1903,25 @@
         <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E37">
-        <v>5.07</v>
+        <v>2.79</v>
       </c>
       <c r="F37">
-        <v>0.99</v>
+        <v>-0.72</v>
       </c>
       <c r="G37">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I37" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1902,25 +1932,25 @@
         <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E38">
-        <v>9.02</v>
+        <v>1.93</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>1.34</v>
+        <v>1.14</v>
       </c>
       <c r="H38" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I38" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1931,25 +1961,25 @@
         <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E39">
-        <v>8.41</v>
+        <v>12.33</v>
       </c>
       <c r="F39">
-        <v>2.02</v>
+        <v>3.65</v>
       </c>
       <c r="G39">
-        <v>1.42</v>
+        <v>1.93</v>
       </c>
       <c r="H39" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I39" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1960,25 +1990,25 @@
         <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D40" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E40">
-        <v>3.91</v>
+        <v>11.95</v>
       </c>
       <c r="F40">
-        <v>1.02</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="H40" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I40" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1989,25 +2019,25 @@
         <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E41">
-        <v>2.3</v>
+        <v>5.07</v>
       </c>
       <c r="F41">
-        <v>1.3</v>
+        <v>0.99</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>1.02</v>
       </c>
       <c r="H41" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I41" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2018,25 +2048,25 @@
         <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E42">
-        <v>18.08</v>
+        <v>6.12</v>
       </c>
       <c r="F42">
-        <v>4.37</v>
+        <v>-0.65</v>
       </c>
       <c r="G42">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="H42" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I42" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2047,25 +2077,25 @@
         <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E43">
-        <v>14.61</v>
+        <v>9.02</v>
       </c>
       <c r="F43">
-        <v>12.94</v>
+        <v>1.88</v>
       </c>
       <c r="G43">
-        <v>2.14</v>
+        <v>1.35</v>
       </c>
       <c r="H43" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I43" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2076,25 +2106,25 @@
         <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E44">
-        <v>4.54</v>
+        <v>3.91</v>
       </c>
       <c r="F44">
-        <v>2.42</v>
+        <v>1.02</v>
       </c>
       <c r="G44">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="H44" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I44" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2105,25 +2135,25 @@
         <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E45">
-        <v>6.95</v>
+        <v>8.51</v>
       </c>
       <c r="F45">
-        <v>3.45</v>
+        <v>-0.12</v>
       </c>
       <c r="G45">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="H45" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I45" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2134,25 +2164,25 @@
         <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E46">
-        <v>12.74</v>
+        <v>2.3</v>
       </c>
       <c r="F46">
-        <v>1.41</v>
+        <v>0.43</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H46" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I46" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2163,25 +2193,25 @@
         <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E47">
-        <v>8.550000000000001</v>
+        <v>18.08</v>
       </c>
       <c r="F47">
-        <v>0.23</v>
+        <v>4.59</v>
       </c>
       <c r="G47">
-        <v>1.99</v>
+        <v>1.37</v>
       </c>
       <c r="H47" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I47" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2192,25 +2222,25 @@
         <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E48">
-        <v>8.18</v>
+        <v>17.7</v>
       </c>
       <c r="F48">
-        <v>1.1</v>
+        <v>-0.28</v>
       </c>
       <c r="G48">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H48" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I48" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2221,25 +2251,25 @@
         <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E49">
-        <v>23.93</v>
+        <v>4.54</v>
       </c>
       <c r="F49">
-        <v>2.97</v>
+        <v>1.54</v>
       </c>
       <c r="G49">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="H49" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I49" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2250,112 +2280,199 @@
         <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D50" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E50">
-        <v>27.33</v>
+        <v>6.95</v>
       </c>
       <c r="F50">
-        <v>1.79</v>
+        <v>3.6</v>
       </c>
       <c r="G50">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="H50" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="I50" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
         <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E51">
-        <v>38.82</v>
+        <v>12.74</v>
       </c>
       <c r="F51">
-        <v>-4.3</v>
+        <v>0.63</v>
       </c>
       <c r="G51">
-        <v>18.2</v>
+        <v>1.99</v>
       </c>
       <c r="H51" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
         <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E52">
-        <v>20.72</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F52">
-        <v>1.57</v>
+        <v>-0.47</v>
       </c>
       <c r="G52">
-        <v>47.03</v>
+        <v>1.98</v>
       </c>
       <c r="H52" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I52" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
         <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E53">
+        <v>27.33</v>
+      </c>
+      <c r="F53">
+        <v>0.26</v>
+      </c>
+      <c r="G53">
+        <v>0.82</v>
+      </c>
+      <c r="H53" t="s">
+        <v>124</v>
+      </c>
+      <c r="I53" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54">
+        <v>20.72</v>
+      </c>
+      <c r="F54">
+        <v>5.72</v>
+      </c>
+      <c r="G54">
+        <v>47.61</v>
+      </c>
+      <c r="H54" t="s">
+        <v>125</v>
+      </c>
+      <c r="I54" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" t="s">
+        <v>121</v>
+      </c>
+      <c r="E55">
         <v>31.45</v>
       </c>
-      <c r="F53">
-        <v>-1.84</v>
-      </c>
-      <c r="G53">
-        <v>32.29</v>
-      </c>
-      <c r="H53" t="s">
-        <v>119</v>
-      </c>
-      <c r="I53" t="s">
-        <v>146</v>
+      <c r="F55">
+        <v>0.67</v>
+      </c>
+      <c r="G55">
+        <v>32.21</v>
+      </c>
+      <c r="H55" t="s">
+        <v>125</v>
+      </c>
+      <c r="I55" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>120</v>
+      </c>
+      <c r="D56" t="s">
+        <v>121</v>
+      </c>
+      <c r="E56">
+        <v>24.92</v>
+      </c>
+      <c r="F56">
+        <v>0.3</v>
+      </c>
+      <c r="G56">
+        <v>18.38</v>
+      </c>
+      <c r="H56" t="s">
+        <v>125</v>
+      </c>
+      <c r="I56" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="161">
   <si>
     <t>名称</t>
   </si>
@@ -61,24 +61,24 @@
     <t>梦网科技</t>
   </si>
   <si>
-    <t>超讯通信</t>
-  </si>
-  <si>
     <t>湖南投资</t>
   </si>
   <si>
     <t>德龙汇能</t>
   </si>
   <si>
-    <t>永安林业</t>
-  </si>
-  <si>
-    <t>湖北能源</t>
+    <t>茂化实华</t>
   </si>
   <si>
     <t>金房能源</t>
   </si>
   <si>
+    <t>双枪科技</t>
+  </si>
+  <si>
+    <t>农心科技</t>
+  </si>
+  <si>
     <t>利仁科技</t>
   </si>
   <si>
@@ -88,12 +88,12 @@
     <t>美能能源</t>
   </si>
   <si>
-    <t>三柏硕</t>
-  </si>
-  <si>
     <t>箭牌家居</t>
   </si>
   <si>
+    <t>光华股份</t>
+  </si>
+  <si>
     <t>楚环科技</t>
   </si>
   <si>
@@ -121,25 +121,34 @@
     <t>华斯股份</t>
   </si>
   <si>
+    <t>蓝丰生化</t>
+  </si>
+  <si>
+    <t>ST瑞和</t>
+  </si>
+  <si>
+    <t>福建金森</t>
+  </si>
+  <si>
     <t>乔治白</t>
   </si>
   <si>
     <t>世龙实业</t>
   </si>
   <si>
+    <t>永东股份</t>
+  </si>
+  <si>
     <t>汇洁股份</t>
   </si>
   <si>
-    <t>瑞尔特</t>
-  </si>
-  <si>
     <t>黄山胶囊</t>
   </si>
   <si>
-    <t>新宏泽</t>
-  </si>
-  <si>
-    <t>锐奇股份</t>
+    <t>嘉美包装</t>
+  </si>
+  <si>
+    <t>开普检测</t>
   </si>
   <si>
     <t>浙矿股份</t>
@@ -148,15 +157,21 @@
     <t>浙江力诺</t>
   </si>
   <si>
-    <t>建研设计</t>
+    <t>华骐环保</t>
   </si>
   <si>
     <t>普莱得</t>
   </si>
   <si>
+    <t>东南电子</t>
+  </si>
+  <si>
     <t>森泰股份</t>
   </si>
   <si>
+    <t>舜禹股份</t>
+  </si>
+  <si>
     <t>大龙地产</t>
   </si>
   <si>
@@ -166,12 +181,6 @@
     <t>凤竹纺织</t>
   </si>
   <si>
-    <t>百川能源</t>
-  </si>
-  <si>
-    <t>欧亚集团</t>
-  </si>
-  <si>
     <t>京能置业</t>
   </si>
   <si>
@@ -184,15 +193,15 @@
     <t>彩蝶实业</t>
   </si>
   <si>
-    <t>恒尚节能</t>
-  </si>
-  <si>
     <t>万丰股份</t>
   </si>
   <si>
     <t>建研院</t>
   </si>
   <si>
+    <t>金海高科</t>
+  </si>
+  <si>
     <t>惠达卫浴</t>
   </si>
   <si>
@@ -205,42 +214,36 @@
     <t>歌力思</t>
   </si>
   <si>
-    <t>中持股份</t>
-  </si>
-  <si>
-    <t>高铁电气</t>
+    <t>工大高科</t>
   </si>
   <si>
     <t>美腾科技</t>
   </si>
   <si>
-    <t>友车科技</t>
-  </si>
-  <si>
     <t>000785</t>
   </si>
   <si>
     <t>002123</t>
   </si>
   <si>
-    <t>603322</t>
-  </si>
-  <si>
     <t>000548</t>
   </si>
   <si>
     <t>000593</t>
   </si>
   <si>
-    <t>000663</t>
-  </si>
-  <si>
-    <t>000883</t>
+    <t>000637</t>
   </si>
   <si>
     <t>001210</t>
   </si>
   <si>
+    <t>001211</t>
+  </si>
+  <si>
+    <t>001231</t>
+  </si>
+  <si>
     <t>001259</t>
   </si>
   <si>
@@ -250,12 +253,12 @@
     <t>001299</t>
   </si>
   <si>
-    <t>001300</t>
-  </si>
-  <si>
     <t>001322</t>
   </si>
   <si>
+    <t>001333</t>
+  </si>
+  <si>
     <t>001336</t>
   </si>
   <si>
@@ -283,25 +286,34 @@
     <t>002494</t>
   </si>
   <si>
+    <t>002513</t>
+  </si>
+  <si>
+    <t>002620</t>
+  </si>
+  <si>
+    <t>002679</t>
+  </si>
+  <si>
     <t>002687</t>
   </si>
   <si>
     <t>002748</t>
   </si>
   <si>
+    <t>002753</t>
+  </si>
+  <si>
     <t>002763</t>
   </si>
   <si>
-    <t>002790</t>
-  </si>
-  <si>
     <t>002817</t>
   </si>
   <si>
-    <t>002836</t>
-  </si>
-  <si>
-    <t>300126</t>
+    <t>002969</t>
+  </si>
+  <si>
+    <t>003008</t>
   </si>
   <si>
     <t>300837</t>
@@ -310,15 +322,21 @@
     <t>300838</t>
   </si>
   <si>
-    <t>301167</t>
+    <t>300929</t>
   </si>
   <si>
     <t>301353</t>
   </si>
   <si>
+    <t>301359</t>
+  </si>
+  <si>
     <t>301429</t>
   </si>
   <si>
+    <t>301519</t>
+  </si>
+  <si>
     <t>600159</t>
   </si>
   <si>
@@ -328,12 +346,6 @@
     <t>600493</t>
   </si>
   <si>
-    <t>600681</t>
-  </si>
-  <si>
-    <t>600697</t>
-  </si>
-  <si>
     <t>600791</t>
   </si>
   <si>
@@ -346,15 +358,15 @@
     <t>603073</t>
   </si>
   <si>
-    <t>603137</t>
-  </si>
-  <si>
     <t>603172</t>
   </si>
   <si>
     <t>603183</t>
   </si>
   <si>
+    <t>603311</t>
+  </si>
+  <si>
     <t>603385</t>
   </si>
   <si>
@@ -367,18 +379,12 @@
     <t>603808</t>
   </si>
   <si>
-    <t>603903</t>
-  </si>
-  <si>
-    <t>688285</t>
+    <t>688367</t>
   </si>
   <si>
     <t>688420</t>
   </si>
   <si>
-    <t>688479</t>
-  </si>
-  <si>
     <t>沪深A股</t>
   </si>
   <si>
@@ -388,10 +394,10 @@
     <t>科创板</t>
   </si>
   <si>
-    <t>2025-08-22 09:31:00</t>
-  </si>
-  <si>
-    <t>2025-08-21 16:11:00</t>
+    <t>2025-08-26 16:11:00</t>
+  </si>
+  <si>
+    <t>2025-08-26 16:12:00</t>
   </si>
   <si>
     <t>零售</t>
@@ -400,64 +406,79 @@
     <t>通信服务</t>
   </si>
   <si>
-    <t>IT服务</t>
-  </si>
-  <si>
     <t>公路铁路运输</t>
   </si>
   <si>
     <t>燃气</t>
   </si>
   <si>
+    <t>石油加工贸易</t>
+  </si>
+  <si>
+    <t>电力</t>
+  </si>
+  <si>
+    <t>家居用品</t>
+  </si>
+  <si>
+    <t>农化制品</t>
+  </si>
+  <si>
+    <t>小家电</t>
+  </si>
+  <si>
+    <t>汽车零部件</t>
+  </si>
+  <si>
+    <t>塑料制品</t>
+  </si>
+  <si>
+    <t>环保设备</t>
+  </si>
+  <si>
+    <t>农产品加工</t>
+  </si>
+  <si>
+    <t>房地产</t>
+  </si>
+  <si>
+    <t>建筑装饰</t>
+  </si>
+  <si>
+    <t>包装印刷</t>
+  </si>
+  <si>
+    <t>橡胶制品</t>
+  </si>
+  <si>
+    <t>电网设备</t>
+  </si>
+  <si>
+    <t>服装家纺</t>
+  </si>
+  <si>
     <t>种植业与林业</t>
   </si>
   <si>
-    <t>电力</t>
-  </si>
-  <si>
-    <t>小家电</t>
-  </si>
-  <si>
-    <t>汽车零部件</t>
-  </si>
-  <si>
-    <t>家居用品</t>
-  </si>
-  <si>
-    <t>环保设备</t>
-  </si>
-  <si>
-    <t>农产品加工</t>
-  </si>
-  <si>
-    <t>房地产</t>
-  </si>
-  <si>
-    <t>建筑装饰</t>
-  </si>
-  <si>
-    <t>包装印刷</t>
-  </si>
-  <si>
-    <t>橡胶制品</t>
-  </si>
-  <si>
-    <t>电网设备</t>
-  </si>
-  <si>
-    <t>服装家纺</t>
-  </si>
-  <si>
     <t>化学原料</t>
   </si>
   <si>
     <t>医疗器械</t>
   </si>
   <si>
+    <t>其他社会服务</t>
+  </si>
+  <si>
+    <t>专用设备</t>
+  </si>
+  <si>
     <t>通用设备</t>
   </si>
   <si>
-    <t>专用设备</t>
+    <t>环境治理</t>
+  </si>
+  <si>
+    <t>其他电子</t>
   </si>
   <si>
     <t>建筑材料</t>
@@ -469,19 +490,13 @@
     <t>纺织制造</t>
   </si>
   <si>
-    <t>环境治理</t>
-  </si>
-  <si>
     <t>化学制品</t>
   </si>
   <si>
-    <t>其他社会服务</t>
+    <t>白色家电</t>
   </si>
   <si>
     <t>轨交设备</t>
-  </si>
-  <si>
-    <t>软件开发</t>
   </si>
 </sst>
 </file>
@@ -839,7 +854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -891,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2">
         <v>3.041</v>
@@ -900,16 +915,16 @@
         <v>0.35</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -926,7 +941,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3">
         <v>16.254</v>
@@ -935,16 +950,16 @@
         <v>0.35</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -952,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -961,25 +976,25 @@
         <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4">
-        <v>38.66</v>
+        <v>5.59</v>
       </c>
       <c r="G4">
-        <v>0.24</v>
+        <v>0.02</v>
       </c>
       <c r="H4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K4">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -996,25 +1011,25 @@
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F5">
-        <v>5.59</v>
+        <v>6.81</v>
       </c>
       <c r="G5">
         <v>0.02</v>
       </c>
       <c r="H5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K5">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1031,25 +1046,25 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F6">
-        <v>6.81</v>
+        <v>4.34</v>
       </c>
       <c r="G6">
         <v>0.02</v>
       </c>
       <c r="H6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K6">
-        <v>-0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1066,22 +1081,22 @@
         <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7">
-        <v>6.97</v>
+        <v>15.41</v>
       </c>
       <c r="G7">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K7">
         <v>0.01</v>
@@ -1101,25 +1116,25 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F8">
-        <v>4.59</v>
+        <v>24.57</v>
       </c>
       <c r="G8">
         <v>0.02</v>
       </c>
       <c r="H8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K8">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1136,25 +1151,25 @@
         <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9">
-        <v>15.49</v>
+        <v>21.11</v>
       </c>
       <c r="G9">
         <v>0.02</v>
       </c>
       <c r="H9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J9" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K9">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1171,7 +1186,7 @@
         <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10">
         <v>25.82</v>
@@ -1180,13 +1195,13 @@
         <v>0.02</v>
       </c>
       <c r="H10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="K10">
         <v>0.07000000000000001</v>
@@ -1206,7 +1221,7 @@
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F11">
         <v>18.18</v>
@@ -1215,16 +1230,16 @@
         <v>0.02</v>
       </c>
       <c r="H11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="K11">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1241,7 +1256,7 @@
         <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12">
         <v>12.23</v>
@@ -1250,13 +1265,13 @@
         <v>0.02</v>
       </c>
       <c r="H12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K12">
         <v>0.02</v>
@@ -1276,25 +1291,25 @@
         <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13">
-        <v>13.1</v>
+        <v>8.73</v>
       </c>
       <c r="G13">
         <v>0.02</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K13">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1311,25 +1326,25 @@
         <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F14">
-        <v>8.73</v>
+        <v>22.69</v>
       </c>
       <c r="G14">
         <v>0.02</v>
       </c>
       <c r="H14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K14">
-        <v>0.05</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1346,7 +1361,7 @@
         <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F15">
         <v>23.32</v>
@@ -1355,16 +1370,16 @@
         <v>0.02</v>
       </c>
       <c r="H15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I15" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K15">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1381,7 +1396,7 @@
         <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F16">
         <v>13.62</v>
@@ -1390,16 +1405,16 @@
         <v>0.02</v>
       </c>
       <c r="H16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I16" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K16">
-        <v>-0.01</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1416,7 +1431,7 @@
         <v>28</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F17">
         <v>5.94</v>
@@ -1425,16 +1440,16 @@
         <v>0.02</v>
       </c>
       <c r="H17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1451,7 +1466,7 @@
         <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F18">
         <v>7.22</v>
@@ -1460,16 +1475,16 @@
         <v>0.01</v>
       </c>
       <c r="H18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I18" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J18" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="K18">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1486,25 +1501,25 @@
         <v>30</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F19">
         <v>3.42</v>
       </c>
       <c r="G19">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I19" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1521,22 +1536,22 @@
         <v>31</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F20">
-        <v>7.14</v>
+        <v>7.07</v>
       </c>
       <c r="G20">
         <v>0.01</v>
       </c>
       <c r="H20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J20" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K20">
         <v>0.01</v>
@@ -1556,7 +1571,7 @@
         <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F21">
         <v>6.42</v>
@@ -1565,16 +1580,16 @@
         <v>0.02</v>
       </c>
       <c r="H21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J21" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K21">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1591,25 +1606,25 @@
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F22">
-        <v>7.28</v>
+        <v>7.01</v>
       </c>
       <c r="G22">
         <v>0.02</v>
       </c>
       <c r="H22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I22" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J22" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K22">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1626,7 +1641,7 @@
         <v>34</v>
       </c>
       <c r="E23" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F23">
         <v>5.13</v>
@@ -1635,16 +1650,16 @@
         <v>0.02</v>
       </c>
       <c r="H23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J23" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K23">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1661,25 +1676,25 @@
         <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F24">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="G24">
         <v>0.02</v>
       </c>
       <c r="H24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J24" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="K24">
-        <v>0.06</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1696,25 +1711,25 @@
         <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F25">
-        <v>9.869999999999999</v>
+        <v>5.16</v>
       </c>
       <c r="G25">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K25">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1731,25 +1746,25 @@
         <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F26">
-        <v>7.3</v>
+        <v>10.24</v>
       </c>
       <c r="G26">
         <v>0.02</v>
       </c>
       <c r="H26" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I26" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J26" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K26">
-        <v>0.01</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1766,25 +1781,25 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F27">
-        <v>7.76</v>
+        <v>4.6</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="H27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I27" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J27" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1801,25 +1816,25 @@
         <v>39</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F28">
-        <v>8.06</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="G28">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I28" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J28" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K28">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1836,25 +1851,25 @@
         <v>40</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F29">
-        <v>10.19</v>
+        <v>7.25</v>
       </c>
       <c r="G29">
         <v>0.02</v>
       </c>
       <c r="H29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I29" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J29" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K29">
-        <v>-0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1871,19 +1886,19 @@
         <v>41</v>
       </c>
       <c r="E30" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F30">
-        <v>8.119999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="G30">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I30" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J30" t="s">
         <v>146</v>
@@ -1906,25 +1921,25 @@
         <v>42</v>
       </c>
       <c r="E31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F31">
-        <v>25.08</v>
+        <v>8.06</v>
       </c>
       <c r="G31">
+        <v>0.02</v>
+      </c>
+      <c r="H31" t="s">
+        <v>123</v>
+      </c>
+      <c r="I31" t="s">
+        <v>127</v>
+      </c>
+      <c r="J31" t="s">
+        <v>149</v>
+      </c>
+      <c r="K31">
         <v>0.01</v>
-      </c>
-      <c r="H31" t="s">
-        <v>122</v>
-      </c>
-      <c r="I31" t="s">
-        <v>125</v>
-      </c>
-      <c r="J31" t="s">
-        <v>147</v>
-      </c>
-      <c r="K31">
-        <v>0.03</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1941,25 +1956,25 @@
         <v>43</v>
       </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F32">
-        <v>15.14</v>
+        <v>3.63</v>
       </c>
       <c r="G32">
         <v>0.02</v>
       </c>
       <c r="H32" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I32" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J32" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K32">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1976,25 +1991,25 @@
         <v>44</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F33">
-        <v>18.02</v>
+        <v>22.94</v>
       </c>
       <c r="G33">
         <v>0.02</v>
       </c>
       <c r="H33" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I33" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J33" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="K33">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -2011,22 +2026,22 @@
         <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F34">
-        <v>26.43</v>
+        <v>25.08</v>
       </c>
       <c r="G34">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I34" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J34" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="K34">
         <v>0.01</v>
@@ -2046,25 +2061,25 @@
         <v>46</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F35">
-        <v>18.17</v>
+        <v>15.14</v>
       </c>
       <c r="G35">
         <v>0.02</v>
       </c>
       <c r="H35" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I35" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J35" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="K35">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -2081,25 +2096,25 @@
         <v>47</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F36">
-        <v>2.83</v>
+        <v>11.37</v>
       </c>
       <c r="G36">
         <v>0.02</v>
       </c>
       <c r="H36" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I36" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J36" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="K36">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -2116,25 +2131,25 @@
         <v>48</v>
       </c>
       <c r="E37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F37">
-        <v>6.38</v>
+        <v>26.25</v>
       </c>
       <c r="G37">
         <v>0.02</v>
       </c>
       <c r="H37" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I37" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J37" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K37">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -2151,25 +2166,25 @@
         <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F38">
-        <v>6.75</v>
+        <v>22.73</v>
       </c>
       <c r="G38">
+        <v>0.02</v>
+      </c>
+      <c r="H38" t="s">
+        <v>124</v>
+      </c>
+      <c r="I38" t="s">
+        <v>127</v>
+      </c>
+      <c r="J38" t="s">
+        <v>154</v>
+      </c>
+      <c r="K38">
         <v>0.01</v>
-      </c>
-      <c r="H38" t="s">
-        <v>121</v>
-      </c>
-      <c r="I38" t="s">
-        <v>125</v>
-      </c>
-      <c r="J38" t="s">
-        <v>150</v>
-      </c>
-      <c r="K38">
-        <v>0.04</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -2186,25 +2201,25 @@
         <v>50</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F39">
-        <v>3.73</v>
+        <v>18.17</v>
       </c>
       <c r="G39">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H39" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I39" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J39" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="K39">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -2221,25 +2236,25 @@
         <v>51</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F40">
-        <v>12.33</v>
+        <v>14.84</v>
       </c>
       <c r="G40">
         <v>0.02</v>
       </c>
       <c r="H40" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="I40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J40" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="K40">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -2256,25 +2271,25 @@
         <v>52</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F41">
-        <v>5.07</v>
+        <v>2.83</v>
       </c>
       <c r="G41">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I41" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J41" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -2291,25 +2306,25 @@
         <v>53</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F42">
-        <v>5.92</v>
+        <v>6.38</v>
       </c>
       <c r="G42">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H42" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I42" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J42" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="K42">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -2326,25 +2341,25 @@
         <v>54</v>
       </c>
       <c r="E43" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F43">
-        <v>3.91</v>
+        <v>6.86</v>
       </c>
       <c r="G43">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H43" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I43" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J43" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="K43">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -2361,25 +2376,25 @@
         <v>55</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F44">
-        <v>18.08</v>
+        <v>5.07</v>
       </c>
       <c r="G44">
         <v>0.01</v>
       </c>
       <c r="H44" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I44" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J44" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="K44">
-        <v>0.03</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -2396,25 +2411,25 @@
         <v>56</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F45">
-        <v>16.45</v>
+        <v>5.91</v>
       </c>
       <c r="G45">
         <v>0.02</v>
       </c>
       <c r="H45" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I45" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J45" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K45">
-        <v>-0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2431,25 +2446,25 @@
         <v>57</v>
       </c>
       <c r="E46" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F46">
-        <v>17.7</v>
+        <v>3.91</v>
       </c>
       <c r="G46">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H46" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I46" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J46" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="K46">
-        <v>-0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2466,25 +2481,25 @@
         <v>58</v>
       </c>
       <c r="E47" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F47">
-        <v>4.54</v>
+        <v>18.08</v>
       </c>
       <c r="G47">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="H47" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I47" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J47" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K47">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2501,25 +2516,25 @@
         <v>59</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F48">
-        <v>6.95</v>
+        <v>17.23</v>
       </c>
       <c r="G48">
         <v>0.02</v>
       </c>
       <c r="H48" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I48" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J48" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="K48">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2536,22 +2551,22 @@
         <v>60</v>
       </c>
       <c r="E49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F49">
-        <v>12.53</v>
+        <v>4.54</v>
       </c>
       <c r="G49">
         <v>0.02</v>
       </c>
       <c r="H49" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I49" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J49" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K49">
         <v>0.02</v>
@@ -2571,25 +2586,25 @@
         <v>61</v>
       </c>
       <c r="E50" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F50">
-        <v>5.85</v>
+        <v>11.95</v>
       </c>
       <c r="G50">
         <v>0.02</v>
       </c>
       <c r="H50" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I50" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J50" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="K50">
-        <v>0.04</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2606,25 +2621,25 @@
         <v>62</v>
       </c>
       <c r="E51" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F51">
-        <v>8.550000000000001</v>
+        <v>6.95</v>
       </c>
       <c r="G51">
         <v>0.02</v>
       </c>
       <c r="H51" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I51" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J51" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="K51">
-        <v>-0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2641,22 +2656,22 @@
         <v>63</v>
       </c>
       <c r="E52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F52">
-        <v>8.630000000000001</v>
+        <v>12.53</v>
       </c>
       <c r="G52">
         <v>0.02</v>
       </c>
       <c r="H52" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I52" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J52" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K52">
         <v>0.02</v>
@@ -2676,25 +2691,25 @@
         <v>64</v>
       </c>
       <c r="E53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F53">
-        <v>9.31</v>
+        <v>5.85</v>
       </c>
       <c r="G53">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H53" t="s">
         <v>123</v>
       </c>
       <c r="I53" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J53" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K53">
-        <v>-0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2711,25 +2726,25 @@
         <v>65</v>
       </c>
       <c r="E54" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F54">
-        <v>26.85</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="G54">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="H54" t="s">
         <v>123</v>
       </c>
       <c r="I54" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K54">
-        <v>0.02</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2746,25 +2761,60 @@
         <v>66</v>
       </c>
       <c r="E55" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F55">
-        <v>20.56</v>
+        <v>20.51</v>
       </c>
       <c r="G55">
+        <v>0.02</v>
+      </c>
+      <c r="H55" t="s">
+        <v>125</v>
+      </c>
+      <c r="I55" t="s">
+        <v>127</v>
+      </c>
+      <c r="J55" t="s">
+        <v>160</v>
+      </c>
+      <c r="K55">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56">
+        <v>26.85</v>
+      </c>
+      <c r="G56">
         <v>0.01</v>
       </c>
-      <c r="H55" t="s">
-        <v>123</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="H56" t="s">
         <v>125</v>
       </c>
-      <c r="J55" t="s">
-        <v>155</v>
-      </c>
-      <c r="K55">
-        <v>0.01</v>
+      <c r="I56" t="s">
+        <v>127</v>
+      </c>
+      <c r="J56" t="s">
+        <v>151</v>
+      </c>
+      <c r="K56">
+        <v>0.04</v>
       </c>
     </row>
   </sheetData>

--- a/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +427,1712 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>盈亏比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>000548</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>公路铁路运输</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000952</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-5.29</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>001231</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-3.36</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>001259</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>小家电</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>001260</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>汽车零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>001299</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>001333</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-7.18</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>塑料制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-5.19</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>环保设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-7.34</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>农产品加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>中天服务</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>002188</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-8.25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>002200</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-8.039999999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ST瑞和</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>002687</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>002748</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>化学原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>002753</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-2.72</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>002817</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-5.09</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>医疗器械</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>002968</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>002969</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>600113</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>600159</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>600235</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>造纸</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>600791</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-4.93</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>600796</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>博闻科技</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>600883</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-3.89</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>种植业与林业</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>601616</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-3.58</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>电网设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>601827</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>出版传媒</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>601999</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>文化传媒</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>603137</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>603172</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>603183</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>其他社会服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>603385</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-2.45</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>宁水集团</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>603700</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>*ST星农</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>603789</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>603808</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-7.37</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>605001</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>轨交设备</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -492,10 +2199,8 @@
           <t>湖南投资</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>000548</t>
-        </is>
+      <c r="C2" t="n">
+        <v>548</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -533,10 +2238,8 @@
           <t>德龙汇能</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>000593</t>
-        </is>
+      <c r="C3" t="n">
+        <v>593</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -574,10 +2277,8 @@
           <t>茂化实华</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>000637</t>
-        </is>
+      <c r="C4" t="n">
+        <v>637</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -615,10 +2316,8 @@
           <t>广济药业</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>000952</t>
-        </is>
+      <c r="C5" t="n">
+        <v>952</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -656,10 +2355,8 @@
           <t>金房能源</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>001210</t>
-        </is>
+      <c r="C6" t="n">
+        <v>1210</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -697,10 +2394,8 @@
           <t>双枪科技</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>001211</t>
-        </is>
+      <c r="C7" t="n">
+        <v>1211</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -738,10 +2433,8 @@
           <t>农心科技</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>001231</t>
-        </is>
+      <c r="C8" t="n">
+        <v>1231</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -779,10 +2472,8 @@
           <t>利仁科技</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>001259</t>
-        </is>
+      <c r="C9" t="n">
+        <v>1259</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -820,10 +2511,8 @@
           <t>坤泰股份</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>001260</t>
-        </is>
+      <c r="C10" t="n">
+        <v>1260</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -861,10 +2550,8 @@
           <t>美能能源</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>001299</t>
-        </is>
+      <c r="C11" t="n">
+        <v>1299</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -902,10 +2589,8 @@
           <t>箭牌家居</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>001322</t>
-        </is>
+      <c r="C12" t="n">
+        <v>1322</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -943,10 +2628,8 @@
           <t>光华股份</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>001333</t>
-        </is>
+      <c r="C13" t="n">
+        <v>1333</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -984,10 +2667,8 @@
           <t>楚环科技</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>001336</t>
-        </is>
+      <c r="C14" t="n">
+        <v>1336</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1025,10 +2706,8 @@
           <t>播恩集团</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>001366</t>
-        </is>
+      <c r="C15" t="n">
+        <v>1366</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1066,10 +2745,8 @@
           <t>中天服务</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>002188</t>
-        </is>
+      <c r="C16" t="n">
+        <v>2188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1107,10 +2784,8 @@
           <t>*ST交投</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>002200</t>
-        </is>
+      <c r="C17" t="n">
+        <v>2200</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1148,10 +2823,8 @@
           <t>华斯股份</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>002494</t>
-        </is>
+      <c r="C18" t="n">
+        <v>2494</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1189,10 +2862,8 @@
           <t>蓝丰生化</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>002513</t>
-        </is>
+      <c r="C19" t="n">
+        <v>2513</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1230,10 +2901,8 @@
           <t>ST瑞和</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>002620</t>
-        </is>
+      <c r="C20" t="n">
+        <v>2620</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1271,10 +2940,8 @@
           <t>乔治白</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>002687</t>
-        </is>
+      <c r="C21" t="n">
+        <v>2687</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1312,10 +2979,8 @@
           <t>永东股份</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>002753</t>
-        </is>
+      <c r="C22" t="n">
+        <v>2753</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1353,10 +3018,8 @@
           <t>黄山胶囊</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>002817</t>
-        </is>
+      <c r="C23" t="n">
+        <v>2817</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1394,10 +3057,8 @@
           <t>开普检测</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>003008</t>
-        </is>
+      <c r="C24" t="n">
+        <v>3008</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1435,10 +3096,8 @@
           <t>宁波联合</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>600051</t>
-        </is>
+      <c r="C25" t="n">
+        <v>600051</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1476,10 +3135,8 @@
           <t>大龙地产</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>600159</t>
-        </is>
+      <c r="C26" t="n">
+        <v>600159</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1517,10 +3174,8 @@
           <t>民丰特纸</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>600235</t>
-        </is>
+      <c r="C27" t="n">
+        <v>600235</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1558,10 +3213,8 @@
           <t>凤竹纺织</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>600493</t>
-        </is>
+      <c r="C28" t="n">
+        <v>600493</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1599,10 +3252,8 @@
           <t>京能置业</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>600791</t>
-        </is>
+      <c r="C29" t="n">
+        <v>600791</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1640,10 +3291,8 @@
           <t>钱江生化</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>600796</t>
-        </is>
+      <c r="C30" t="n">
+        <v>600796</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1681,10 +3330,8 @@
           <t>万里股份</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>600847</t>
-        </is>
+      <c r="C31" t="n">
+        <v>600847</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1722,10 +3369,8 @@
           <t>广电电气</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>601616</t>
-        </is>
+      <c r="C32" t="n">
+        <v>601616</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1763,10 +3408,8 @@
           <t>三峰环境</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>601827</t>
-        </is>
+      <c r="C33" t="n">
+        <v>601827</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1804,10 +3447,8 @@
           <t>彩蝶实业</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>603073</t>
-        </is>
+      <c r="C34" t="n">
+        <v>603073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1845,10 +3486,8 @@
           <t>万丰股份</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>603172</t>
-        </is>
+      <c r="C35" t="n">
+        <v>603172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1886,10 +3525,8 @@
           <t>建研院</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>603183</t>
-        </is>
+      <c r="C36" t="n">
+        <v>603183</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1927,10 +3564,8 @@
           <t>金海高科</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>603311</t>
-        </is>
+      <c r="C37" t="n">
+        <v>603311</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1968,10 +3603,8 @@
           <t>惠达卫浴</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>603385</t>
-        </is>
+      <c r="C38" t="n">
+        <v>603385</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2009,10 +3642,8 @@
           <t>宁水集团</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>603700</t>
-        </is>
+      <c r="C39" t="n">
+        <v>603700</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2050,10 +3681,8 @@
           <t>*ST星农</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>603789</t>
-        </is>
+      <c r="C40" t="n">
+        <v>603789</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2091,10 +3720,8 @@
           <t>歌力思</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>603808</t>
-        </is>
+      <c r="C41" t="n">
+        <v>603808</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2132,10 +3759,8 @@
           <t>醋化股份</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>603968</t>
-        </is>
+      <c r="C42" t="n">
+        <v>603968</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2167,7 +3792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
@@ -7,9 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,14 +508,14 @@
         <v>5.59</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.15</v>
+        <v>-2.68</v>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -531,12 +532,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>三木集团</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>000952</t>
+          <t>000632</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -545,22 +546,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.99</v>
+        <v>3.93</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.29</v>
+        <v>-1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>综合</t>
         </is>
       </c>
     </row>
@@ -572,12 +573,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>茂化实华</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>001231</t>
+          <t>000637</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -586,22 +587,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.11</v>
+        <v>4.21</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.36</v>
+        <v>-0.95</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>石油加工贸易</t>
         </is>
       </c>
     </row>
@@ -613,12 +614,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>利仁科技</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>001259</t>
+          <t>000952</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -627,22 +628,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.82</v>
+        <v>6.99</v>
       </c>
       <c r="F5" t="n">
-        <v>0.31</v>
+        <v>-6.15</v>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>小家电</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -654,12 +655,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>坤泰股份</t>
+          <t>双枪科技</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>001260</t>
+          <t>001211</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -668,22 +669,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.18</v>
+        <v>24.8</v>
       </c>
       <c r="F6" t="n">
-        <v>9.19</v>
+        <v>0.44</v>
       </c>
       <c r="G6" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>汽车零部件</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -695,12 +696,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>001299</t>
+          <t>001231</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -709,22 +710,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12.23</v>
+        <v>21.11</v>
       </c>
       <c r="F7" t="n">
-        <v>1.39</v>
+        <v>-3.27</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>燃气</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -736,12 +737,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>坤泰股份</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>001322</t>
+          <t>001260</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -750,22 +751,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.73</v>
+        <v>18.18</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.03</v>
+        <v>10.56</v>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
@@ -777,12 +778,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>001333</t>
+          <t>001299</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -791,22 +792,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.69</v>
+        <v>12.23</v>
       </c>
       <c r="F9" t="n">
-        <v>-7.18</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>燃气</t>
         </is>
       </c>
     </row>
@@ -818,12 +819,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>001336</t>
+          <t>001322</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -832,22 +833,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.32</v>
+        <v>8.73</v>
       </c>
       <c r="F10" t="n">
-        <v>-5.19</v>
+        <v>-2.18</v>
       </c>
       <c r="G10" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>环保设备</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -859,12 +860,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>001366</t>
+          <t>001333</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -873,22 +874,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13.62</v>
+        <v>22.69</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.34</v>
+        <v>-6.92</v>
       </c>
       <c r="G11" t="n">
         <v>1.97</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>农产品加工</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -900,12 +901,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>中天服务</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>002188</t>
+          <t>001336</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -914,22 +915,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5.94</v>
+        <v>23.32</v>
       </c>
       <c r="F12" t="n">
-        <v>-8.25</v>
+        <v>-6.56</v>
       </c>
       <c r="G12" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>环保设备</t>
         </is>
       </c>
     </row>
@@ -941,12 +942,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>*ST交投</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>002200</t>
+          <t>001366</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -955,22 +956,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7.22</v>
+        <v>13.62</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-9.029999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.57</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -982,12 +983,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>德冠新材</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>002360</t>
+          <t>001378</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -996,22 +997,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.32</v>
+        <v>22.78</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.32</v>
+        <v>-1.01</v>
       </c>
       <c r="G14" t="n">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -1023,12 +1024,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>中天服务</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>002494</t>
+          <t>002188</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1037,22 +1038,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.13</v>
+        <v>5.94</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.7</v>
+        <v>-9.93</v>
       </c>
       <c r="G15" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -1064,12 +1065,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>蓝丰生化</t>
+          <t>*ST交投</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>002513</t>
+          <t>002200</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1078,22 +1079,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5.6</v>
+        <v>7.22</v>
       </c>
       <c r="F16" t="n">
-        <v>-8.039999999999999</v>
+        <v>-1.11</v>
       </c>
       <c r="G16" t="n">
-        <v>1.92</v>
+        <v>0.57</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -1105,12 +1106,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ST瑞和</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>002620</t>
+          <t>002360</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1119,22 +1120,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.16</v>
+        <v>5.32</v>
       </c>
       <c r="F17" t="n">
-        <v>2.71</v>
+        <v>-3.38</v>
       </c>
       <c r="G17" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -1146,12 +1147,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>002687</t>
+          <t>002494</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1160,17 +1161,17 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.6</v>
+        <v>5.13</v>
       </c>
       <c r="F18" t="n">
-        <v>0.43</v>
+        <v>-6.43</v>
       </c>
       <c r="G18" t="n">
-        <v>1.54</v>
+        <v>1.88</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1187,12 +1188,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>世龙实业</t>
+          <t>蓝丰生化</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>002748</t>
+          <t>002513</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1201,22 +1202,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9.51</v>
+        <v>5.6</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.05</v>
+        <v>-8.93</v>
       </c>
       <c r="G19" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>化学原料</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -1228,12 +1229,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>永东股份</t>
+          <t>恒大高新</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>002753</t>
+          <t>002591</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1242,22 +1243,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.25</v>
+        <v>5.88</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.21</v>
+        <v>-0.51</v>
       </c>
       <c r="G20" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>橡胶制品</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1270,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>瑞尔特</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>002790</t>
+          <t>002687</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1283,22 +1284,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>7.71</v>
+        <v>4.6</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.72</v>
+        <v>-1.3</v>
       </c>
       <c r="G21" t="n">
-        <v>2.01</v>
+        <v>1.53</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -1327,14 +1328,14 @@
         <v>8.06</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.09</v>
+        <v>-7.2</v>
       </c>
       <c r="G22" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1351,12 +1352,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>新大正</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>002968</t>
+          <t>002836</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1365,22 +1366,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.95</v>
+        <v>9.26</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.37</v>
+        <v>0.43</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -1392,12 +1393,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>新大正</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>002969</t>
+          <t>002968</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1406,22 +1407,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.59</v>
+        <v>10.95</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.51</v>
+        <v>-2.28</v>
       </c>
       <c r="G24" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>包装印刷</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -1433,12 +1434,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>600113</t>
+          <t>002969</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1447,22 +1448,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>58.6</v>
+        <v>3.59</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.62</v>
+        <v>-2.51</v>
       </c>
       <c r="G25" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>零售</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -1491,14 +1492,14 @@
         <v>2.83</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.71</v>
+        <v>-2.47</v>
       </c>
       <c r="G26" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1532,14 +1533,14 @@
         <v>6.38</v>
       </c>
       <c r="F27" t="n">
-        <v>1.1</v>
+        <v>2.35</v>
       </c>
       <c r="G27" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1556,12 +1557,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>600791</t>
+          <t>600493</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1570,22 +1571,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.07</v>
+        <v>6.5</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.93</v>
+        <v>0.62</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2.01</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>纺织制造</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1598,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>宁波富邦</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>600796</t>
+          <t>600768</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1611,22 +1612,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.91</v>
+        <v>12.16</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.68</v>
+        <v>0.9</v>
       </c>
       <c r="G29" t="n">
-        <v>1.71</v>
+        <v>2.01</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -1638,12 +1639,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>博闻科技</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>600883</t>
+          <t>600791</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1652,22 +1653,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8.220000000000001</v>
+        <v>5.07</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.89</v>
+        <v>-5.52</v>
       </c>
       <c r="G30" t="n">
-        <v>1.97</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>种植业与林业</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -1679,12 +1680,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>广电电气</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>601616</t>
+          <t>600796</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1693,22 +1694,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.91</v>
+        <v>5.91</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.58</v>
+        <v>-1.52</v>
       </c>
       <c r="G31" t="n">
-        <v>1.23</v>
+        <v>1.71</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -1720,12 +1721,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>三峰环境</t>
+          <t>广电电气</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>601827</t>
+          <t>601616</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1734,22 +1735,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>8.550000000000001</v>
+        <v>3.91</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.47</v>
+        <v>-5.12</v>
       </c>
       <c r="G32" t="n">
-        <v>2.07</v>
+        <v>1.22</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -1761,12 +1762,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>出版传媒</t>
+          <t>三峰环境</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>601999</t>
+          <t>601827</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1775,22 +1776,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>7.22</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.39</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>文化传媒</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -1802,12 +1803,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>恒尚节能</t>
+          <t>万丰股份</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>603137</t>
+          <t>603172</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1816,22 +1817,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>15.56</v>
+        <v>17.23</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.89</v>
+        <v>-6.67</v>
       </c>
       <c r="G34" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -1843,12 +1844,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>嘉华股份</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>603172</t>
+          <t>603182</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1857,22 +1858,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>17.23</v>
+        <v>13.85</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.95</v>
+        <v>0.72</v>
       </c>
       <c r="G35" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -1901,14 +1902,14 @@
         <v>4.54</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.08</v>
+        <v>-4.41</v>
       </c>
       <c r="G36" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -1925,12 +1926,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>惠达卫浴</t>
+          <t>金海高科</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>603385</t>
+          <t>603311</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1939,22 +1940,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6.95</v>
+        <v>11.25</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.45</v>
+        <v>-1.51</v>
       </c>
       <c r="G37" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>白色家电</t>
         </is>
       </c>
     </row>
@@ -1966,12 +1967,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>宁水集团</t>
+          <t>惠达卫浴</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>603700</t>
+          <t>603385</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1980,22 +1981,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>12.53</v>
+        <v>6.95</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.15</v>
+        <v>-3.17</v>
       </c>
       <c r="G38" t="n">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -2024,14 +2025,14 @@
         <v>5.85</v>
       </c>
       <c r="F39" t="n">
-        <v>1.88</v>
+        <v>2.91</v>
       </c>
       <c r="G39" t="n">
-        <v>2.11</v>
+        <v>0.55</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -2065,14 +2066,14 @@
         <v>8.550000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>-7.37</v>
+        <v>-5.73</v>
       </c>
       <c r="G40" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -2106,14 +2107,14 @@
         <v>7.7</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.82</v>
+        <v>-2.6</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -2128,6 +2129,1632 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>盈亏比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>548</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>公路铁路运输</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>952</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-5.29</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1231</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-3.36</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1259</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>小家电</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>汽车零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1299</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1322</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1333</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-7.18</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>塑料制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1336</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-5.19</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>环保设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1366</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-7.34</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>农产品加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>中天服务</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2188</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-8.25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2200</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2360</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2494</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2513</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-8.039999999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ST瑞和</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2620</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2687</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2748</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>化学原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2753</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2790</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-2.72</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2817</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-5.09</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>医疗器械</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2968</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2969</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>600113</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>600159</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>600235</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>造纸</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>600791</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-4.93</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>600796</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>博闻科技</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>600883</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-3.89</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>种植业与林业</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>601616</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-3.58</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>电网设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>601827</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>出版传媒</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>601999</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>文化传媒</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>603137</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>603172</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>603183</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>其他社会服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>603385</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-2.45</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>宁水集团</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>603700</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>*ST星农</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>603789</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>603808</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-7.37</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>605001</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>轨交设备</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3792,7 +5419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
@@ -7,10 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,20 +465,15 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>盈亏比例%</t>
+          <t>新比例%</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>新比例%</t>
+          <t>时间</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>行业</t>
         </is>
@@ -486,17 +482,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>湖南投资</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>000548</t>
+          <t>603322</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -505,22 +501,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5.59</v>
+        <v>43.76</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.68</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.03</v>
+        <v>35.15</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>公路铁路运输</t>
+          <t>IT服务</t>
         </is>
       </c>
     </row>
@@ -532,12 +525,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>三木集团</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>000632</t>
+          <t>000952</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -546,22 +539,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3.93</v>
+        <v>6.99</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.02</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>综合</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -573,12 +563,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>茂化实华</t>
+          <t>双枪科技</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>000637</t>
+          <t>001211</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -587,22 +577,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.21</v>
+        <v>24.8</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>石油加工贸易</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -614,12 +601,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>000952</t>
+          <t>001231</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -628,22 +615,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6.99</v>
+        <v>21.11</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.15</v>
-      </c>
-      <c r="G5" t="n">
         <v>2</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>化学制药</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -655,12 +639,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>双枪科技</t>
+          <t>坤泰股份</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>001211</t>
+          <t>001260</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -669,22 +653,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.8</v>
+        <v>18.18</v>
       </c>
       <c r="F6" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.01</v>
+        <v>2.11</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>家居用品</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
@@ -696,12 +677,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>001231</t>
+          <t>001299</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -710,22 +691,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21.11</v>
+        <v>12.23</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.27</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>农化制品</t>
+          <t>燃气</t>
         </is>
       </c>
     </row>
@@ -737,12 +715,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>坤泰股份</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>001260</t>
+          <t>001322</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -751,22 +729,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>18.18</v>
+        <v>8.73</v>
       </c>
       <c r="F8" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>汽车零部件</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -778,12 +753,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>001299</t>
+          <t>001333</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -792,22 +767,19 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>12.23</v>
+        <v>22.69</v>
       </c>
       <c r="F9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>燃气</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -819,12 +791,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>001322</t>
+          <t>001336</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -833,22 +805,19 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8.73</v>
+        <v>23.32</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.18</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>家居用品</t>
+          <t>环保设备</t>
         </is>
       </c>
     </row>
@@ -860,12 +829,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>001333</t>
+          <t>001366</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -874,22 +843,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.69</v>
+        <v>13.62</v>
       </c>
       <c r="F11" t="n">
-        <v>-6.92</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>塑料制品</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -901,12 +867,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>中天服务</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>001336</t>
+          <t>002188</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -915,22 +881,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>23.32</v>
+        <v>5.94</v>
       </c>
       <c r="F12" t="n">
-        <v>-6.56</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>环保设备</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -942,12 +905,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>*ST交投</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>001366</t>
+          <t>002200</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -956,22 +919,19 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>13.62</v>
+        <v>7.22</v>
       </c>
       <c r="F13" t="n">
-        <v>-9.029999999999999</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.95</v>
+        <v>0.2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>农产品加工</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -983,12 +943,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>德冠新材</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>001378</t>
+          <t>002360</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -997,22 +957,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.78</v>
+        <v>5.32</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>塑料制品</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -1024,12 +981,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>中天服务</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>002188</t>
+          <t>002494</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1038,22 +995,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.94</v>
+        <v>5.13</v>
       </c>
       <c r="F15" t="n">
-        <v>-9.93</v>
-      </c>
-      <c r="G15" t="n">
         <v>1.87</v>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>房地产</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -1065,12 +1019,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>*ST交投</t>
+          <t>蓝丰生化</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>002200</t>
+          <t>002513</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1079,22 +1033,19 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7.22</v>
+        <v>5.6</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.57</v>
+        <v>1.93</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>建筑装饰</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -1106,12 +1057,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>002360</t>
+          <t>002687</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1120,22 +1071,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.32</v>
+        <v>4.6</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.38</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.99</v>
+        <v>1.51</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>化学制品</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -1147,12 +1095,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>瑞尔特</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>002494</t>
+          <t>002790</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1161,22 +1109,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5.13</v>
+        <v>7.33</v>
       </c>
       <c r="F18" t="n">
-        <v>-6.43</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.88</v>
+        <v>1.97</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -1188,12 +1133,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>蓝丰生化</t>
+          <t>黄山胶囊</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>002513</t>
+          <t>002817</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1202,22 +1147,19 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5.6</v>
+        <v>8.06</v>
       </c>
       <c r="F19" t="n">
-        <v>-8.93</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>农化制品</t>
+          <t>医疗器械</t>
         </is>
       </c>
     </row>
@@ -1229,12 +1171,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>恒大高新</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>002591</t>
+          <t>002836</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1243,22 +1185,19 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.88</v>
+        <v>9.26</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.99</v>
+        <v>2</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>化学制品</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -1270,12 +1209,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>美芝股份</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>002687</t>
+          <t>002856</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1284,22 +1223,19 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4.6</v>
+        <v>10.15</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.53</v>
+        <v>2.02</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1247,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>黄山胶囊</t>
+          <t>新大正</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>002817</t>
+          <t>002968</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1325,22 +1261,19 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>8.06</v>
+        <v>10.95</v>
       </c>
       <c r="F22" t="n">
-        <v>-7.2</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>医疗器械</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -1352,12 +1285,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>新宏泽</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>002836</t>
+          <t>002969</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1366,20 +1299,17 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9.26</v>
+        <v>3.59</v>
       </c>
       <c r="F23" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.01</v>
+        <v>1.98</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
         <is>
           <t>包装印刷</t>
         </is>
@@ -1393,12 +1323,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>新大正</t>
+          <t>金花股份</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>002968</t>
+          <t>600080</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1407,22 +1337,19 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>10.95</v>
+        <v>7.49</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.28</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>房地产</t>
+          <t>中药</t>
         </is>
       </c>
     </row>
@@ -1434,12 +1361,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>浙江东日</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>002969</t>
+          <t>600113</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1448,22 +1375,19 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.59</v>
+        <v>57.82</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.51</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.01</v>
+        <v>1.97</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
+          <t>零售</t>
         </is>
       </c>
     </row>
@@ -1492,17 +1416,14 @@
         <v>2.83</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.47</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
         <is>
           <t>房地产</t>
         </is>
@@ -1516,12 +1437,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>民丰特纸</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>600235</t>
+          <t>600493</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1530,22 +1451,19 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6.38</v>
+        <v>6.5</v>
       </c>
       <c r="F27" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>造纸</t>
+          <t>纺织制造</t>
         </is>
       </c>
     </row>
@@ -1557,12 +1475,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>凤竹纺织</t>
+          <t>宁波富邦</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>600493</t>
+          <t>600768</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1571,22 +1489,19 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6.5</v>
+        <v>12.16</v>
       </c>
       <c r="F28" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2.01</v>
+        <v>2</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>纺织制造</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -1598,12 +1513,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>宁波富邦</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>600768</t>
+          <t>600791</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1612,22 +1527,19 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>12.16</v>
+        <v>5.07</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.01</v>
+        <v>0.98</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>电网设备</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -1639,12 +1551,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>600791</t>
+          <t>600796</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1653,22 +1565,19 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5.07</v>
+        <v>5.91</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.52</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
+        <v>1.7</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>房地产</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -1680,12 +1589,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>福建水泥</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>600796</t>
+          <t>600802</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1694,22 +1603,19 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.91</v>
+        <v>5.36</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.52</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.71</v>
+        <v>1.98</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>环境治理</t>
+          <t>建筑材料</t>
         </is>
       </c>
     </row>
@@ -1721,12 +1627,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>广电电气</t>
+          <t>万里股份</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>601616</t>
+          <t>600847</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1735,22 +1641,19 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3.91</v>
+        <v>10.77</v>
       </c>
       <c r="F32" t="n">
-        <v>-5.12</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.22</v>
+        <v>1.92</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>电网设备</t>
+          <t>电池</t>
         </is>
       </c>
     </row>
@@ -1762,12 +1665,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>三峰环境</t>
+          <t>重庆燃气</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>601827</t>
+          <t>600917</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1776,22 +1679,19 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>8.550000000000001</v>
+        <v>5.73</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2.08</v>
+        <v>1.86</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>环境治理</t>
+          <t>燃气</t>
         </is>
       </c>
     </row>
@@ -1820,17 +1720,14 @@
         <v>17.23</v>
       </c>
       <c r="F34" t="n">
-        <v>-6.67</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.93</v>
+        <v>2</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H34" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
         <is>
           <t>化学制品</t>
         </is>
@@ -1861,17 +1758,14 @@
         <v>13.85</v>
       </c>
       <c r="F35" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2.04</v>
+        <v>0.31</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H35" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
         <is>
           <t>农产品加工</t>
         </is>
@@ -1902,17 +1796,14 @@
         <v>4.54</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.41</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H36" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
         <is>
           <t>其他社会服务</t>
         </is>
@@ -1926,12 +1817,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>金海高科</t>
+          <t>亚邦股份</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>603311</t>
+          <t>603188</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1940,22 +1831,19 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>11.25</v>
+        <v>4.24</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.51</v>
-      </c>
-      <c r="G37" t="n">
         <v>1.97</v>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>白色家电</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -1984,17 +1872,14 @@
         <v>6.95</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.17</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H38" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
         <is>
           <t>家居用品</t>
         </is>
@@ -2008,12 +1893,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>*ST星农</t>
+          <t>宁水集团</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>603789</t>
+          <t>603700</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2022,22 +1907,19 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5.85</v>
+        <v>12.27</v>
       </c>
       <c r="F39" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.55</v>
+        <v>2.06</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>专用设备</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -2066,17 +1948,14 @@
         <v>8.550000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>-5.73</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H40" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
         <is>
           <t>服装家纺</t>
         </is>
@@ -2107,19 +1986,54 @@
         <v>7.7</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2</v>
+        <v>1.98</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
           <t>轨交设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>春雪食品</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>605567</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>食品加工制造</t>
         </is>
       </c>
     </row>
@@ -2212,14 +2126,14 @@
         <v>5.59</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.15</v>
+        <v>-2.68</v>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -2236,11 +2150,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>三木集团</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>952</v>
+        <v>632</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -2248,22 +2162,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.99</v>
+        <v>3.93</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.29</v>
+        <v>-1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>综合</t>
         </is>
       </c>
     </row>
@@ -2275,11 +2189,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>茂化实华</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1231</v>
+        <v>637</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -2287,22 +2201,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.11</v>
+        <v>4.21</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.36</v>
+        <v>-0.95</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>石油加工贸易</t>
         </is>
       </c>
     </row>
@@ -2314,11 +2228,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>利仁科技</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1259</v>
+        <v>952</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -2326,22 +2240,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.82</v>
+        <v>6.99</v>
       </c>
       <c r="F5" t="n">
-        <v>0.31</v>
+        <v>-6.15</v>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>小家电</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -2353,11 +2267,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>坤泰股份</t>
+          <t>双枪科技</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1260</v>
+        <v>1211</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -2365,22 +2279,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.18</v>
+        <v>24.8</v>
       </c>
       <c r="F6" t="n">
-        <v>9.19</v>
+        <v>0.44</v>
       </c>
       <c r="G6" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>汽车零部件</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -2392,11 +2306,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1299</v>
+        <v>1231</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -2404,22 +2318,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12.23</v>
+        <v>21.11</v>
       </c>
       <c r="F7" t="n">
-        <v>1.39</v>
+        <v>-3.27</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>燃气</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -2431,11 +2345,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>坤泰股份</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1322</v>
+        <v>1260</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -2443,22 +2357,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.73</v>
+        <v>18.18</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.03</v>
+        <v>10.56</v>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
@@ -2470,11 +2384,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1333</v>
+        <v>1299</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -2482,22 +2396,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.69</v>
+        <v>12.23</v>
       </c>
       <c r="F9" t="n">
-        <v>-7.18</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>燃气</t>
         </is>
       </c>
     </row>
@@ -2509,11 +2423,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1336</v>
+        <v>1322</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -2521,22 +2435,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.32</v>
+        <v>8.73</v>
       </c>
       <c r="F10" t="n">
-        <v>-5.19</v>
+        <v>-2.18</v>
       </c>
       <c r="G10" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>环保设备</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -2548,11 +2462,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1366</v>
+        <v>1333</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -2560,22 +2474,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13.62</v>
+        <v>22.69</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.34</v>
+        <v>-6.92</v>
       </c>
       <c r="G11" t="n">
         <v>1.97</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>农产品加工</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -2587,11 +2501,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>中天服务</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2188</v>
+        <v>1336</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2599,22 +2513,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5.94</v>
+        <v>23.32</v>
       </c>
       <c r="F12" t="n">
-        <v>-8.25</v>
+        <v>-6.56</v>
       </c>
       <c r="G12" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>环保设备</t>
         </is>
       </c>
     </row>
@@ -2626,11 +2540,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>*ST交投</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2200</v>
+        <v>1366</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2638,22 +2552,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7.22</v>
+        <v>13.62</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-9.029999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.57</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -2665,11 +2579,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>德冠新材</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2360</v>
+        <v>1378</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2677,22 +2591,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.32</v>
+        <v>22.78</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.32</v>
+        <v>-1.01</v>
       </c>
       <c r="G14" t="n">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -2704,11 +2618,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>中天服务</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2494</v>
+        <v>2188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2716,22 +2630,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.13</v>
+        <v>5.94</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.7</v>
+        <v>-9.93</v>
       </c>
       <c r="G15" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -2743,11 +2657,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>蓝丰生化</t>
+          <t>*ST交投</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2513</v>
+        <v>2200</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2755,22 +2669,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5.6</v>
+        <v>7.22</v>
       </c>
       <c r="F16" t="n">
-        <v>-8.039999999999999</v>
+        <v>-1.11</v>
       </c>
       <c r="G16" t="n">
-        <v>1.92</v>
+        <v>0.57</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -2782,11 +2696,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ST瑞和</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2620</v>
+        <v>2360</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2794,22 +2708,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.16</v>
+        <v>5.32</v>
       </c>
       <c r="F17" t="n">
-        <v>2.71</v>
+        <v>-3.38</v>
       </c>
       <c r="G17" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -2821,11 +2735,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2687</v>
+        <v>2494</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2833,17 +2747,17 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.6</v>
+        <v>5.13</v>
       </c>
       <c r="F18" t="n">
-        <v>0.43</v>
+        <v>-6.43</v>
       </c>
       <c r="G18" t="n">
-        <v>1.54</v>
+        <v>1.88</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2860,11 +2774,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>世龙实业</t>
+          <t>蓝丰生化</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2748</v>
+        <v>2513</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2872,22 +2786,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9.51</v>
+        <v>5.6</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.05</v>
+        <v>-8.93</v>
       </c>
       <c r="G19" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>化学原料</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -2899,11 +2813,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>永东股份</t>
+          <t>恒大高新</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2753</v>
+        <v>2591</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2911,22 +2825,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.25</v>
+        <v>5.88</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.21</v>
+        <v>-0.51</v>
       </c>
       <c r="G20" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>橡胶制品</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -2938,11 +2852,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>瑞尔特</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2790</v>
+        <v>2687</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2950,22 +2864,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>7.71</v>
+        <v>4.6</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.72</v>
+        <v>-1.3</v>
       </c>
       <c r="G21" t="n">
-        <v>2.01</v>
+        <v>1.53</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -2992,14 +2906,14 @@
         <v>8.06</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.09</v>
+        <v>-7.2</v>
       </c>
       <c r="G22" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -3016,11 +2930,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>新大正</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2968</v>
+        <v>2836</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3028,22 +2942,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.95</v>
+        <v>9.26</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.37</v>
+        <v>0.43</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -3055,11 +2969,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>新大正</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3067,22 +2981,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.59</v>
+        <v>10.95</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.51</v>
+        <v>-2.28</v>
       </c>
       <c r="G24" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>包装印刷</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -3094,11 +3008,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>600113</v>
+        <v>2969</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3106,22 +3020,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>58.6</v>
+        <v>3.59</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.62</v>
+        <v>-2.51</v>
       </c>
       <c r="G25" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>零售</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -3148,14 +3062,14 @@
         <v>2.83</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.71</v>
+        <v>-2.47</v>
       </c>
       <c r="G26" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -3187,14 +3101,14 @@
         <v>6.38</v>
       </c>
       <c r="F27" t="n">
-        <v>1.1</v>
+        <v>2.35</v>
       </c>
       <c r="G27" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -3211,11 +3125,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>600791</v>
+        <v>600493</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3223,22 +3137,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.07</v>
+        <v>6.5</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.93</v>
+        <v>0.62</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2.01</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>纺织制造</t>
         </is>
       </c>
     </row>
@@ -3250,11 +3164,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>宁波富邦</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>600796</v>
+        <v>600768</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3262,22 +3176,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.91</v>
+        <v>12.16</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.68</v>
+        <v>0.9</v>
       </c>
       <c r="G29" t="n">
-        <v>1.71</v>
+        <v>2.01</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -3289,11 +3203,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>博闻科技</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>600883</v>
+        <v>600791</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3301,22 +3215,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8.220000000000001</v>
+        <v>5.07</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.89</v>
+        <v>-5.52</v>
       </c>
       <c r="G30" t="n">
-        <v>1.97</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>种植业与林业</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -3328,11 +3242,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>广电电气</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>601616</v>
+        <v>600796</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3340,22 +3254,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.91</v>
+        <v>5.91</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.58</v>
+        <v>-1.52</v>
       </c>
       <c r="G31" t="n">
-        <v>1.23</v>
+        <v>1.71</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -3367,11 +3281,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>三峰环境</t>
+          <t>广电电气</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>601827</v>
+        <v>601616</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3379,22 +3293,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>8.550000000000001</v>
+        <v>3.91</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.47</v>
+        <v>-5.12</v>
       </c>
       <c r="G32" t="n">
-        <v>2.07</v>
+        <v>1.22</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -3406,11 +3320,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>出版传媒</t>
+          <t>三峰环境</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>601999</v>
+        <v>601827</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3418,22 +3332,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>7.22</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.39</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>文化传媒</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -3445,11 +3359,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>恒尚节能</t>
+          <t>万丰股份</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>603137</v>
+        <v>603172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3457,22 +3371,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>15.56</v>
+        <v>17.23</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.89</v>
+        <v>-6.67</v>
       </c>
       <c r="G34" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -3484,11 +3398,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>嘉华股份</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>603172</v>
+        <v>603182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3496,22 +3410,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>17.23</v>
+        <v>13.85</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.95</v>
+        <v>0.72</v>
       </c>
       <c r="G35" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -3538,14 +3452,14 @@
         <v>4.54</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.08</v>
+        <v>-4.41</v>
       </c>
       <c r="G36" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3562,11 +3476,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>惠达卫浴</t>
+          <t>金海高科</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>603385</v>
+        <v>603311</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3574,22 +3488,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6.95</v>
+        <v>11.25</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.45</v>
+        <v>-1.51</v>
       </c>
       <c r="G37" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>白色家电</t>
         </is>
       </c>
     </row>
@@ -3601,11 +3515,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>宁水集团</t>
+          <t>惠达卫浴</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>603700</v>
+        <v>603385</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3613,22 +3527,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>12.53</v>
+        <v>6.95</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.15</v>
+        <v>-3.17</v>
       </c>
       <c r="G38" t="n">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -3655,14 +3569,14 @@
         <v>5.85</v>
       </c>
       <c r="F39" t="n">
-        <v>1.88</v>
+        <v>2.91</v>
       </c>
       <c r="G39" t="n">
-        <v>2.11</v>
+        <v>0.55</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3694,14 +3608,14 @@
         <v>8.550000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>-7.37</v>
+        <v>-5.73</v>
       </c>
       <c r="G40" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3733,14 +3647,14 @@
         <v>7.7</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.82</v>
+        <v>-2.6</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3755,6 +3669,1632 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>盈亏比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>548</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>公路铁路运输</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>952</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-5.29</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1231</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-3.36</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1259</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>小家电</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>汽车零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1299</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1322</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1333</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-7.18</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>塑料制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1336</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-5.19</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>环保设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1366</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-7.34</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>农产品加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>中天服务</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2188</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-8.25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2200</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2360</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2494</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2513</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-8.039999999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ST瑞和</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2620</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2687</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2748</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>化学原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2753</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2790</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-2.72</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2817</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-5.09</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>医疗器械</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2968</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2969</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>600113</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>600159</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>600235</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>造纸</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>600791</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-4.93</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>600796</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>博闻科技</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>600883</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-3.89</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>种植业与林业</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>601616</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-3.58</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>电网设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>601827</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>出版传媒</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>601999</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>文化传媒</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>603137</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>603172</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>603183</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>其他社会服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>603385</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-2.45</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>宁水集团</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>603700</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>*ST星农</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>603789</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>603808</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-7.37</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>605001</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>轨交设备</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5419,7 +6959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
@@ -7,11 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,11 +505,11 @@
         <v>43.76</v>
       </c>
       <c r="F2" t="n">
-        <v>35.15</v>
+        <v>34.96</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -542,11 +543,11 @@
         <v>6.99</v>
       </c>
       <c r="F3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -563,12 +564,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>双枪科技</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>001211</t>
+          <t>001231</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -577,19 +578,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24.8</v>
+        <v>21.11</v>
       </c>
       <c r="F4" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -601,12 +602,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>001231</t>
+          <t>001299</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -615,19 +616,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>21.11</v>
+        <v>12.23</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>燃气</t>
         </is>
       </c>
     </row>
@@ -639,12 +640,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>坤泰股份</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>001260</t>
+          <t>001322</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -653,19 +654,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.18</v>
+        <v>8.73</v>
       </c>
       <c r="F6" t="n">
-        <v>2.11</v>
+        <v>2.01</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>汽车零部件</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -677,12 +678,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>001299</t>
+          <t>001333</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -691,19 +692,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12.23</v>
+        <v>22.69</v>
       </c>
       <c r="F7" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>燃气</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -715,12 +716,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>001322</t>
+          <t>001336</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -729,19 +730,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.73</v>
+        <v>23.32</v>
       </c>
       <c r="F8" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>环保设备</t>
         </is>
       </c>
     </row>
@@ -753,12 +754,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>001333</t>
+          <t>001366</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -767,19 +768,19 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.69</v>
+        <v>13.62</v>
       </c>
       <c r="F9" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -791,12 +792,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>001336</t>
+          <t>002360</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -805,19 +806,19 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.32</v>
+        <v>5.32</v>
       </c>
       <c r="F10" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>环保设备</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -829,12 +830,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>001366</t>
+          <t>002494</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -843,19 +844,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13.62</v>
+        <v>4.95</v>
       </c>
       <c r="F11" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>农产品加工</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -867,12 +868,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>中天服务</t>
+          <t>蓝丰生化</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>002188</t>
+          <t>002513</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -881,19 +882,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5.94</v>
+        <v>5.6</v>
       </c>
       <c r="F12" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -905,12 +906,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>*ST交投</t>
+          <t>恒大高新</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>002200</t>
+          <t>002591</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -919,19 +920,19 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7.22</v>
+        <v>5.84</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2</v>
+        <v>2.02</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -943,12 +944,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>002360</t>
+          <t>002687</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -957,19 +958,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.32</v>
+        <v>4.6</v>
       </c>
       <c r="F14" t="n">
-        <v>1.98</v>
+        <v>1.53</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -981,12 +982,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>瑞尔特</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>002494</t>
+          <t>002790</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -995,19 +996,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.13</v>
+        <v>7.33</v>
       </c>
       <c r="F15" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1020,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>蓝丰生化</t>
+          <t>黄山胶囊</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>002513</t>
+          <t>002817</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1033,19 +1034,19 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5.6</v>
+        <v>8.06</v>
       </c>
       <c r="F16" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>医疗器械</t>
         </is>
       </c>
     </row>
@@ -1057,12 +1058,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>名雕股份</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>002687</t>
+          <t>002830</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1071,19 +1072,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4.6</v>
+        <v>16.95</v>
       </c>
       <c r="F17" t="n">
-        <v>1.51</v>
+        <v>1.97</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -1095,12 +1096,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>瑞尔特</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>002790</t>
+          <t>002836</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1109,19 +1110,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>7.33</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>1.97</v>
+        <v>1.09</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -1133,12 +1134,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>黄山胶囊</t>
+          <t>新大正</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>002817</t>
+          <t>002968</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1147,19 +1148,19 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>8.06</v>
+        <v>10.95</v>
       </c>
       <c r="F19" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>医疗器械</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -1171,12 +1172,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>新宏泽</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>002836</t>
+          <t>002969</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1185,14 +1186,14 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>9.26</v>
+        <v>3.59</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1209,12 +1210,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>美芝股份</t>
+          <t>开普检测</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>002856</t>
+          <t>003008</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1223,19 +1224,19 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10.15</v>
+        <v>21.7</v>
       </c>
       <c r="F21" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>其他社会服务</t>
         </is>
       </c>
     </row>
@@ -1247,12 +1248,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>新大正</t>
+          <t>浙江东日</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>002968</t>
+          <t>600113</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1261,19 +1262,19 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>10.95</v>
+        <v>57.82</v>
       </c>
       <c r="F22" t="n">
-        <v>1.99</v>
+        <v>2.03</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>零售</t>
         </is>
       </c>
     </row>
@@ -1285,12 +1286,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>大龙地产</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>002969</t>
+          <t>600159</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1299,19 +1300,19 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.59</v>
+        <v>2.83</v>
       </c>
       <c r="F23" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>包装印刷</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -1323,12 +1324,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>金花股份</t>
+          <t>民丰特纸</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>600080</t>
+          <t>600235</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1337,19 +1338,19 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>7.49</v>
+        <v>6.52</v>
       </c>
       <c r="F24" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>中药</t>
+          <t>造纸</t>
         </is>
       </c>
     </row>
@@ -1361,12 +1362,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>600113</t>
+          <t>600493</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1375,19 +1376,19 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>57.82</v>
+        <v>6.5</v>
       </c>
       <c r="F25" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>零售</t>
+          <t>纺织制造</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1400,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>大龙地产</t>
+          <t>宁波富邦</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>600159</t>
+          <t>600768</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1413,19 +1414,19 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2.83</v>
+        <v>12.16</v>
       </c>
       <c r="F26" t="n">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1438,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>凤竹纺织</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>600493</t>
+          <t>600796</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1451,19 +1452,19 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6.5</v>
+        <v>5.91</v>
       </c>
       <c r="F27" t="n">
-        <v>1.99</v>
+        <v>1.68</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>纺织制造</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -1475,12 +1476,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>宁波富邦</t>
+          <t>万里股份</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>600768</t>
+          <t>600847</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1489,19 +1490,19 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>12.16</v>
+        <v>10.77</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>0.26</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>电池</t>
         </is>
       </c>
     </row>
@@ -1513,12 +1514,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>重庆燃气</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>600791</t>
+          <t>600917</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1527,19 +1528,19 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.07</v>
+        <v>5.73</v>
       </c>
       <c r="F29" t="n">
-        <v>0.98</v>
+        <v>0.18</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>燃气</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1552,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>苏能股份</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>600796</t>
+          <t>600925</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1565,19 +1566,19 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5.91</v>
+        <v>4.96</v>
       </c>
       <c r="F30" t="n">
-        <v>1.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>煤炭开采加工</t>
         </is>
       </c>
     </row>
@@ -1589,12 +1590,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>福建水泥</t>
+          <t>三峰环境</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>600802</t>
+          <t>601827</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1603,19 +1604,19 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.36</v>
+        <v>8.51</v>
       </c>
       <c r="F31" t="n">
-        <v>1.98</v>
+        <v>1.5</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>建筑材料</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -1627,12 +1628,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>万里股份</t>
+          <t>合富中国</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>600847</t>
+          <t>603122</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1641,19 +1642,19 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>10.77</v>
+        <v>6.7</v>
       </c>
       <c r="F32" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>电池</t>
+          <t>医药商业</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1666,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>重庆燃气</t>
+          <t>恒尚节能</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>600917</t>
+          <t>603137</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1679,19 +1680,19 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5.73</v>
+        <v>14.74</v>
       </c>
       <c r="F33" t="n">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>燃气</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -1720,11 +1721,11 @@
         <v>17.23</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1741,12 +1742,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>嘉华股份</t>
+          <t>建研院</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>603182</t>
+          <t>603183</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1755,19 +1756,19 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>13.85</v>
+        <v>4.54</v>
       </c>
       <c r="F35" t="n">
-        <v>0.31</v>
+        <v>1.97</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>农产品加工</t>
+          <t>其他社会服务</t>
         </is>
       </c>
     </row>
@@ -1779,12 +1780,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>建研院</t>
+          <t>梅轮电梯</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>603183</t>
+          <t>603321</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1793,19 +1794,19 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4.54</v>
+        <v>8.5</v>
       </c>
       <c r="F36" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>其他社会服务</t>
+          <t>专用设备</t>
         </is>
       </c>
     </row>
@@ -1817,12 +1818,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>亚邦股份</t>
+          <t>歌力思</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>603188</t>
+          <t>603808</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1831,19 +1832,19 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4.24</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F37" t="n">
         <v>1.97</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -1855,12 +1856,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>惠达卫浴</t>
+          <t>威奥股份</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>603385</t>
+          <t>605001</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1869,171 +1870,19 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6.95</v>
+        <v>7.7</v>
       </c>
       <c r="F38" t="n">
-        <v>1.92</v>
+        <v>1.97</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>2025-09-02</t>
+          <t>2025-09-03</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>宁水集团</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>603700</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>通用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>歌力思</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>603808</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>威奥股份</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>605001</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
           <t>轨交设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>春雪食品</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>605567</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>食品加工制造</t>
         </is>
       </c>
     </row>
@@ -2048,7 +1897,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2084,20 +1933,15 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>盈亏比例%</t>
+          <t>新比例%</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>新比例%</t>
+          <t>时间</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>行业</t>
         </is>
@@ -2106,16 +1950,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>湖南投资</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>548</v>
+        <v>603322</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -2123,22 +1967,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5.59</v>
+        <v>43.76</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.68</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.03</v>
+        <v>35.15</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>公路铁路运输</t>
+          <t>IT服务</t>
         </is>
       </c>
     </row>
@@ -2150,11 +1991,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>三木集团</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>632</v>
+        <v>952</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -2162,22 +2003,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3.93</v>
+        <v>6.99</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.02</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>综合</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -2189,11 +2027,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>茂化实华</t>
+          <t>双枪科技</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>637</v>
+        <v>1211</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -2201,22 +2039,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.21</v>
+        <v>24.8</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>石油加工贸易</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -2228,11 +2063,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>952</v>
+        <v>1231</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -2240,22 +2075,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6.99</v>
+        <v>21.11</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.15</v>
-      </c>
-      <c r="G5" t="n">
         <v>2</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>化学制药</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -2267,11 +2099,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>双枪科技</t>
+          <t>坤泰股份</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1211</v>
+        <v>1260</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -2279,22 +2111,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.8</v>
+        <v>18.18</v>
       </c>
       <c r="F6" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.01</v>
+        <v>2.11</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>家居用品</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
@@ -2306,11 +2135,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1231</v>
+        <v>1299</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -2318,22 +2147,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21.11</v>
+        <v>12.23</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.27</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>农化制品</t>
+          <t>燃气</t>
         </is>
       </c>
     </row>
@@ -2345,11 +2171,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>坤泰股份</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1260</v>
+        <v>1322</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -2357,22 +2183,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>18.18</v>
+        <v>8.73</v>
       </c>
       <c r="F8" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>汽车零部件</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -2384,11 +2207,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1299</v>
+        <v>1333</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -2396,22 +2219,19 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>12.23</v>
+        <v>22.69</v>
       </c>
       <c r="F9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>燃气</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -2423,11 +2243,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1322</v>
+        <v>1336</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -2435,22 +2255,19 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8.73</v>
+        <v>23.32</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.18</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>家居用品</t>
+          <t>环保设备</t>
         </is>
       </c>
     </row>
@@ -2462,11 +2279,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1333</v>
+        <v>1366</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -2474,22 +2291,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.69</v>
+        <v>13.62</v>
       </c>
       <c r="F11" t="n">
-        <v>-6.92</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>塑料制品</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -2501,11 +2315,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>中天服务</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1336</v>
+        <v>2188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2513,22 +2327,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>23.32</v>
+        <v>5.94</v>
       </c>
       <c r="F12" t="n">
-        <v>-6.56</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>环保设备</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -2540,11 +2351,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>*ST交投</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1366</v>
+        <v>2200</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2552,22 +2363,19 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>13.62</v>
+        <v>7.22</v>
       </c>
       <c r="F13" t="n">
-        <v>-9.029999999999999</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.95</v>
+        <v>0.2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>农产品加工</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -2579,11 +2387,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>德冠新材</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1378</v>
+        <v>2360</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2591,22 +2399,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.78</v>
+        <v>5.32</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>塑料制品</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -2618,11 +2423,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>中天服务</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2188</v>
+        <v>2494</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2630,22 +2435,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.94</v>
+        <v>5.13</v>
       </c>
       <c r="F15" t="n">
-        <v>-9.93</v>
-      </c>
-      <c r="G15" t="n">
         <v>1.87</v>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>房地产</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -2657,11 +2459,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>*ST交投</t>
+          <t>蓝丰生化</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2200</v>
+        <v>2513</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2669,22 +2471,19 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7.22</v>
+        <v>5.6</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.57</v>
+        <v>1.93</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>建筑装饰</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -2696,11 +2495,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2360</v>
+        <v>2687</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2708,22 +2507,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.32</v>
+        <v>4.6</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.38</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.99</v>
+        <v>1.51</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>化学制品</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -2735,11 +2531,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>瑞尔特</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2494</v>
+        <v>2790</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2747,22 +2543,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5.13</v>
+        <v>7.33</v>
       </c>
       <c r="F18" t="n">
-        <v>-6.43</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.88</v>
+        <v>1.97</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -2774,11 +2567,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>蓝丰生化</t>
+          <t>黄山胶囊</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2513</v>
+        <v>2817</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2786,22 +2579,19 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5.6</v>
+        <v>8.06</v>
       </c>
       <c r="F19" t="n">
-        <v>-8.93</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>农化制品</t>
+          <t>医疗器械</t>
         </is>
       </c>
     </row>
@@ -2813,11 +2603,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>恒大高新</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2591</v>
+        <v>2836</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2825,22 +2615,19 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.88</v>
+        <v>9.26</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.99</v>
+        <v>2</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>化学制品</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -2852,11 +2639,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>美芝股份</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2687</v>
+        <v>2856</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2864,22 +2651,19 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4.6</v>
+        <v>10.15</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.53</v>
+        <v>2.02</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -2891,11 +2675,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>黄山胶囊</t>
+          <t>新大正</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2817</v>
+        <v>2968</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2903,22 +2687,19 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>8.06</v>
+        <v>10.95</v>
       </c>
       <c r="F22" t="n">
-        <v>-7.2</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>医疗器械</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -2930,11 +2711,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>新宏泽</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2836</v>
+        <v>2969</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2942,20 +2723,17 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9.26</v>
+        <v>3.59</v>
       </c>
       <c r="F23" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.01</v>
+        <v>1.98</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
         <is>
           <t>包装印刷</t>
         </is>
@@ -2969,11 +2747,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>新大正</t>
+          <t>金花股份</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2968</v>
+        <v>600080</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2981,22 +2759,19 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>10.95</v>
+        <v>7.49</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.28</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>房地产</t>
+          <t>中药</t>
         </is>
       </c>
     </row>
@@ -3008,11 +2783,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>浙江东日</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2969</v>
+        <v>600113</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3020,22 +2795,19 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.59</v>
+        <v>57.82</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.51</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.01</v>
+        <v>1.97</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
+          <t>零售</t>
         </is>
       </c>
     </row>
@@ -3062,17 +2834,14 @@
         <v>2.83</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.47</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
         <is>
           <t>房地产</t>
         </is>
@@ -3086,11 +2855,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>民丰特纸</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>600235</v>
+        <v>600493</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3098,22 +2867,19 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6.38</v>
+        <v>6.5</v>
       </c>
       <c r="F27" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>造纸</t>
+          <t>纺织制造</t>
         </is>
       </c>
     </row>
@@ -3125,11 +2891,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>凤竹纺织</t>
+          <t>宁波富邦</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>600493</v>
+        <v>600768</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3137,22 +2903,19 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6.5</v>
+        <v>12.16</v>
       </c>
       <c r="F28" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2.01</v>
+        <v>2</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>纺织制造</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -3164,11 +2927,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>宁波富邦</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>600768</v>
+        <v>600791</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3176,22 +2939,19 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>12.16</v>
+        <v>5.07</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.01</v>
+        <v>0.98</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>电网设备</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -3203,11 +2963,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>600791</v>
+        <v>600796</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3215,22 +2975,19 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5.07</v>
+        <v>5.91</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.52</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
+        <v>1.7</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>房地产</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -3242,11 +2999,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>福建水泥</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>600796</v>
+        <v>600802</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3254,22 +3011,19 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.91</v>
+        <v>5.36</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.52</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.71</v>
+        <v>1.98</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>环境治理</t>
+          <t>建筑材料</t>
         </is>
       </c>
     </row>
@@ -3281,11 +3035,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>广电电气</t>
+          <t>万里股份</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>601616</v>
+        <v>600847</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3293,22 +3047,19 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3.91</v>
+        <v>10.77</v>
       </c>
       <c r="F32" t="n">
-        <v>-5.12</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.22</v>
+        <v>1.92</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>电网设备</t>
+          <t>电池</t>
         </is>
       </c>
     </row>
@@ -3320,11 +3071,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>三峰环境</t>
+          <t>重庆燃气</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>601827</v>
+        <v>600917</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3332,22 +3083,19 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>8.550000000000001</v>
+        <v>5.73</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2.08</v>
+        <v>1.86</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>环境治理</t>
+          <t>燃气</t>
         </is>
       </c>
     </row>
@@ -3374,17 +3122,14 @@
         <v>17.23</v>
       </c>
       <c r="F34" t="n">
-        <v>-6.67</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.93</v>
+        <v>2</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H34" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
         <is>
           <t>化学制品</t>
         </is>
@@ -3413,17 +3158,14 @@
         <v>13.85</v>
       </c>
       <c r="F35" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2.04</v>
+        <v>0.31</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H35" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
         <is>
           <t>农产品加工</t>
         </is>
@@ -3452,17 +3194,14 @@
         <v>4.54</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.41</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H36" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
         <is>
           <t>其他社会服务</t>
         </is>
@@ -3476,11 +3215,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>金海高科</t>
+          <t>亚邦股份</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>603311</v>
+        <v>603188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3488,22 +3227,19 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>11.25</v>
+        <v>4.24</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.51</v>
-      </c>
-      <c r="G37" t="n">
         <v>1.97</v>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>白色家电</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -3530,17 +3266,14 @@
         <v>6.95</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.17</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H38" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
         <is>
           <t>家居用品</t>
         </is>
@@ -3554,11 +3287,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>*ST星农</t>
+          <t>宁水集团</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>603789</v>
+        <v>603700</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3566,22 +3299,19 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5.85</v>
+        <v>12.27</v>
       </c>
       <c r="F39" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.55</v>
+        <v>2.06</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>专用设备</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -3608,17 +3338,14 @@
         <v>8.550000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>-5.73</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H40" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
         <is>
           <t>服装家纺</t>
         </is>
@@ -3647,19 +3374,52 @@
         <v>7.7</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2</v>
+        <v>1.98</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
           <t>轨交设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>春雪食品</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>605567</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>食品加工制造</t>
         </is>
       </c>
     </row>
@@ -3752,14 +3512,14 @@
         <v>5.59</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.15</v>
+        <v>-2.68</v>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3776,11 +3536,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>三木集团</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>952</v>
+        <v>632</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3788,22 +3548,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.99</v>
+        <v>3.93</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.29</v>
+        <v>-1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>综合</t>
         </is>
       </c>
     </row>
@@ -3815,11 +3575,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>茂化实华</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1231</v>
+        <v>637</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3827,22 +3587,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.11</v>
+        <v>4.21</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.36</v>
+        <v>-0.95</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>石油加工贸易</t>
         </is>
       </c>
     </row>
@@ -3854,11 +3614,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>利仁科技</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1259</v>
+        <v>952</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3866,22 +3626,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.82</v>
+        <v>6.99</v>
       </c>
       <c r="F5" t="n">
-        <v>0.31</v>
+        <v>-6.15</v>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>小家电</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -3893,11 +3653,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>坤泰股份</t>
+          <t>双枪科技</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1260</v>
+        <v>1211</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3905,22 +3665,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.18</v>
+        <v>24.8</v>
       </c>
       <c r="F6" t="n">
-        <v>9.19</v>
+        <v>0.44</v>
       </c>
       <c r="G6" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>汽车零部件</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -3932,11 +3692,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1299</v>
+        <v>1231</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3944,22 +3704,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12.23</v>
+        <v>21.11</v>
       </c>
       <c r="F7" t="n">
-        <v>1.39</v>
+        <v>-3.27</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>燃气</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -3971,11 +3731,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>坤泰股份</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1322</v>
+        <v>1260</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3983,22 +3743,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.73</v>
+        <v>18.18</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.03</v>
+        <v>10.56</v>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
@@ -4010,11 +3770,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1333</v>
+        <v>1299</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -4022,22 +3782,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.69</v>
+        <v>12.23</v>
       </c>
       <c r="F9" t="n">
-        <v>-7.18</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>燃气</t>
         </is>
       </c>
     </row>
@@ -4049,11 +3809,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1336</v>
+        <v>1322</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -4061,22 +3821,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.32</v>
+        <v>8.73</v>
       </c>
       <c r="F10" t="n">
-        <v>-5.19</v>
+        <v>-2.18</v>
       </c>
       <c r="G10" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>环保设备</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -4088,11 +3848,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1366</v>
+        <v>1333</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -4100,22 +3860,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13.62</v>
+        <v>22.69</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.34</v>
+        <v>-6.92</v>
       </c>
       <c r="G11" t="n">
         <v>1.97</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>农产品加工</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -4127,11 +3887,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>中天服务</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2188</v>
+        <v>1336</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -4139,22 +3899,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5.94</v>
+        <v>23.32</v>
       </c>
       <c r="F12" t="n">
-        <v>-8.25</v>
+        <v>-6.56</v>
       </c>
       <c r="G12" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>环保设备</t>
         </is>
       </c>
     </row>
@@ -4166,11 +3926,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>*ST交投</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2200</v>
+        <v>1366</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -4178,22 +3938,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7.22</v>
+        <v>13.62</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-9.029999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.57</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -4205,11 +3965,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>德冠新材</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2360</v>
+        <v>1378</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -4217,22 +3977,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.32</v>
+        <v>22.78</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.32</v>
+        <v>-1.01</v>
       </c>
       <c r="G14" t="n">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -4244,11 +4004,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>中天服务</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2494</v>
+        <v>2188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -4256,22 +4016,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.13</v>
+        <v>5.94</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.7</v>
+        <v>-9.93</v>
       </c>
       <c r="G15" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -4283,11 +4043,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>蓝丰生化</t>
+          <t>*ST交投</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2513</v>
+        <v>2200</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -4295,22 +4055,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5.6</v>
+        <v>7.22</v>
       </c>
       <c r="F16" t="n">
-        <v>-8.039999999999999</v>
+        <v>-1.11</v>
       </c>
       <c r="G16" t="n">
-        <v>1.92</v>
+        <v>0.57</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -4322,11 +4082,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ST瑞和</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2620</v>
+        <v>2360</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -4334,22 +4094,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.16</v>
+        <v>5.32</v>
       </c>
       <c r="F17" t="n">
-        <v>2.71</v>
+        <v>-3.38</v>
       </c>
       <c r="G17" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -4361,11 +4121,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2687</v>
+        <v>2494</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -4373,17 +4133,17 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.6</v>
+        <v>5.13</v>
       </c>
       <c r="F18" t="n">
-        <v>0.43</v>
+        <v>-6.43</v>
       </c>
       <c r="G18" t="n">
-        <v>1.54</v>
+        <v>1.88</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4400,11 +4160,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>世龙实业</t>
+          <t>蓝丰生化</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2748</v>
+        <v>2513</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -4412,22 +4172,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9.51</v>
+        <v>5.6</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.05</v>
+        <v>-8.93</v>
       </c>
       <c r="G19" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>化学原料</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -4439,11 +4199,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>永东股份</t>
+          <t>恒大高新</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2753</v>
+        <v>2591</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -4451,22 +4211,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.25</v>
+        <v>5.88</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.21</v>
+        <v>-0.51</v>
       </c>
       <c r="G20" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>橡胶制品</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -4478,11 +4238,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>瑞尔特</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2790</v>
+        <v>2687</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -4490,22 +4250,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>7.71</v>
+        <v>4.6</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.72</v>
+        <v>-1.3</v>
       </c>
       <c r="G21" t="n">
-        <v>2.01</v>
+        <v>1.53</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -4532,14 +4292,14 @@
         <v>8.06</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.09</v>
+        <v>-7.2</v>
       </c>
       <c r="G22" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -4556,11 +4316,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>新大正</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2968</v>
+        <v>2836</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -4568,22 +4328,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.95</v>
+        <v>9.26</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.37</v>
+        <v>0.43</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -4595,11 +4355,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>新大正</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -4607,22 +4367,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.59</v>
+        <v>10.95</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.51</v>
+        <v>-2.28</v>
       </c>
       <c r="G24" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>包装印刷</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -4634,11 +4394,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>600113</v>
+        <v>2969</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -4646,22 +4406,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>58.6</v>
+        <v>3.59</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.62</v>
+        <v>-2.51</v>
       </c>
       <c r="G25" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>零售</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -4688,14 +4448,14 @@
         <v>2.83</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.71</v>
+        <v>-2.47</v>
       </c>
       <c r="G26" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -4727,14 +4487,14 @@
         <v>6.38</v>
       </c>
       <c r="F27" t="n">
-        <v>1.1</v>
+        <v>2.35</v>
       </c>
       <c r="G27" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -4751,11 +4511,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>600791</v>
+        <v>600493</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -4763,22 +4523,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.07</v>
+        <v>6.5</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.93</v>
+        <v>0.62</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2.01</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>纺织制造</t>
         </is>
       </c>
     </row>
@@ -4790,11 +4550,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>宁波富邦</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>600796</v>
+        <v>600768</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4802,22 +4562,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.91</v>
+        <v>12.16</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.68</v>
+        <v>0.9</v>
       </c>
       <c r="G29" t="n">
-        <v>1.71</v>
+        <v>2.01</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -4829,11 +4589,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>博闻科技</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>600883</v>
+        <v>600791</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4841,22 +4601,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8.220000000000001</v>
+        <v>5.07</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.89</v>
+        <v>-5.52</v>
       </c>
       <c r="G30" t="n">
-        <v>1.97</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>种植业与林业</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -4868,11 +4628,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>广电电气</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>601616</v>
+        <v>600796</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4880,22 +4640,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.91</v>
+        <v>5.91</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.58</v>
+        <v>-1.52</v>
       </c>
       <c r="G31" t="n">
-        <v>1.23</v>
+        <v>1.71</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -4907,11 +4667,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>三峰环境</t>
+          <t>广电电气</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>601827</v>
+        <v>601616</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4919,22 +4679,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>8.550000000000001</v>
+        <v>3.91</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.47</v>
+        <v>-5.12</v>
       </c>
       <c r="G32" t="n">
-        <v>2.07</v>
+        <v>1.22</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -4946,11 +4706,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>出版传媒</t>
+          <t>三峰环境</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>601999</v>
+        <v>601827</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4958,22 +4718,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>7.22</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.39</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>文化传媒</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -4985,11 +4745,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>恒尚节能</t>
+          <t>万丰股份</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>603137</v>
+        <v>603172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4997,22 +4757,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>15.56</v>
+        <v>17.23</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.89</v>
+        <v>-6.67</v>
       </c>
       <c r="G34" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -5024,11 +4784,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>嘉华股份</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>603172</v>
+        <v>603182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -5036,22 +4796,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>17.23</v>
+        <v>13.85</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.95</v>
+        <v>0.72</v>
       </c>
       <c r="G35" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -5078,14 +4838,14 @@
         <v>4.54</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.08</v>
+        <v>-4.41</v>
       </c>
       <c r="G36" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -5102,11 +4862,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>惠达卫浴</t>
+          <t>金海高科</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>603385</v>
+        <v>603311</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -5114,22 +4874,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6.95</v>
+        <v>11.25</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.45</v>
+        <v>-1.51</v>
       </c>
       <c r="G37" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>白色家电</t>
         </is>
       </c>
     </row>
@@ -5141,11 +4901,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>宁水集团</t>
+          <t>惠达卫浴</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>603700</v>
+        <v>603385</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -5153,22 +4913,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>12.53</v>
+        <v>6.95</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.15</v>
+        <v>-3.17</v>
       </c>
       <c r="G38" t="n">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -5195,14 +4955,14 @@
         <v>5.85</v>
       </c>
       <c r="F39" t="n">
-        <v>1.88</v>
+        <v>2.91</v>
       </c>
       <c r="G39" t="n">
-        <v>2.11</v>
+        <v>0.55</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -5234,14 +4994,14 @@
         <v>8.550000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>-7.37</v>
+        <v>-5.73</v>
       </c>
       <c r="G40" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -5273,14 +5033,14 @@
         <v>7.7</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.82</v>
+        <v>-2.6</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -5295,6 +5055,1632 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>盈亏比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>548</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>公路铁路运输</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>952</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-5.29</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1231</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-3.36</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1259</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>小家电</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>汽车零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1299</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1322</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1333</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-7.18</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>塑料制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1336</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-5.19</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>环保设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1366</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-7.34</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>农产品加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>中天服务</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2188</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-8.25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2200</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2360</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2494</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2513</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-8.039999999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ST瑞和</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2620</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2687</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2748</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>化学原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2753</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2790</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-2.72</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2817</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-5.09</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>医疗器械</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2968</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2969</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>600113</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>600159</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>600235</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>造纸</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>600791</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-4.93</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>600796</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>博闻科技</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>600883</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-3.89</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>种植业与林业</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>601616</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-3.58</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>电网设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>601827</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>出版传媒</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>601999</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>文化传媒</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>603137</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>603172</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>603183</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>其他社会服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>603385</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-2.45</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>宁水集团</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>603700</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>*ST星农</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>603789</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>603808</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-7.37</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>605001</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>轨交设备</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6959,7 +8345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
@@ -7,12 +7,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,6 +431,1589 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>盈亏比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>603322</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>43.76</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-8.550000000000001</v>
+      </c>
+      <c r="G2" t="n">
+        <v>34.84</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1756949460000</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>IT服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>000952</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-7.15</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>001231</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-5.64</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>001299</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-3.55</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>001333</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-9.43</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>塑料制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-4.97</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>环保设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-9.69</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>农产品加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-3.03</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-9.460000000000001</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>恒大高新</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>002591</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>002687</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-2.39</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-1.91</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>002817</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-8.44</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>医疗器械</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>002830</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-3.07</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>002836</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-3.49</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>002968</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-5.57</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>002969</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-4.18</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>开普检测</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>003008</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-2.86</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>其他社会服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>600113</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>57.82</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>600159</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-4.24</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>600235</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>造纸</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>凤竹纺织</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>600493</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>纺织制造</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>宁波富邦</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>600768</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-1.07</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>电网设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>600796</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-4.23</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>万里股份</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>600847</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>电池</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>重庆燃气</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>600917</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>苏能股份</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>600925</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>煤炭开采加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>601827</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>合富中国</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>603122</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-2.54</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>医药商业</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>603137</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>603172</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-4.88</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>603183</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-5.73</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>其他社会服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>梅轮电梯</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>603321</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-3.76</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>603808</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-7.25</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>605001</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-4.68</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-09-03 16:14:00</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>轨交设备</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -491,10 +2075,8 @@
           <t>超讯通信</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>603322</t>
-        </is>
+      <c r="C2" t="n">
+        <v>603322</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -529,10 +2111,8 @@
           <t>广济药业</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>000952</t>
-        </is>
+      <c r="C3" t="n">
+        <v>952</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -567,10 +2147,8 @@
           <t>农心科技</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>001231</t>
-        </is>
+      <c r="C4" t="n">
+        <v>1231</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -605,10 +2183,8 @@
           <t>美能能源</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>001299</t>
-        </is>
+      <c r="C5" t="n">
+        <v>1299</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -643,10 +2219,8 @@
           <t>箭牌家居</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>001322</t>
-        </is>
+      <c r="C6" t="n">
+        <v>1322</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -681,10 +2255,8 @@
           <t>光华股份</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>001333</t>
-        </is>
+      <c r="C7" t="n">
+        <v>1333</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -719,10 +2291,8 @@
           <t>楚环科技</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>001336</t>
-        </is>
+      <c r="C8" t="n">
+        <v>1336</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -757,10 +2327,8 @@
           <t>播恩集团</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>001366</t>
-        </is>
+      <c r="C9" t="n">
+        <v>1366</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -795,10 +2363,8 @@
           <t>同德化工</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>002360</t>
-        </is>
+      <c r="C10" t="n">
+        <v>2360</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -833,10 +2399,8 @@
           <t>华斯股份</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>002494</t>
-        </is>
+      <c r="C11" t="n">
+        <v>2494</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -871,10 +2435,8 @@
           <t>蓝丰生化</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>002513</t>
-        </is>
+      <c r="C12" t="n">
+        <v>2513</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -909,10 +2471,8 @@
           <t>恒大高新</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>002591</t>
-        </is>
+      <c r="C13" t="n">
+        <v>2591</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -947,10 +2507,8 @@
           <t>乔治白</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>002687</t>
-        </is>
+      <c r="C14" t="n">
+        <v>2687</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -985,10 +2543,8 @@
           <t>瑞尔特</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>002790</t>
-        </is>
+      <c r="C15" t="n">
+        <v>2790</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1023,10 +2579,8 @@
           <t>黄山胶囊</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>002817</t>
-        </is>
+      <c r="C16" t="n">
+        <v>2817</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1061,10 +2615,8 @@
           <t>名雕股份</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>002830</t>
-        </is>
+      <c r="C17" t="n">
+        <v>2830</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1099,10 +2651,8 @@
           <t>新宏泽</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>002836</t>
-        </is>
+      <c r="C18" t="n">
+        <v>2836</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1137,10 +2687,8 @@
           <t>新大正</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>002968</t>
-        </is>
+      <c r="C19" t="n">
+        <v>2968</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1175,10 +2723,8 @@
           <t>嘉美包装</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>002969</t>
-        </is>
+      <c r="C20" t="n">
+        <v>2969</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1213,10 +2759,8 @@
           <t>开普检测</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>003008</t>
-        </is>
+      <c r="C21" t="n">
+        <v>3008</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1251,10 +2795,8 @@
           <t>浙江东日</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>600113</t>
-        </is>
+      <c r="C22" t="n">
+        <v>600113</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1289,10 +2831,8 @@
           <t>大龙地产</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>600159</t>
-        </is>
+      <c r="C23" t="n">
+        <v>600159</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1327,10 +2867,8 @@
           <t>民丰特纸</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>600235</t>
-        </is>
+      <c r="C24" t="n">
+        <v>600235</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1365,10 +2903,8 @@
           <t>凤竹纺织</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>600493</t>
-        </is>
+      <c r="C25" t="n">
+        <v>600493</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1403,10 +2939,8 @@
           <t>宁波富邦</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>600768</t>
-        </is>
+      <c r="C26" t="n">
+        <v>600768</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1441,10 +2975,8 @@
           <t>钱江生化</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>600796</t>
-        </is>
+      <c r="C27" t="n">
+        <v>600796</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1479,10 +3011,8 @@
           <t>万里股份</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>600847</t>
-        </is>
+      <c r="C28" t="n">
+        <v>600847</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1517,10 +3047,8 @@
           <t>重庆燃气</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>600917</t>
-        </is>
+      <c r="C29" t="n">
+        <v>600917</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1555,10 +3083,8 @@
           <t>苏能股份</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>600925</t>
-        </is>
+      <c r="C30" t="n">
+        <v>600925</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1593,10 +3119,8 @@
           <t>三峰环境</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>601827</t>
-        </is>
+      <c r="C31" t="n">
+        <v>601827</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1631,10 +3155,8 @@
           <t>合富中国</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>603122</t>
-        </is>
+      <c r="C32" t="n">
+        <v>603122</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1669,10 +3191,8 @@
           <t>恒尚节能</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>603137</t>
-        </is>
+      <c r="C33" t="n">
+        <v>603137</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1707,10 +3227,8 @@
           <t>万丰股份</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>603172</t>
-        </is>
+      <c r="C34" t="n">
+        <v>603172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1745,10 +3263,8 @@
           <t>建研院</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>603183</t>
-        </is>
+      <c r="C35" t="n">
+        <v>603183</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1783,10 +3299,8 @@
           <t>梅轮电梯</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>603321</t>
-        </is>
+      <c r="C36" t="n">
+        <v>603321</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1821,10 +3335,8 @@
           <t>歌力思</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>603808</t>
-        </is>
+      <c r="C37" t="n">
+        <v>603808</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1859,10 +3371,8 @@
           <t>威奥股份</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>605001</t>
-        </is>
+      <c r="C38" t="n">
+        <v>605001</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1891,7 +3401,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3420,1632 +4930,6 @@
       <c r="H42" t="inlineStr">
         <is>
           <t>食品加工制造</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>盈亏比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>行业</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>548</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-2.68</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>公路铁路运输</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>三木集团</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>632</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-1.02</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>综合</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>茂化实华</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>637</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>石油加工贸易</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>广济药业</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>952</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-6.15</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>化学制药</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>双枪科技</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1211</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>农心科技</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1231</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-3.27</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>农化制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>坤泰股份</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1260</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>汽车零部件</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>美能能源</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1299</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>燃气</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>箭牌家居</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1322</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-2.18</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>光华股份</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1333</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-6.92</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>塑料制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>楚环科技</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1336</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>23.32</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-6.56</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>环保设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>播恩集团</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1366</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-9.029999999999999</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>农产品加工</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>德冠新材</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1378</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>22.78</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>塑料制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>中天服务</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2188</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-9.93</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>*ST交投</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>2200</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>建筑装饰</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>同德化工</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>2360</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-3.38</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>2494</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-6.43</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>蓝丰生化</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>2513</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-8.93</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>农化制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>恒大高新</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>2591</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>乔治白</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>2687</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>2817</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-7.2</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>医疗器械</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>2836</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>新大正</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>2968</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-2.28</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>2969</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-2.51</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>大龙地产</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>600159</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-2.47</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>民丰特纸</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>600235</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>造纸</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>凤竹纺织</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>600493</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>纺织制造</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>宁波富邦</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>600768</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>电网设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>京能置业</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>600791</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-5.52</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>600796</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-1.52</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>广电电气</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>601616</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-5.12</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>电网设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>601827</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F33" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>603172</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-6.67</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>嘉华股份</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>603182</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>农产品加工</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>建研院</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>603183</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F36" t="n">
-        <v>-4.41</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>其他社会服务</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>金海高科</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>603311</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="F37" t="n">
-        <v>-1.51</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>白色家电</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>惠达卫浴</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>603385</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="F38" t="n">
-        <v>-3.17</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>*ST星农</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>603789</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>专用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>歌力思</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>603808</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F40" t="n">
-        <v>-5.73</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>威奥股份</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>605001</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F41" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>轨交设备</t>
         </is>
       </c>
     </row>
@@ -5138,14 +5022,14 @@
         <v>5.59</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.15</v>
+        <v>-2.68</v>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -5162,11 +5046,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>三木集团</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>952</v>
+        <v>632</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -5174,22 +5058,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.99</v>
+        <v>3.93</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.29</v>
+        <v>-1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>综合</t>
         </is>
       </c>
     </row>
@@ -5201,11 +5085,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>茂化实华</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1231</v>
+        <v>637</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -5213,22 +5097,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.11</v>
+        <v>4.21</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.36</v>
+        <v>-0.95</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>石油加工贸易</t>
         </is>
       </c>
     </row>
@@ -5240,11 +5124,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>利仁科技</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1259</v>
+        <v>952</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -5252,22 +5136,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.82</v>
+        <v>6.99</v>
       </c>
       <c r="F5" t="n">
-        <v>0.31</v>
+        <v>-6.15</v>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>小家电</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -5279,11 +5163,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>坤泰股份</t>
+          <t>双枪科技</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1260</v>
+        <v>1211</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -5291,22 +5175,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.18</v>
+        <v>24.8</v>
       </c>
       <c r="F6" t="n">
-        <v>9.19</v>
+        <v>0.44</v>
       </c>
       <c r="G6" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>汽车零部件</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -5318,11 +5202,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1299</v>
+        <v>1231</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -5330,22 +5214,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12.23</v>
+        <v>21.11</v>
       </c>
       <c r="F7" t="n">
-        <v>1.39</v>
+        <v>-3.27</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>燃气</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -5357,11 +5241,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>坤泰股份</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1322</v>
+        <v>1260</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -5369,22 +5253,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.73</v>
+        <v>18.18</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.03</v>
+        <v>10.56</v>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
@@ -5396,11 +5280,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1333</v>
+        <v>1299</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -5408,22 +5292,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.69</v>
+        <v>12.23</v>
       </c>
       <c r="F9" t="n">
-        <v>-7.18</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>燃气</t>
         </is>
       </c>
     </row>
@@ -5435,11 +5319,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1336</v>
+        <v>1322</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -5447,22 +5331,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.32</v>
+        <v>8.73</v>
       </c>
       <c r="F10" t="n">
-        <v>-5.19</v>
+        <v>-2.18</v>
       </c>
       <c r="G10" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>环保设备</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -5474,11 +5358,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1366</v>
+        <v>1333</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -5486,22 +5370,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13.62</v>
+        <v>22.69</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.34</v>
+        <v>-6.92</v>
       </c>
       <c r="G11" t="n">
         <v>1.97</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>农产品加工</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -5513,11 +5397,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>中天服务</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2188</v>
+        <v>1336</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -5525,22 +5409,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5.94</v>
+        <v>23.32</v>
       </c>
       <c r="F12" t="n">
-        <v>-8.25</v>
+        <v>-6.56</v>
       </c>
       <c r="G12" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>环保设备</t>
         </is>
       </c>
     </row>
@@ -5552,11 +5436,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>*ST交投</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2200</v>
+        <v>1366</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -5564,22 +5448,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7.22</v>
+        <v>13.62</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-9.029999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.57</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -5591,11 +5475,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>德冠新材</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2360</v>
+        <v>1378</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -5603,22 +5487,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.32</v>
+        <v>22.78</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.32</v>
+        <v>-1.01</v>
       </c>
       <c r="G14" t="n">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -5630,11 +5514,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>中天服务</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2494</v>
+        <v>2188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -5642,22 +5526,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.13</v>
+        <v>5.94</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.7</v>
+        <v>-9.93</v>
       </c>
       <c r="G15" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -5669,11 +5553,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>蓝丰生化</t>
+          <t>*ST交投</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2513</v>
+        <v>2200</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -5681,22 +5565,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5.6</v>
+        <v>7.22</v>
       </c>
       <c r="F16" t="n">
-        <v>-8.039999999999999</v>
+        <v>-1.11</v>
       </c>
       <c r="G16" t="n">
-        <v>1.92</v>
+        <v>0.57</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -5708,11 +5592,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ST瑞和</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2620</v>
+        <v>2360</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -5720,22 +5604,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.16</v>
+        <v>5.32</v>
       </c>
       <c r="F17" t="n">
-        <v>2.71</v>
+        <v>-3.38</v>
       </c>
       <c r="G17" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -5747,11 +5631,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2687</v>
+        <v>2494</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -5759,17 +5643,17 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.6</v>
+        <v>5.13</v>
       </c>
       <c r="F18" t="n">
-        <v>0.43</v>
+        <v>-6.43</v>
       </c>
       <c r="G18" t="n">
-        <v>1.54</v>
+        <v>1.88</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -5786,11 +5670,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>世龙实业</t>
+          <t>蓝丰生化</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2748</v>
+        <v>2513</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -5798,22 +5682,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9.51</v>
+        <v>5.6</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.05</v>
+        <v>-8.93</v>
       </c>
       <c r="G19" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>化学原料</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -5825,11 +5709,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>永东股份</t>
+          <t>恒大高新</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2753</v>
+        <v>2591</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -5837,22 +5721,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.25</v>
+        <v>5.88</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.21</v>
+        <v>-0.51</v>
       </c>
       <c r="G20" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>橡胶制品</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -5864,11 +5748,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>瑞尔特</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2790</v>
+        <v>2687</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -5876,22 +5760,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>7.71</v>
+        <v>4.6</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.72</v>
+        <v>-1.3</v>
       </c>
       <c r="G21" t="n">
-        <v>2.01</v>
+        <v>1.53</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -5918,14 +5802,14 @@
         <v>8.06</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.09</v>
+        <v>-7.2</v>
       </c>
       <c r="G22" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -5942,11 +5826,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>新大正</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2968</v>
+        <v>2836</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -5954,22 +5838,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.95</v>
+        <v>9.26</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.37</v>
+        <v>0.43</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -5981,11 +5865,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>新大正</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -5993,22 +5877,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.59</v>
+        <v>10.95</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.51</v>
+        <v>-2.28</v>
       </c>
       <c r="G24" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>包装印刷</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -6020,11 +5904,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>600113</v>
+        <v>2969</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -6032,22 +5916,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>58.6</v>
+        <v>3.59</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.62</v>
+        <v>-2.51</v>
       </c>
       <c r="G25" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>零售</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -6074,14 +5958,14 @@
         <v>2.83</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.71</v>
+        <v>-2.47</v>
       </c>
       <c r="G26" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -6113,14 +5997,14 @@
         <v>6.38</v>
       </c>
       <c r="F27" t="n">
-        <v>1.1</v>
+        <v>2.35</v>
       </c>
       <c r="G27" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -6137,11 +6021,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>600791</v>
+        <v>600493</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -6149,22 +6033,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.07</v>
+        <v>6.5</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.93</v>
+        <v>0.62</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2.01</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>纺织制造</t>
         </is>
       </c>
     </row>
@@ -6176,11 +6060,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>宁波富邦</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>600796</v>
+        <v>600768</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -6188,22 +6072,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.91</v>
+        <v>12.16</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.68</v>
+        <v>0.9</v>
       </c>
       <c r="G29" t="n">
-        <v>1.71</v>
+        <v>2.01</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -6215,11 +6099,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>博闻科技</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>600883</v>
+        <v>600791</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -6227,22 +6111,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8.220000000000001</v>
+        <v>5.07</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.89</v>
+        <v>-5.52</v>
       </c>
       <c r="G30" t="n">
-        <v>1.97</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>种植业与林业</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -6254,11 +6138,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>广电电气</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>601616</v>
+        <v>600796</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -6266,22 +6150,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.91</v>
+        <v>5.91</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.58</v>
+        <v>-1.52</v>
       </c>
       <c r="G31" t="n">
-        <v>1.23</v>
+        <v>1.71</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -6293,11 +6177,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>三峰环境</t>
+          <t>广电电气</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>601827</v>
+        <v>601616</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -6305,22 +6189,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>8.550000000000001</v>
+        <v>3.91</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.47</v>
+        <v>-5.12</v>
       </c>
       <c r="G32" t="n">
-        <v>2.07</v>
+        <v>1.22</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -6332,11 +6216,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>出版传媒</t>
+          <t>三峰环境</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>601999</v>
+        <v>601827</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -6344,22 +6228,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>7.22</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.39</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>文化传媒</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -6371,11 +6255,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>恒尚节能</t>
+          <t>万丰股份</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>603137</v>
+        <v>603172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -6383,22 +6267,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>15.56</v>
+        <v>17.23</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.89</v>
+        <v>-6.67</v>
       </c>
       <c r="G34" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -6410,11 +6294,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>嘉华股份</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>603172</v>
+        <v>603182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -6422,22 +6306,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>17.23</v>
+        <v>13.85</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.95</v>
+        <v>0.72</v>
       </c>
       <c r="G35" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -6464,14 +6348,14 @@
         <v>4.54</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.08</v>
+        <v>-4.41</v>
       </c>
       <c r="G36" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -6488,11 +6372,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>惠达卫浴</t>
+          <t>金海高科</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>603385</v>
+        <v>603311</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -6500,22 +6384,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6.95</v>
+        <v>11.25</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.45</v>
+        <v>-1.51</v>
       </c>
       <c r="G37" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>白色家电</t>
         </is>
       </c>
     </row>
@@ -6527,11 +6411,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>宁水集团</t>
+          <t>惠达卫浴</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>603700</v>
+        <v>603385</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -6539,22 +6423,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>12.53</v>
+        <v>6.95</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.15</v>
+        <v>-3.17</v>
       </c>
       <c r="G38" t="n">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -6581,14 +6465,14 @@
         <v>5.85</v>
       </c>
       <c r="F39" t="n">
-        <v>1.88</v>
+        <v>2.91</v>
       </c>
       <c r="G39" t="n">
-        <v>2.11</v>
+        <v>0.55</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -6620,14 +6504,14 @@
         <v>8.550000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>-7.37</v>
+        <v>-5.73</v>
       </c>
       <c r="G40" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -6659,14 +6543,14 @@
         <v>7.7</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.82</v>
+        <v>-2.6</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -6681,6 +6565,1632 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>盈亏比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>548</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>公路铁路运输</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>952</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-5.29</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1231</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-3.36</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1259</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>小家电</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>汽车零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1299</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1322</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1333</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-7.18</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>塑料制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1336</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-5.19</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>环保设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1366</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-7.34</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>农产品加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>中天服务</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2188</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-8.25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2200</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2360</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2494</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2513</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-8.039999999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ST瑞和</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2620</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2687</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2748</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>化学原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2753</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2790</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-2.72</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2817</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-5.09</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>医疗器械</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2968</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2969</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>600113</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>600159</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>600235</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>造纸</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>600791</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-4.93</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>600796</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>博闻科技</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>600883</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-3.89</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>种植业与林业</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>601616</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-3.58</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>电网设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>601827</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>出版传媒</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>601999</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>文化传媒</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>603137</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>603172</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>603183</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>其他社会服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>603385</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-2.45</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>宁水集团</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>603700</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>*ST星农</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>603789</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>603808</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-7.37</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>605001</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>轨交设备</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8345,7 +9855,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
@@ -7,14 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,6 +433,1511 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>600159</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>002969</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>湖北能源</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>000883</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>电力</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>603183</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>其他社会服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>002687</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>600791</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>浩物股份</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>汽车服务及其他</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>002494</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>000548</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>公路铁路运输</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>重庆燃气</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>600917</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>恒大高新</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>002591</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>600796</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>莫高股份</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>600543</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>饮料制造</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>凤竹纺织</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>600493</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>纺织制造</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>600235</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>造纸</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>000952</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>合富中国</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>603122</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>医药商业</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>002790</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>605001</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>轨交设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>002817</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>医疗器械</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>梅轮电梯</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>603321</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>001322</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F24" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>春雪食品</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>605567</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>10.06</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>食品加工制造</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>金富科技</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>003018</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="F26" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>宁波富邦</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>600768</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>电网设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>603968</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>001299</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>001366</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>农产品加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>603137</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>002830</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>彩蝶实业</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>603073</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>纺织制造</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>603172</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>001231</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>001333</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>塑料制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>环保设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>001259</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>小家电</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>600113</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>57.82</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -498,10 +2004,8 @@
           <t>超讯通信</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>603322</t>
-        </is>
+      <c r="C2" t="n">
+        <v>603322</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -539,10 +2043,8 @@
           <t>湖南投资</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>000548</t>
-        </is>
+      <c r="C3" t="n">
+        <v>548</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -580,10 +2082,8 @@
           <t>湖北能源</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>000883</t>
-        </is>
+      <c r="C4" t="n">
+        <v>883</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -621,10 +2121,8 @@
           <t>金房能源</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>001210</t>
-        </is>
+      <c r="C5" t="n">
+        <v>1210</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -662,10 +2160,8 @@
           <t>农心科技</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>001231</t>
-        </is>
+      <c r="C6" t="n">
+        <v>1231</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -703,10 +2199,8 @@
           <t>美能能源</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>001299</t>
-        </is>
+      <c r="C7" t="n">
+        <v>1299</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -744,10 +2238,8 @@
           <t>箭牌家居</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>001322</t>
-        </is>
+      <c r="C8" t="n">
+        <v>1322</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -785,10 +2277,8 @@
           <t>光华股份</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>001333</t>
-        </is>
+      <c r="C9" t="n">
+        <v>1333</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -826,10 +2316,8 @@
           <t>楚环科技</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>001336</t>
-        </is>
+      <c r="C10" t="n">
+        <v>1336</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -867,10 +2355,8 @@
           <t>播恩集团</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>001366</t>
-        </is>
+      <c r="C11" t="n">
+        <v>1366</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -908,10 +2394,8 @@
           <t>同德化工</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>002360</t>
-        </is>
+      <c r="C12" t="n">
+        <v>2360</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -949,10 +2433,8 @@
           <t>华斯股份</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>002494</t>
-        </is>
+      <c r="C13" t="n">
+        <v>2494</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -990,10 +2472,8 @@
           <t>蓝丰生化</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>002513</t>
-        </is>
+      <c r="C14" t="n">
+        <v>2513</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1031,10 +2511,8 @@
           <t>恒大高新</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>002591</t>
-        </is>
+      <c r="C15" t="n">
+        <v>2591</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1072,10 +2550,8 @@
           <t>乔治白</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>002687</t>
-        </is>
+      <c r="C16" t="n">
+        <v>2687</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1113,10 +2589,8 @@
           <t>瑞尔特</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>002790</t>
-        </is>
+      <c r="C17" t="n">
+        <v>2790</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1154,10 +2628,8 @@
           <t>黄山胶囊</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>002817</t>
-        </is>
+      <c r="C18" t="n">
+        <v>2817</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1195,10 +2667,8 @@
           <t>名雕股份</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>002830</t>
-        </is>
+      <c r="C19" t="n">
+        <v>2830</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1236,10 +2706,8 @@
           <t>新宏泽</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>002836</t>
-        </is>
+      <c r="C20" t="n">
+        <v>2836</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1277,10 +2745,8 @@
           <t>新大正</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>002968</t>
-        </is>
+      <c r="C21" t="n">
+        <v>2968</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1318,10 +2784,8 @@
           <t>嘉美包装</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>002969</t>
-        </is>
+      <c r="C22" t="n">
+        <v>2969</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1359,10 +2823,8 @@
           <t>金富科技</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>003018</t>
-        </is>
+      <c r="C23" t="n">
+        <v>3018</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1400,10 +2862,8 @@
           <t>浙江东日</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>600113</t>
-        </is>
+      <c r="C24" t="n">
+        <v>600113</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1441,10 +2901,8 @@
           <t>大龙地产</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>600159</t>
-        </is>
+      <c r="C25" t="n">
+        <v>600159</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1482,10 +2940,8 @@
           <t>民丰特纸</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>600235</t>
-        </is>
+      <c r="C26" t="n">
+        <v>600235</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1523,10 +2979,8 @@
           <t>凤竹纺织</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>600493</t>
-        </is>
+      <c r="C27" t="n">
+        <v>600493</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1564,10 +3018,8 @@
           <t>宁波富邦</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>600768</t>
-        </is>
+      <c r="C28" t="n">
+        <v>600768</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1605,10 +3057,8 @@
           <t>京能置业</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>600791</t>
-        </is>
+      <c r="C29" t="n">
+        <v>600791</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1646,10 +3096,8 @@
           <t>钱江生化</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>600796</t>
-        </is>
+      <c r="C30" t="n">
+        <v>600796</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1687,10 +3135,8 @@
           <t>万里股份</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>600847</t>
-        </is>
+      <c r="C31" t="n">
+        <v>600847</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1728,10 +3174,8 @@
           <t>重庆燃气</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>600917</t>
-        </is>
+      <c r="C32" t="n">
+        <v>600917</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1769,10 +3213,8 @@
           <t>苏能股份</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>600925</t>
-        </is>
+      <c r="C33" t="n">
+        <v>600925</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1810,10 +3252,8 @@
           <t>三峰环境</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>601827</t>
-        </is>
+      <c r="C34" t="n">
+        <v>601827</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1851,10 +3291,8 @@
           <t>合富中国</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>603122</t>
-        </is>
+      <c r="C35" t="n">
+        <v>603122</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1892,10 +3330,8 @@
           <t>恒尚节能</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>603137</t>
-        </is>
+      <c r="C36" t="n">
+        <v>603137</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1933,10 +3369,8 @@
           <t>万丰股份</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>603172</t>
-        </is>
+      <c r="C37" t="n">
+        <v>603172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1974,10 +3408,8 @@
           <t>建研院</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>603183</t>
-        </is>
+      <c r="C38" t="n">
+        <v>603183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2015,10 +3447,8 @@
           <t>梅轮电梯</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>603321</t>
-        </is>
+      <c r="C39" t="n">
+        <v>603321</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2056,10 +3486,8 @@
           <t>醋化股份</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>603968</t>
-        </is>
+      <c r="C40" t="n">
+        <v>603968</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2097,10 +3525,8 @@
           <t>威奥股份</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>605001</t>
-        </is>
+      <c r="C41" t="n">
+        <v>605001</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2138,10 +3564,8 @@
           <t>春雪食品</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>605567</t>
-        </is>
+      <c r="C42" t="n">
+        <v>605567</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2173,7 +3597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3682,7 +5106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5075,7 +6499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6604,1632 +8028,6 @@
       <c r="H42" t="inlineStr">
         <is>
           <t>食品加工制造</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>盈亏比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>行业</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>548</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-2.68</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>公路铁路运输</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>三木集团</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>632</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-1.02</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>综合</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>茂化实华</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>637</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>石油加工贸易</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>广济药业</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>952</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-6.15</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>化学制药</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>双枪科技</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1211</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>农心科技</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1231</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-3.27</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>农化制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>坤泰股份</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1260</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>汽车零部件</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>美能能源</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1299</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>燃气</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>箭牌家居</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1322</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-2.18</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>光华股份</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1333</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-6.92</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>塑料制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>楚环科技</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1336</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>23.32</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-6.56</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>环保设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>播恩集团</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1366</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-9.029999999999999</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>农产品加工</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>德冠新材</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1378</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>22.78</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>塑料制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>中天服务</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2188</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-9.93</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>*ST交投</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>2200</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>建筑装饰</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>同德化工</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>2360</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-3.38</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>2494</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-6.43</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>蓝丰生化</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>2513</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-8.93</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>农化制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>恒大高新</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>2591</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>乔治白</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>2687</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>2817</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-7.2</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>医疗器械</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>2836</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>新大正</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>2968</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-2.28</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>2969</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-2.51</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>大龙地产</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>600159</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-2.47</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>民丰特纸</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>600235</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>造纸</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>凤竹纺织</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>600493</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>纺织制造</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>宁波富邦</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>600768</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>电网设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>京能置业</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>600791</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-5.52</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>600796</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-1.52</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>广电电气</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>601616</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-5.12</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>电网设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>601827</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F33" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>603172</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-6.67</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>嘉华股份</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>603182</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>农产品加工</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>建研院</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>603183</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F36" t="n">
-        <v>-4.41</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>其他社会服务</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>金海高科</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>603311</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="F37" t="n">
-        <v>-1.51</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>白色家电</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>惠达卫浴</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>603385</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="F38" t="n">
-        <v>-3.17</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>*ST星农</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>603789</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>专用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>歌力思</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>603808</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F40" t="n">
-        <v>-5.73</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>威奥股份</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>605001</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F41" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>轨交设备</t>
         </is>
       </c>
     </row>
@@ -8322,14 +8120,14 @@
         <v>5.59</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.15</v>
+        <v>-2.68</v>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -8346,11 +8144,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>三木集团</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>952</v>
+        <v>632</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -8358,22 +8156,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.99</v>
+        <v>3.93</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.29</v>
+        <v>-1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>综合</t>
         </is>
       </c>
     </row>
@@ -8385,11 +8183,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>茂化实华</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1231</v>
+        <v>637</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -8397,22 +8195,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.11</v>
+        <v>4.21</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.36</v>
+        <v>-0.95</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>石油加工贸易</t>
         </is>
       </c>
     </row>
@@ -8424,11 +8222,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>利仁科技</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1259</v>
+        <v>952</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -8436,22 +8234,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.82</v>
+        <v>6.99</v>
       </c>
       <c r="F5" t="n">
-        <v>0.31</v>
+        <v>-6.15</v>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>小家电</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -8463,11 +8261,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>坤泰股份</t>
+          <t>双枪科技</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1260</v>
+        <v>1211</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -8475,22 +8273,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.18</v>
+        <v>24.8</v>
       </c>
       <c r="F6" t="n">
-        <v>9.19</v>
+        <v>0.44</v>
       </c>
       <c r="G6" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>汽车零部件</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -8502,11 +8300,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1299</v>
+        <v>1231</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -8514,22 +8312,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12.23</v>
+        <v>21.11</v>
       </c>
       <c r="F7" t="n">
-        <v>1.39</v>
+        <v>-3.27</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>燃气</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -8541,11 +8339,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>坤泰股份</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1322</v>
+        <v>1260</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -8553,22 +8351,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.73</v>
+        <v>18.18</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.03</v>
+        <v>10.56</v>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
@@ -8580,11 +8378,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1333</v>
+        <v>1299</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -8592,22 +8390,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.69</v>
+        <v>12.23</v>
       </c>
       <c r="F9" t="n">
-        <v>-7.18</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>燃气</t>
         </is>
       </c>
     </row>
@@ -8619,11 +8417,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1336</v>
+        <v>1322</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -8631,22 +8429,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.32</v>
+        <v>8.73</v>
       </c>
       <c r="F10" t="n">
-        <v>-5.19</v>
+        <v>-2.18</v>
       </c>
       <c r="G10" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>环保设备</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -8658,11 +8456,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1366</v>
+        <v>1333</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -8670,22 +8468,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13.62</v>
+        <v>22.69</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.34</v>
+        <v>-6.92</v>
       </c>
       <c r="G11" t="n">
         <v>1.97</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>农产品加工</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -8697,11 +8495,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>中天服务</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2188</v>
+        <v>1336</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -8709,22 +8507,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5.94</v>
+        <v>23.32</v>
       </c>
       <c r="F12" t="n">
-        <v>-8.25</v>
+        <v>-6.56</v>
       </c>
       <c r="G12" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>环保设备</t>
         </is>
       </c>
     </row>
@@ -8736,11 +8534,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>*ST交投</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2200</v>
+        <v>1366</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -8748,22 +8546,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7.22</v>
+        <v>13.62</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-9.029999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.57</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -8775,11 +8573,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>德冠新材</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2360</v>
+        <v>1378</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -8787,22 +8585,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.32</v>
+        <v>22.78</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.32</v>
+        <v>-1.01</v>
       </c>
       <c r="G14" t="n">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -8814,11 +8612,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>中天服务</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2494</v>
+        <v>2188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -8826,22 +8624,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.13</v>
+        <v>5.94</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.7</v>
+        <v>-9.93</v>
       </c>
       <c r="G15" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -8853,11 +8651,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>蓝丰生化</t>
+          <t>*ST交投</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2513</v>
+        <v>2200</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -8865,22 +8663,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5.6</v>
+        <v>7.22</v>
       </c>
       <c r="F16" t="n">
-        <v>-8.039999999999999</v>
+        <v>-1.11</v>
       </c>
       <c r="G16" t="n">
-        <v>1.92</v>
+        <v>0.57</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -8892,11 +8690,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ST瑞和</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2620</v>
+        <v>2360</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -8904,22 +8702,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.16</v>
+        <v>5.32</v>
       </c>
       <c r="F17" t="n">
-        <v>2.71</v>
+        <v>-3.38</v>
       </c>
       <c r="G17" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -8931,11 +8729,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2687</v>
+        <v>2494</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -8943,17 +8741,17 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.6</v>
+        <v>5.13</v>
       </c>
       <c r="F18" t="n">
-        <v>0.43</v>
+        <v>-6.43</v>
       </c>
       <c r="G18" t="n">
-        <v>1.54</v>
+        <v>1.88</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -8970,11 +8768,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>世龙实业</t>
+          <t>蓝丰生化</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2748</v>
+        <v>2513</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -8982,22 +8780,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9.51</v>
+        <v>5.6</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.05</v>
+        <v>-8.93</v>
       </c>
       <c r="G19" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>化学原料</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -9009,11 +8807,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>永东股份</t>
+          <t>恒大高新</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2753</v>
+        <v>2591</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -9021,22 +8819,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.25</v>
+        <v>5.88</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.21</v>
+        <v>-0.51</v>
       </c>
       <c r="G20" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>橡胶制品</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -9048,11 +8846,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>瑞尔特</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2790</v>
+        <v>2687</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -9060,22 +8858,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>7.71</v>
+        <v>4.6</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.72</v>
+        <v>-1.3</v>
       </c>
       <c r="G21" t="n">
-        <v>2.01</v>
+        <v>1.53</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -9102,14 +8900,14 @@
         <v>8.06</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.09</v>
+        <v>-7.2</v>
       </c>
       <c r="G22" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -9126,11 +8924,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>新大正</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2968</v>
+        <v>2836</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -9138,22 +8936,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.95</v>
+        <v>9.26</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.37</v>
+        <v>0.43</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -9165,11 +8963,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>新大正</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -9177,22 +8975,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.59</v>
+        <v>10.95</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.51</v>
+        <v>-2.28</v>
       </c>
       <c r="G24" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>包装印刷</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -9204,11 +9002,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>600113</v>
+        <v>2969</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -9216,22 +9014,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>58.6</v>
+        <v>3.59</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.62</v>
+        <v>-2.51</v>
       </c>
       <c r="G25" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>零售</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -9258,14 +9056,14 @@
         <v>2.83</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.71</v>
+        <v>-2.47</v>
       </c>
       <c r="G26" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -9297,14 +9095,14 @@
         <v>6.38</v>
       </c>
       <c r="F27" t="n">
-        <v>1.1</v>
+        <v>2.35</v>
       </c>
       <c r="G27" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -9321,11 +9119,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>600791</v>
+        <v>600493</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -9333,22 +9131,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.07</v>
+        <v>6.5</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.93</v>
+        <v>0.62</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2.01</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>纺织制造</t>
         </is>
       </c>
     </row>
@@ -9360,11 +9158,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>宁波富邦</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>600796</v>
+        <v>600768</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -9372,22 +9170,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.91</v>
+        <v>12.16</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.68</v>
+        <v>0.9</v>
       </c>
       <c r="G29" t="n">
-        <v>1.71</v>
+        <v>2.01</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -9399,11 +9197,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>博闻科技</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>600883</v>
+        <v>600791</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -9411,22 +9209,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8.220000000000001</v>
+        <v>5.07</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.89</v>
+        <v>-5.52</v>
       </c>
       <c r="G30" t="n">
-        <v>1.97</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>种植业与林业</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -9438,11 +9236,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>广电电气</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>601616</v>
+        <v>600796</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -9450,22 +9248,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.91</v>
+        <v>5.91</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.58</v>
+        <v>-1.52</v>
       </c>
       <c r="G31" t="n">
-        <v>1.23</v>
+        <v>1.71</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -9477,11 +9275,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>三峰环境</t>
+          <t>广电电气</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>601827</v>
+        <v>601616</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -9489,22 +9287,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>8.550000000000001</v>
+        <v>3.91</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.47</v>
+        <v>-5.12</v>
       </c>
       <c r="G32" t="n">
-        <v>2.07</v>
+        <v>1.22</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -9516,11 +9314,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>出版传媒</t>
+          <t>三峰环境</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>601999</v>
+        <v>601827</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -9528,22 +9326,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>7.22</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.39</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>文化传媒</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -9555,11 +9353,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>恒尚节能</t>
+          <t>万丰股份</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>603137</v>
+        <v>603172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -9567,22 +9365,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>15.56</v>
+        <v>17.23</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.89</v>
+        <v>-6.67</v>
       </c>
       <c r="G34" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -9594,11 +9392,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>嘉华股份</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>603172</v>
+        <v>603182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -9606,22 +9404,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>17.23</v>
+        <v>13.85</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.95</v>
+        <v>0.72</v>
       </c>
       <c r="G35" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -9648,14 +9446,14 @@
         <v>4.54</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.08</v>
+        <v>-4.41</v>
       </c>
       <c r="G36" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -9672,11 +9470,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>惠达卫浴</t>
+          <t>金海高科</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>603385</v>
+        <v>603311</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -9684,22 +9482,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6.95</v>
+        <v>11.25</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.45</v>
+        <v>-1.51</v>
       </c>
       <c r="G37" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>白色家电</t>
         </is>
       </c>
     </row>
@@ -9711,11 +9509,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>宁水集团</t>
+          <t>惠达卫浴</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>603700</v>
+        <v>603385</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -9723,22 +9521,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>12.53</v>
+        <v>6.95</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.15</v>
+        <v>-3.17</v>
       </c>
       <c r="G38" t="n">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -9765,14 +9563,14 @@
         <v>5.85</v>
       </c>
       <c r="F39" t="n">
-        <v>1.88</v>
+        <v>2.91</v>
       </c>
       <c r="G39" t="n">
-        <v>2.11</v>
+        <v>0.55</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -9804,14 +9602,14 @@
         <v>8.550000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>-7.37</v>
+        <v>-5.73</v>
       </c>
       <c r="G40" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -9843,14 +9641,14 @@
         <v>7.7</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.82</v>
+        <v>-2.6</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -9865,6 +9663,1632 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>盈亏比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>548</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>公路铁路运输</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>952</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-5.29</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1231</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-3.36</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1259</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>小家电</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>汽车零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1299</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1322</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1333</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-7.18</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>塑料制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1336</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-5.19</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>环保设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1366</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-7.34</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>农产品加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>中天服务</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2188</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-8.25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2200</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2360</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2494</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2513</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-8.039999999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ST瑞和</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2620</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2687</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2748</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>化学原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2753</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2790</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-2.72</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2817</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-5.09</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>医疗器械</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2968</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2969</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>600113</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>600159</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>600235</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>造纸</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>600791</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-4.93</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>600796</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>博闻科技</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>600883</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-3.89</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>种植业与林业</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>601616</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-3.58</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>电网设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>601827</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>出版传媒</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>601999</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>文化传媒</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>603137</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>603172</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>603183</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>其他社会服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>603385</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-2.45</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>宁水集团</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>603700</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>*ST星农</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>603789</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>603808</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-7.37</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>605001</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>轨交设备</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11529,7 +12953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
@@ -7,16 +7,17 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,17 +488,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>大龙地产</t>
+          <t>居然智家</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>600159</t>
+          <t>000785</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -506,19 +507,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2.83</v>
+        <v>3.21</v>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>29.68</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>零售</t>
         </is>
       </c>
     </row>
@@ -530,12 +531,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>大龙地产</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>002969</t>
+          <t>600159</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -544,19 +545,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3.59</v>
+        <v>2.83</v>
       </c>
       <c r="F3" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>包装印刷</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -568,12 +569,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>建研院</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>603183</t>
+          <t>002969</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -582,19 +583,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.54</v>
+        <v>3.59</v>
       </c>
       <c r="F4" t="n">
         <v>1.98</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>其他社会服务</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -606,12 +607,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>建研院</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>002687</t>
+          <t>603183</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -620,19 +621,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.6</v>
+        <v>4.54</v>
       </c>
       <c r="F5" t="n">
-        <v>1.52</v>
+        <v>1.98</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>其他社会服务</t>
         </is>
       </c>
     </row>
@@ -644,12 +645,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>600791</t>
+          <t>002687</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -658,19 +659,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="F6" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -682,12 +683,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>002494</t>
+          <t>600791</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -696,19 +697,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4.95</v>
+        <v>4.65</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -741,7 +742,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -775,11 +776,11 @@
         <v>5.18</v>
       </c>
       <c r="F9" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -796,12 +797,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>蓝丰生化</t>
+          <t>湖南投资</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>002513</t>
+          <t>000548</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -810,19 +811,19 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5.6</v>
+        <v>5.46</v>
       </c>
       <c r="F10" t="n">
-        <v>1.93</v>
+        <v>0.75</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>公路铁路运输</t>
         </is>
       </c>
     </row>
@@ -834,12 +835,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>重庆燃气</t>
+          <t>恒大高新</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>600917</t>
+          <t>002591</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -848,19 +849,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5.73</v>
+        <v>5.84</v>
       </c>
       <c r="F11" t="n">
-        <v>0.18</v>
+        <v>2.08</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>燃气</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -872,12 +873,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>恒大高新</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>002591</t>
+          <t>600493</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -886,19 +887,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5.84</v>
+        <v>6.5</v>
       </c>
       <c r="F12" t="n">
         <v>2.01</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>纺织制造</t>
         </is>
       </c>
     </row>
@@ -910,12 +911,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>民丰特纸</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>600796</t>
+          <t>600235</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -924,19 +925,19 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5.91</v>
+        <v>6.52</v>
       </c>
       <c r="F13" t="n">
-        <v>0.91</v>
+        <v>1.9</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>造纸</t>
         </is>
       </c>
     </row>
@@ -948,12 +949,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>凤竹纺织</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>600493</t>
+          <t>000952</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -962,19 +963,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6.5</v>
+        <v>6.55</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>纺织制造</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -986,12 +987,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>民丰特纸</t>
+          <t>德美化工</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>600235</t>
+          <t>002054</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1000,19 +1001,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6.52</v>
+        <v>6.63</v>
       </c>
       <c r="F15" t="n">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>造纸</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -1024,12 +1025,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>瑞尔特</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>000952</t>
+          <t>002790</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1038,19 +1039,19 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6.55</v>
+        <v>7.33</v>
       </c>
       <c r="F16" t="n">
-        <v>1.98</v>
+        <v>1.03</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -1062,12 +1063,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>瑞尔特</t>
+          <t>威奥股份</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>002790</t>
+          <t>605001</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1076,19 +1077,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7.33</v>
+        <v>7.7</v>
       </c>
       <c r="F17" t="n">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>轨交设备</t>
         </is>
       </c>
     </row>
@@ -1100,12 +1101,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>威奥股份</t>
+          <t>三峰环境</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>605001</t>
+          <t>601827</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1114,19 +1115,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>7.7</v>
+        <v>8.66</v>
       </c>
       <c r="F18" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>轨交设备</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1160,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1176,12 +1177,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>新大正</t>
+          <t>金富科技</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>002968</t>
+          <t>003018</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1190,19 +1191,19 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>10.63</v>
+        <v>11.74</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -1214,12 +1215,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>金富科技</t>
+          <t>宁波富邦</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>003018</t>
+          <t>600768</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1228,19 +1229,19 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>11.74</v>
+        <v>12.16</v>
       </c>
       <c r="F21" t="n">
         <v>2</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>包装印刷</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -1252,12 +1253,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>宁波富邦</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>600768</t>
+          <t>001299</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1266,19 +1267,19 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>12.16</v>
+        <v>12.23</v>
       </c>
       <c r="F22" t="n">
-        <v>2.01</v>
+        <v>2.12</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>燃气</t>
         </is>
       </c>
     </row>
@@ -1290,12 +1291,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>001299</t>
+          <t>001366</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1304,19 +1305,19 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>12.23</v>
+        <v>13.62</v>
       </c>
       <c r="F23" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>燃气</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -1328,12 +1329,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>雪祺电气</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>001366</t>
+          <t>001387</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1342,19 +1343,19 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>13.62</v>
+        <v>13.77</v>
       </c>
       <c r="F24" t="n">
-        <v>1.97</v>
+        <v>1.77</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>农产品加工</t>
+          <t>白色家电</t>
         </is>
       </c>
     </row>
@@ -1383,11 +1384,11 @@
         <v>14.74</v>
       </c>
       <c r="F25" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1421,11 +1422,11 @@
         <v>14.92</v>
       </c>
       <c r="F26" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1459,11 +1460,11 @@
         <v>16.95</v>
       </c>
       <c r="F27" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1497,11 +1498,11 @@
         <v>17.15</v>
       </c>
       <c r="F28" t="n">
-        <v>1.21</v>
+        <v>0.09</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1535,11 +1536,11 @@
         <v>17.23</v>
       </c>
       <c r="F29" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1556,12 +1557,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>一彬科技</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>001231</t>
+          <t>001278</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1570,19 +1571,19 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>21.11</v>
+        <v>18.71</v>
       </c>
       <c r="F30" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
@@ -1594,12 +1595,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>001333</t>
+          <t>001231</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1608,19 +1609,19 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>22.69</v>
+        <v>21.11</v>
       </c>
       <c r="F31" t="n">
-        <v>1.96</v>
+        <v>2.01</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -1632,12 +1633,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>开普检测</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>001336</t>
+          <t>003008</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1646,19 +1647,19 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>23.32</v>
+        <v>21.96</v>
       </c>
       <c r="F32" t="n">
-        <v>1.98</v>
+        <v>1.15</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-10</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>环保设备</t>
+          <t>其他社会服务</t>
         </is>
       </c>
     </row>
@@ -1670,33 +1671,147 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>001333</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>塑料制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>利仁科技</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>001259</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
         <v>25.22</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F34" t="n">
         <v>2</v>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>2025-09-09</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>小家电</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>菲林格尔</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>603226</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>600113</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>61</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>零售</t>
         </is>
       </c>
     </row>
@@ -1706,6 +1821,1671 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>盈亏比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>548</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-1.61</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>公路铁路运输</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>德龙汇能</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>593</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-2.94</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>茂化实华</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>637</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-2.76</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>石油加工贸易</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>952</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-5.58</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>金房能源</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1210</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="F6" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>电力</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>双枪科技</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1211</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>24.57</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1231</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1259</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>小家电</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10.01</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>汽车零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1299</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1322</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1333</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>塑料制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1336</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-4.12</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>环保设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1366</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-7.05</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>农产品加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>中天服务</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2188</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-5.89</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2200</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2494</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-2.34</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2513</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-6.43</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ST瑞和</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2620</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F20" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2687</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2753</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-2.34</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2817</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-4.09</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>医疗器械</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>开普检测</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3008</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-4.53</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>其他社会服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>宁波联合</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>600051</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-3.33</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>综合</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>600159</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>600235</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>造纸</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>凤竹纺织</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>600493</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-4.37</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>纺织制造</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>600791</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-5.92</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>600796</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>万里股份</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>600847</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-8.279999999999999</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>电池</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>601616</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>电网设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>601827</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>彩蝶实业</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>603073</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-4.04</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>纺织制造</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>603172</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-4.64</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>603183</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-1.76</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>其他社会服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>金海高科</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>603311</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-5.19</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>白色家电</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>603385</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>宁水集团</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>603700</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>*ST星农</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>603789</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>603808</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-7.37</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>603968</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>12.92</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-3.56</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>2025-08-27 16:14:00</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4372,6 +6152,1219 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>600159</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2969</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>603183</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>其他社会服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2687</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>600791</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2494</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>苏能股份</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>600925</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>煤炭开采加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2360</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2513</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>重庆燃气</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>600917</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>恒大高新</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2591</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>600796</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>凤竹纺织</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>600493</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>纺织制造</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>600235</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>造纸</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>952</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2790</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>605001</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>轨交设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1322</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2968</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>金富科技</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3018</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>宁波富邦</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>600768</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>电网设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1299</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1366</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>农产品加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>603137</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>金房能源</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1210</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>电力</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2830</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>彩蝶实业</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>603073</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>纺织制造</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>603172</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1231</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1333</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>塑料制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1336</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>环保设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1259</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>小家电</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5795,7 +8788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7460,7 +10453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8969,7 +11962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10362,7 +13355,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11891,1632 +14884,6 @@
       <c r="H42" t="inlineStr">
         <is>
           <t>食品加工制造</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>盈亏比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>行业</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>548</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-2.68</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>公路铁路运输</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>三木集团</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>632</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-1.02</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>综合</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>茂化实华</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>637</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>石油加工贸易</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>广济药业</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>952</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-6.15</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>化学制药</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>双枪科技</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1211</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>农心科技</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1231</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-3.27</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>农化制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>坤泰股份</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1260</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>汽车零部件</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>美能能源</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1299</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>燃气</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>箭牌家居</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1322</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-2.18</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>光华股份</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1333</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-6.92</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>塑料制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>楚环科技</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1336</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>23.32</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-6.56</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>环保设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>播恩集团</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1366</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-9.029999999999999</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>农产品加工</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>德冠新材</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1378</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>22.78</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>塑料制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>中天服务</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2188</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-9.93</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>*ST交投</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>2200</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>建筑装饰</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>同德化工</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>2360</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-3.38</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>2494</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-6.43</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>蓝丰生化</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>2513</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-8.93</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>农化制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>恒大高新</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>2591</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>乔治白</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>2687</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>2817</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-7.2</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>医疗器械</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>2836</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>新大正</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>2968</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-2.28</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>2969</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-2.51</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>大龙地产</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>600159</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-2.47</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>民丰特纸</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>600235</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>造纸</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>凤竹纺织</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>600493</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>纺织制造</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>宁波富邦</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>600768</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>电网设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>京能置业</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>600791</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-5.52</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>600796</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-1.52</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>广电电气</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>601616</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-5.12</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>电网设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>601827</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F33" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>603172</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-6.67</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>嘉华股份</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>603182</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>农产品加工</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>建研院</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>603183</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F36" t="n">
-        <v>-4.41</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>其他社会服务</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>金海高科</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>603311</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="F37" t="n">
-        <v>-1.51</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>白色家电</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>惠达卫浴</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>603385</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="F38" t="n">
-        <v>-3.17</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>*ST星农</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>603789</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>专用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>歌力思</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>603808</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F40" t="n">
-        <v>-5.73</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>威奥股份</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>605001</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F41" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>轨交设备</t>
         </is>
       </c>
     </row>
@@ -13609,14 +14976,14 @@
         <v>5.59</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.15</v>
+        <v>-2.68</v>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -13633,11 +15000,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>三木集团</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>952</v>
+        <v>632</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -13645,22 +15012,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.99</v>
+        <v>3.93</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.29</v>
+        <v>-1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>综合</t>
         </is>
       </c>
     </row>
@@ -13672,11 +15039,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>茂化实华</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1231</v>
+        <v>637</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -13684,22 +15051,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.11</v>
+        <v>4.21</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.36</v>
+        <v>-0.95</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>石油加工贸易</t>
         </is>
       </c>
     </row>
@@ -13711,11 +15078,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>利仁科技</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1259</v>
+        <v>952</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -13723,22 +15090,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.82</v>
+        <v>6.99</v>
       </c>
       <c r="F5" t="n">
-        <v>0.31</v>
+        <v>-6.15</v>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>小家电</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -13750,11 +15117,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>坤泰股份</t>
+          <t>双枪科技</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1260</v>
+        <v>1211</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -13762,22 +15129,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.18</v>
+        <v>24.8</v>
       </c>
       <c r="F6" t="n">
-        <v>9.19</v>
+        <v>0.44</v>
       </c>
       <c r="G6" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>汽车零部件</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -13789,11 +15156,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1299</v>
+        <v>1231</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -13801,22 +15168,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12.23</v>
+        <v>21.11</v>
       </c>
       <c r="F7" t="n">
-        <v>1.39</v>
+        <v>-3.27</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>燃气</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -13828,11 +15195,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>坤泰股份</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1322</v>
+        <v>1260</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -13840,22 +15207,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.73</v>
+        <v>18.18</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.03</v>
+        <v>10.56</v>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
@@ -13867,11 +15234,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1333</v>
+        <v>1299</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -13879,22 +15246,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.69</v>
+        <v>12.23</v>
       </c>
       <c r="F9" t="n">
-        <v>-7.18</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>燃气</t>
         </is>
       </c>
     </row>
@@ -13906,11 +15273,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1336</v>
+        <v>1322</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -13918,22 +15285,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.32</v>
+        <v>8.73</v>
       </c>
       <c r="F10" t="n">
-        <v>-5.19</v>
+        <v>-2.18</v>
       </c>
       <c r="G10" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>环保设备</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -13945,11 +15312,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1366</v>
+        <v>1333</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -13957,22 +15324,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13.62</v>
+        <v>22.69</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.34</v>
+        <v>-6.92</v>
       </c>
       <c r="G11" t="n">
         <v>1.97</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>农产品加工</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -13984,11 +15351,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>中天服务</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2188</v>
+        <v>1336</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -13996,22 +15363,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5.94</v>
+        <v>23.32</v>
       </c>
       <c r="F12" t="n">
-        <v>-8.25</v>
+        <v>-6.56</v>
       </c>
       <c r="G12" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>环保设备</t>
         </is>
       </c>
     </row>
@@ -14023,11 +15390,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>*ST交投</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2200</v>
+        <v>1366</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -14035,22 +15402,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7.22</v>
+        <v>13.62</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-9.029999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.57</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -14062,11 +15429,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>德冠新材</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2360</v>
+        <v>1378</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -14074,22 +15441,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.32</v>
+        <v>22.78</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.32</v>
+        <v>-1.01</v>
       </c>
       <c r="G14" t="n">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -14101,11 +15468,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>中天服务</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2494</v>
+        <v>2188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -14113,22 +15480,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.13</v>
+        <v>5.94</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.7</v>
+        <v>-9.93</v>
       </c>
       <c r="G15" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -14140,11 +15507,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>蓝丰生化</t>
+          <t>*ST交投</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2513</v>
+        <v>2200</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -14152,22 +15519,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5.6</v>
+        <v>7.22</v>
       </c>
       <c r="F16" t="n">
-        <v>-8.039999999999999</v>
+        <v>-1.11</v>
       </c>
       <c r="G16" t="n">
-        <v>1.92</v>
+        <v>0.57</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -14179,11 +15546,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ST瑞和</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2620</v>
+        <v>2360</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -14191,22 +15558,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.16</v>
+        <v>5.32</v>
       </c>
       <c r="F17" t="n">
-        <v>2.71</v>
+        <v>-3.38</v>
       </c>
       <c r="G17" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -14218,11 +15585,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2687</v>
+        <v>2494</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -14230,17 +15597,17 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.6</v>
+        <v>5.13</v>
       </c>
       <c r="F18" t="n">
-        <v>0.43</v>
+        <v>-6.43</v>
       </c>
       <c r="G18" t="n">
-        <v>1.54</v>
+        <v>1.88</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -14257,11 +15624,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>世龙实业</t>
+          <t>蓝丰生化</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2748</v>
+        <v>2513</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -14269,22 +15636,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9.51</v>
+        <v>5.6</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.05</v>
+        <v>-8.93</v>
       </c>
       <c r="G19" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>化学原料</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -14296,11 +15663,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>永东股份</t>
+          <t>恒大高新</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2753</v>
+        <v>2591</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -14308,22 +15675,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.25</v>
+        <v>5.88</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.21</v>
+        <v>-0.51</v>
       </c>
       <c r="G20" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>橡胶制品</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -14335,11 +15702,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>瑞尔特</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2790</v>
+        <v>2687</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -14347,22 +15714,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>7.71</v>
+        <v>4.6</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.72</v>
+        <v>-1.3</v>
       </c>
       <c r="G21" t="n">
-        <v>2.01</v>
+        <v>1.53</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -14389,14 +15756,14 @@
         <v>8.06</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.09</v>
+        <v>-7.2</v>
       </c>
       <c r="G22" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -14413,11 +15780,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>新大正</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2968</v>
+        <v>2836</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -14425,22 +15792,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.95</v>
+        <v>9.26</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.37</v>
+        <v>0.43</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -14452,11 +15819,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>新大正</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -14464,22 +15831,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.59</v>
+        <v>10.95</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.51</v>
+        <v>-2.28</v>
       </c>
       <c r="G24" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>包装印刷</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -14491,11 +15858,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>600113</v>
+        <v>2969</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -14503,22 +15870,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>58.6</v>
+        <v>3.59</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.62</v>
+        <v>-2.51</v>
       </c>
       <c r="G25" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>零售</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -14545,14 +15912,14 @@
         <v>2.83</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.71</v>
+        <v>-2.47</v>
       </c>
       <c r="G26" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -14584,14 +15951,14 @@
         <v>6.38</v>
       </c>
       <c r="F27" t="n">
-        <v>1.1</v>
+        <v>2.35</v>
       </c>
       <c r="G27" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -14608,11 +15975,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>600791</v>
+        <v>600493</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -14620,22 +15987,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.07</v>
+        <v>6.5</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.93</v>
+        <v>0.62</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2.01</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>纺织制造</t>
         </is>
       </c>
     </row>
@@ -14647,11 +16014,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>宁波富邦</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>600796</v>
+        <v>600768</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -14659,22 +16026,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.91</v>
+        <v>12.16</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.68</v>
+        <v>0.9</v>
       </c>
       <c r="G29" t="n">
-        <v>1.71</v>
+        <v>2.01</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -14686,11 +16053,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>博闻科技</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>600883</v>
+        <v>600791</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -14698,22 +16065,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8.220000000000001</v>
+        <v>5.07</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.89</v>
+        <v>-5.52</v>
       </c>
       <c r="G30" t="n">
-        <v>1.97</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>种植业与林业</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -14725,11 +16092,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>广电电气</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>601616</v>
+        <v>600796</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -14737,22 +16104,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.91</v>
+        <v>5.91</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.58</v>
+        <v>-1.52</v>
       </c>
       <c r="G31" t="n">
-        <v>1.23</v>
+        <v>1.71</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -14764,11 +16131,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>三峰环境</t>
+          <t>广电电气</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>601827</v>
+        <v>601616</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -14776,22 +16143,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>8.550000000000001</v>
+        <v>3.91</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.47</v>
+        <v>-5.12</v>
       </c>
       <c r="G32" t="n">
-        <v>2.07</v>
+        <v>1.22</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -14803,11 +16170,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>出版传媒</t>
+          <t>三峰环境</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>601999</v>
+        <v>601827</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -14815,22 +16182,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>7.22</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.39</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>文化传媒</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -14842,11 +16209,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>恒尚节能</t>
+          <t>万丰股份</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>603137</v>
+        <v>603172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -14854,22 +16221,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>15.56</v>
+        <v>17.23</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.89</v>
+        <v>-6.67</v>
       </c>
       <c r="G34" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -14881,11 +16248,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>嘉华股份</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>603172</v>
+        <v>603182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -14893,22 +16260,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>17.23</v>
+        <v>13.85</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.95</v>
+        <v>0.72</v>
       </c>
       <c r="G35" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -14935,14 +16302,14 @@
         <v>4.54</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.08</v>
+        <v>-4.41</v>
       </c>
       <c r="G36" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -14959,11 +16326,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>惠达卫浴</t>
+          <t>金海高科</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>603385</v>
+        <v>603311</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -14971,22 +16338,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6.95</v>
+        <v>11.25</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.45</v>
+        <v>-1.51</v>
       </c>
       <c r="G37" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>白色家电</t>
         </is>
       </c>
     </row>
@@ -14998,11 +16365,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>宁水集团</t>
+          <t>惠达卫浴</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>603700</v>
+        <v>603385</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -15010,22 +16377,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>12.53</v>
+        <v>6.95</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.15</v>
+        <v>-3.17</v>
       </c>
       <c r="G38" t="n">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -15052,14 +16419,14 @@
         <v>5.85</v>
       </c>
       <c r="F39" t="n">
-        <v>1.88</v>
+        <v>2.91</v>
       </c>
       <c r="G39" t="n">
-        <v>2.11</v>
+        <v>0.55</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -15091,14 +16458,14 @@
         <v>8.550000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>-7.37</v>
+        <v>-5.73</v>
       </c>
       <c r="G40" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -15130,14 +16497,14 @@
         <v>7.7</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.82</v>
+        <v>-2.6</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -15157,7 +16524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15235,14 +16602,14 @@
         <v>5.59</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.61</v>
+        <v>-2.15</v>
       </c>
       <c r="G2" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -15259,11 +16626,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>德龙汇能</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>593</v>
+        <v>952</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -15271,22 +16638,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.81</v>
+        <v>6.99</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.94</v>
+        <v>-5.29</v>
       </c>
       <c r="G3" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>燃气</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -15298,11 +16665,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>茂化实华</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>637</v>
+        <v>1231</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -15310,22 +16677,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.34</v>
+        <v>21.11</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.76</v>
+        <v>-3.36</v>
       </c>
       <c r="G4" t="n">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>石油加工贸易</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -15337,11 +16704,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>利仁科技</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>952</v>
+        <v>1259</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -15349,22 +16716,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6.99</v>
+        <v>25.82</v>
       </c>
       <c r="F5" t="n">
-        <v>-5.58</v>
+        <v>0.31</v>
       </c>
       <c r="G5" t="n">
-        <v>1.98</v>
+        <v>1.65</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>小家电</t>
         </is>
       </c>
     </row>
@@ -15376,11 +16743,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>金房能源</t>
+          <t>坤泰股份</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1210</v>
+        <v>1260</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -15388,22 +16755,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15.41</v>
+        <v>18.18</v>
       </c>
       <c r="F6" t="n">
-        <v>3.31</v>
+        <v>9.19</v>
       </c>
       <c r="G6" t="n">
-        <v>2.11</v>
+        <v>1.99</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>电力</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
@@ -15415,11 +16782,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>双枪科技</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1211</v>
+        <v>1299</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -15427,22 +16794,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.57</v>
+        <v>12.23</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.65</v>
+        <v>1.39</v>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>燃气</t>
         </is>
       </c>
     </row>
@@ -15454,11 +16821,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1231</v>
+        <v>1322</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -15466,22 +16833,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>21.11</v>
+        <v>8.73</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.47</v>
+        <v>-1.03</v>
       </c>
       <c r="G8" t="n">
         <v>2.02</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -15493,11 +16860,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>利仁科技</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1259</v>
+        <v>1333</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -15505,22 +16872,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>25.82</v>
+        <v>22.69</v>
       </c>
       <c r="F9" t="n">
-        <v>1.24</v>
+        <v>-7.18</v>
       </c>
       <c r="G9" t="n">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>小家电</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -15532,11 +16899,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>坤泰股份</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1260</v>
+        <v>1336</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -15544,22 +16911,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>18.18</v>
+        <v>23.32</v>
       </c>
       <c r="F10" t="n">
-        <v>10.01</v>
+        <v>-5.19</v>
       </c>
       <c r="G10" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>汽车零部件</t>
+          <t>环保设备</t>
         </is>
       </c>
     </row>
@@ -15571,11 +16938,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1299</v>
+        <v>1366</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -15583,22 +16950,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12.23</v>
+        <v>13.62</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.25</v>
+        <v>-7.34</v>
       </c>
       <c r="G11" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>燃气</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -15610,11 +16977,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>中天服务</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1322</v>
+        <v>2188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -15622,22 +16989,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8.73</v>
+        <v>5.94</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.11</v>
+        <v>-8.25</v>
       </c>
       <c r="G12" t="n">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -15649,11 +17016,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>*ST交投</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1333</v>
+        <v>2200</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -15661,22 +17028,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>22.69</v>
+        <v>7.22</v>
       </c>
       <c r="F13" t="n">
-        <v>-3.92</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>0.57</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -15688,11 +17055,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1336</v>
+        <v>2360</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -15700,22 +17067,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>23.32</v>
+        <v>5.32</v>
       </c>
       <c r="F14" t="n">
-        <v>-4.12</v>
+        <v>-1.32</v>
       </c>
       <c r="G14" t="n">
-        <v>1.93</v>
+        <v>2.01</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>环保设备</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -15727,11 +17094,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1366</v>
+        <v>2494</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -15739,22 +17106,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>13.62</v>
+        <v>5.13</v>
       </c>
       <c r="F15" t="n">
-        <v>-7.05</v>
+        <v>-3.7</v>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>农产品加工</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -15766,11 +17133,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>中天服务</t>
+          <t>蓝丰生化</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2188</v>
+        <v>2513</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -15778,22 +17145,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5.94</v>
+        <v>5.6</v>
       </c>
       <c r="F16" t="n">
-        <v>-5.89</v>
+        <v>-8.039999999999999</v>
       </c>
       <c r="G16" t="n">
         <v>1.92</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -15805,11 +17172,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>*ST交投</t>
+          <t>ST瑞和</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2200</v>
+        <v>2620</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -15817,17 +17184,17 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7.22</v>
+        <v>5.16</v>
       </c>
       <c r="F17" t="n">
-        <v>1.39</v>
+        <v>2.71</v>
       </c>
       <c r="G17" t="n">
-        <v>0.58</v>
+        <v>2.16</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -15844,11 +17211,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2494</v>
+        <v>2687</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -15856,17 +17223,17 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5.13</v>
+        <v>4.6</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.34</v>
+        <v>0.43</v>
       </c>
       <c r="G18" t="n">
-        <v>1.93</v>
+        <v>1.54</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -15883,11 +17250,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>蓝丰生化</t>
+          <t>世龙实业</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2513</v>
+        <v>2748</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -15895,22 +17262,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5.6</v>
+        <v>9.51</v>
       </c>
       <c r="F19" t="n">
-        <v>-6.43</v>
+        <v>-3.05</v>
       </c>
       <c r="G19" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>化学原料</t>
         </is>
       </c>
     </row>
@@ -15922,11 +17289,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ST瑞和</t>
+          <t>永东股份</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2620</v>
+        <v>2753</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -15934,22 +17301,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.16</v>
+        <v>7.25</v>
       </c>
       <c r="F20" t="n">
-        <v>3.68</v>
+        <v>-2.21</v>
       </c>
       <c r="G20" t="n">
-        <v>2.16</v>
+        <v>2.03</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>橡胶制品</t>
         </is>
       </c>
     </row>
@@ -15961,11 +17328,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>瑞尔特</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2687</v>
+        <v>2790</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -15973,22 +17340,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4.6</v>
+        <v>7.71</v>
       </c>
       <c r="F21" t="n">
-        <v>0.65</v>
+        <v>-2.72</v>
       </c>
       <c r="G21" t="n">
-        <v>1.53</v>
+        <v>2.01</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -16000,11 +17367,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>永东股份</t>
+          <t>黄山胶囊</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2753</v>
+        <v>2817</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -16012,22 +17379,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>7.25</v>
+        <v>8.06</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.34</v>
+        <v>-5.09</v>
       </c>
       <c r="G22" t="n">
-        <v>2.01</v>
+        <v>1.97</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>橡胶制品</t>
+          <t>医疗器械</t>
         </is>
       </c>
     </row>
@@ -16039,11 +17406,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>黄山胶囊</t>
+          <t>新大正</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2817</v>
+        <v>2968</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -16051,22 +17418,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8.06</v>
+        <v>10.95</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.09</v>
+        <v>-2.37</v>
       </c>
       <c r="G23" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>医疗器械</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -16078,11 +17445,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>开普检测</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3008</v>
+        <v>2969</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -16090,22 +17457,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>22.94</v>
+        <v>3.59</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.53</v>
+        <v>-2.51</v>
       </c>
       <c r="G24" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>其他社会服务</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -16117,11 +17484,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>宁波联合</t>
+          <t>浙江东日</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>600051</v>
+        <v>600113</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -16129,22 +17496,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>7.8</v>
+        <v>58.6</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.33</v>
+        <v>-3.62</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>综合</t>
+          <t>零售</t>
         </is>
       </c>
     </row>
@@ -16171,14 +17538,14 @@
         <v>2.83</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.41</v>
+        <v>-0.71</v>
       </c>
       <c r="G26" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -16210,14 +17577,14 @@
         <v>6.38</v>
       </c>
       <c r="F27" t="n">
-        <v>1.88</v>
+        <v>1.1</v>
       </c>
       <c r="G27" t="n">
         <v>1.91</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -16234,11 +17601,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>凤竹纺织</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>600493</v>
+        <v>600791</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -16246,22 +17613,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6.86</v>
+        <v>5.07</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.37</v>
+        <v>-4.93</v>
       </c>
       <c r="G28" t="n">
-        <v>1.96</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>纺织制造</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -16273,11 +17640,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>600791</v>
+        <v>600796</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -16285,22 +17652,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.07</v>
+        <v>5.91</v>
       </c>
       <c r="F29" t="n">
-        <v>-5.92</v>
+        <v>-0.68</v>
       </c>
       <c r="G29" t="n">
-        <v>0.98</v>
+        <v>1.71</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -16312,11 +17679,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>博闻科技</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>600796</v>
+        <v>600883</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -16324,22 +17691,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5.91</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>1.35</v>
+        <v>-3.89</v>
       </c>
       <c r="G30" t="n">
-        <v>1.73</v>
+        <v>1.97</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>种植业与林业</t>
         </is>
       </c>
     </row>
@@ -16351,11 +17718,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>万里股份</t>
+          <t>广电电气</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>600847</v>
+        <v>601616</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -16363,22 +17730,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>11.96</v>
+        <v>3.91</v>
       </c>
       <c r="F31" t="n">
-        <v>-8.279999999999999</v>
+        <v>-3.58</v>
       </c>
       <c r="G31" t="n">
-        <v>1.95</v>
+        <v>1.23</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>电池</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -16390,11 +17757,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>广电电气</t>
+          <t>三峰环境</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>601616</v>
+        <v>601827</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -16402,22 +17769,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3.91</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.05</v>
+        <v>-0.47</v>
       </c>
       <c r="G32" t="n">
-        <v>1.24</v>
+        <v>2.07</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -16429,11 +17796,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>三峰环境</t>
+          <t>出版传媒</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>601827</v>
+        <v>601999</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -16441,22 +17808,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>8.550000000000001</v>
+        <v>7.22</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.58</v>
+        <v>-1.39</v>
       </c>
       <c r="G33" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>文化传媒</t>
         </is>
       </c>
     </row>
@@ -16468,11 +17835,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>彩蝶实业</t>
+          <t>恒尚节能</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>603073</v>
+        <v>603137</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -16480,22 +17847,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>18.08</v>
+        <v>15.56</v>
       </c>
       <c r="F34" t="n">
-        <v>-4.04</v>
+        <v>-2.89</v>
       </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>1.96</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>纺织制造</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -16522,14 +17889,14 @@
         <v>17.23</v>
       </c>
       <c r="F35" t="n">
-        <v>-4.64</v>
+        <v>-3.95</v>
       </c>
       <c r="G35" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -16561,14 +17928,14 @@
         <v>4.54</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.76</v>
+        <v>-3.08</v>
       </c>
       <c r="G36" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -16585,11 +17952,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>金海高科</t>
+          <t>惠达卫浴</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>603311</v>
+        <v>603385</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -16597,22 +17964,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>11.95</v>
+        <v>6.95</v>
       </c>
       <c r="F37" t="n">
-        <v>-5.19</v>
+        <v>-2.45</v>
       </c>
       <c r="G37" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>白色家电</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -16624,11 +17991,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>惠达卫浴</t>
+          <t>宁水集团</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>603385</v>
+        <v>603700</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -16636,22 +18003,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6.95</v>
+        <v>12.53</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.15</v>
+        <v>-2.15</v>
       </c>
       <c r="G38" t="n">
-        <v>1.94</v>
+        <v>2.01</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -16663,11 +18030,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>宁水集团</t>
+          <t>*ST星农</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>603700</v>
+        <v>603789</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -16675,22 +18042,22 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>12.53</v>
+        <v>5.85</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.68</v>
+        <v>1.88</v>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>专用设备</t>
         </is>
       </c>
     </row>
@@ -16702,11 +18069,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>*ST星农</t>
+          <t>歌力思</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>603789</v>
+        <v>603808</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -16714,22 +18081,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5.85</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>2.05</v>
+        <v>-7.37</v>
       </c>
       <c r="G40" t="n">
-        <v>2.09</v>
+        <v>1.93</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>专用设备</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -16741,11 +18108,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>歌力思</t>
+          <t>威奥股份</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>603808</v>
+        <v>605001</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -16753,61 +18120,22 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>8.550000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="F41" t="n">
-        <v>-7.37</v>
+        <v>-1.82</v>
       </c>
       <c r="G41" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-08-27 16:14:00</t>
+          <t>2025-08-28 16:17:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>醋化股份</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>603968</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>12.92</v>
-      </c>
-      <c r="F42" t="n">
-        <v>-3.56</v>
-      </c>
-      <c r="G42" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2025-08-27 16:14:00</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>化学制品</t>
+          <t>轨交设备</t>
         </is>
       </c>
     </row>

--- a/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
@@ -7,17 +7,18 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -435,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,11 +511,11 @@
         <v>3.21</v>
       </c>
       <c r="F2" t="n">
-        <v>29.68</v>
+        <v>30.23</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -548,11 +549,11 @@
         <v>2.83</v>
       </c>
       <c r="F3" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -569,12 +570,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>建研院</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>002969</t>
+          <t>603183</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -583,19 +584,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3.59</v>
+        <v>4.54</v>
       </c>
       <c r="F4" t="n">
         <v>1.98</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>包装印刷</t>
+          <t>其他社会服务</t>
         </is>
       </c>
     </row>
@@ -607,12 +608,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>建研院</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>603183</t>
+          <t>002687</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -621,19 +622,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.54</v>
+        <v>4.6</v>
       </c>
       <c r="F5" t="n">
-        <v>1.98</v>
+        <v>1.52</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>其他社会服务</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -645,12 +646,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>苏能股份</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>002687</t>
+          <t>600925</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -659,19 +660,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4.6</v>
+        <v>4.95</v>
       </c>
       <c r="F6" t="n">
-        <v>1.52</v>
+        <v>0.85</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>煤炭开采加工</t>
         </is>
       </c>
     </row>
@@ -683,12 +684,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>600791</t>
+          <t>002494</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -697,19 +698,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4.65</v>
+        <v>5.05</v>
       </c>
       <c r="F7" t="n">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -721,12 +722,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>苏能股份</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>600925</t>
+          <t>002360</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -735,19 +736,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.95</v>
+        <v>5.18</v>
       </c>
       <c r="F8" t="n">
-        <v>0.86</v>
+        <v>0.01</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>煤炭开采加工</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -759,12 +760,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>福建水泥</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>002360</t>
+          <t>600802</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -773,19 +774,19 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5.18</v>
+        <v>5.43</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0.73</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>建筑材料</t>
         </is>
       </c>
     </row>
@@ -797,12 +798,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>湖南投资</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>000548</t>
+          <t>600493</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -811,19 +812,19 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5.46</v>
+        <v>6.5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.75</v>
+        <v>1.99</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>公路铁路运输</t>
+          <t>纺织制造</t>
         </is>
       </c>
     </row>
@@ -835,12 +836,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>恒大高新</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>002591</t>
+          <t>000952</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -849,19 +850,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5.84</v>
+        <v>6.55</v>
       </c>
       <c r="F11" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -873,12 +874,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>凤竹纺织</t>
+          <t>双箭股份</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>600493</t>
+          <t>002381</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -887,19 +888,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6.5</v>
+        <v>6.84</v>
       </c>
       <c r="F12" t="n">
-        <v>2.01</v>
+        <v>1.66</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>纺织制造</t>
+          <t>橡胶制品</t>
         </is>
       </c>
     </row>
@@ -911,12 +912,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>民丰特纸</t>
+          <t>永东股份</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>600235</t>
+          <t>002753</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -925,19 +926,19 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6.52</v>
+        <v>7.13</v>
       </c>
       <c r="F13" t="n">
-        <v>1.9</v>
+        <v>1.08</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>造纸</t>
+          <t>橡胶制品</t>
         </is>
       </c>
     </row>
@@ -949,12 +950,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>金花股份</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>000952</t>
+          <t>600080</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -963,19 +964,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6.55</v>
+        <v>7.22</v>
       </c>
       <c r="F14" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>中药</t>
         </is>
       </c>
     </row>
@@ -987,12 +988,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>德美化工</t>
+          <t>黄山胶囊</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>002054</t>
+          <t>002817</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1001,19 +1002,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6.63</v>
+        <v>7.67</v>
       </c>
       <c r="F15" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>医疗器械</t>
         </is>
       </c>
     </row>
@@ -1025,12 +1026,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>瑞尔特</t>
+          <t>优彩资源</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>002790</t>
+          <t>002998</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1039,19 +1040,19 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7.33</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>1.03</v>
+        <v>2</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>化学纤维</t>
         </is>
       </c>
     </row>
@@ -1063,12 +1064,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>威奥股份</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>605001</t>
+          <t>001322</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1077,19 +1078,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7.7</v>
+        <v>8.73</v>
       </c>
       <c r="F17" t="n">
-        <v>0.99</v>
+        <v>1.96</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>轨交设备</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -1101,12 +1102,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>三峰环境</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>601827</t>
+          <t>002836</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1115,19 +1116,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>8.66</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>1.99</v>
+        <v>1.95</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -1139,12 +1140,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>上海雅仕</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>001322</t>
+          <t>603329</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1153,19 +1154,19 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>8.73</v>
+        <v>11.37</v>
       </c>
       <c r="F19" t="n">
-        <v>1.98</v>
+        <v>1.66</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>物流</t>
         </is>
       </c>
     </row>
@@ -1194,11 +1195,11 @@
         <v>11.74</v>
       </c>
       <c r="F20" t="n">
-        <v>2.01</v>
+        <v>0.38</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1215,12 +1216,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>宁波富邦</t>
+          <t>醋化股份</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>600768</t>
+          <t>603968</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1229,19 +1230,19 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>12.16</v>
+        <v>12.48</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -1253,12 +1254,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>001299</t>
+          <t>001366</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1267,19 +1268,19 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>12.23</v>
+        <v>13.62</v>
       </c>
       <c r="F22" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>燃气</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1292,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>雪祺电气</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>001366</t>
+          <t>001387</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1305,19 +1306,19 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>13.62</v>
+        <v>13.77</v>
       </c>
       <c r="F23" t="n">
-        <v>1.95</v>
+        <v>1.76</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>农产品加工</t>
+          <t>白色家电</t>
         </is>
       </c>
     </row>
@@ -1329,12 +1330,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>雪祺电气</t>
+          <t>恒尚节能</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>603137</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1343,19 +1344,19 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>13.77</v>
+        <v>14.74</v>
       </c>
       <c r="F24" t="n">
-        <v>1.77</v>
+        <v>1.91</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>白色家电</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -1367,12 +1368,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>恒尚节能</t>
+          <t>金房能源</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>603137</t>
+          <t>001210</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1381,19 +1382,19 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>14.74</v>
+        <v>14.92</v>
       </c>
       <c r="F25" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>电力</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1406,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>金房能源</t>
+          <t>名雕股份</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>001210</t>
+          <t>002830</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1419,19 +1420,19 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>14.92</v>
+        <v>16.95</v>
       </c>
       <c r="F26" t="n">
-        <v>1.97</v>
+        <v>0.41</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>电力</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -1443,12 +1444,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>名雕股份</t>
+          <t>彩蝶实业</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>002830</t>
+          <t>603073</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1457,19 +1458,19 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>16.95</v>
+        <v>17.15</v>
       </c>
       <c r="F27" t="n">
-        <v>0.42</v>
+        <v>0.09</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>纺织制造</t>
         </is>
       </c>
     </row>
@@ -1481,12 +1482,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>彩蝶实业</t>
+          <t>万丰股份</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>603073</t>
+          <t>603172</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1495,19 +1496,19 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>17.15</v>
+        <v>17.23</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09</v>
+        <v>2.03</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>纺织制造</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -1519,12 +1520,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>一彬科技</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>603172</t>
+          <t>001278</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1533,19 +1534,19 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>17.23</v>
+        <v>18.71</v>
       </c>
       <c r="F29" t="n">
-        <v>2.05</v>
+        <v>0.75</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
@@ -1557,12 +1558,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>一彬科技</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>001278</t>
+          <t>001231</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1571,19 +1572,19 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>18.71</v>
+        <v>21.11</v>
       </c>
       <c r="F30" t="n">
         <v>2</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>汽车零部件</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -1595,12 +1596,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>001231</t>
+          <t>001333</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1609,19 +1610,19 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>21.11</v>
+        <v>22.69</v>
       </c>
       <c r="F31" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -1633,12 +1634,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>开普检测</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>003008</t>
+          <t>001336</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1647,19 +1648,19 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>21.96</v>
+        <v>23.16</v>
       </c>
       <c r="F32" t="n">
-        <v>1.15</v>
+        <v>1.97</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>其他社会服务</t>
+          <t>环保设备</t>
         </is>
       </c>
     </row>
@@ -1671,12 +1672,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>劲旅环境</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>001333</t>
+          <t>001230</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1685,19 +1686,19 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>22.69</v>
+        <v>23.61</v>
       </c>
       <c r="F33" t="n">
-        <v>1.95</v>
+        <v>1.11</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -1726,92 +1727,16 @@
         <v>25.22</v>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>0.49</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-11</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
           <t>小家电</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>菲林格尔</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>603226</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>26.58</v>
-      </c>
-      <c r="F35" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>2025-09-10</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>浙江东日</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>600113</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>61</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>2025-09-10</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>零售</t>
         </is>
       </c>
     </row>
@@ -1821,6 +1746,1632 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>盈亏比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>548</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>公路铁路运输</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>952</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-5.29</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1231</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-3.36</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1259</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>小家电</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>汽车零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1299</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1322</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1333</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-7.18</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>塑料制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1336</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-5.19</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>环保设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1366</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-7.34</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>农产品加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>中天服务</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2188</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-8.25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2200</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2360</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2494</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2513</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-8.039999999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ST瑞和</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2620</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2687</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2748</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>化学原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2753</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2790</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-2.72</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2817</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-5.09</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>医疗器械</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2968</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2969</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>600113</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>600159</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>600235</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>造纸</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>600791</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-4.93</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>600796</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>博闻科技</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>600883</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-3.89</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>种植业与林业</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>601616</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-3.58</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>电网设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>601827</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>出版传媒</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>601999</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>文化传媒</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>603137</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>603172</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>603183</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>其他社会服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>603385</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-2.45</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>宁水集团</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>603700</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>*ST星农</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>603789</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>603808</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-7.37</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>605001</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>轨交设备</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3485,7 +5036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6152,6 +7703,1327 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>785</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="F2" t="n">
+        <v>29.68</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>600159</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2969</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>603183</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>其他社会服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2687</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>600791</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>苏能股份</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>600925</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>煤炭开采加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2360</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>548</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>公路铁路运输</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>恒大高新</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2591</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>凤竹纺织</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>600493</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>纺织制造</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>600235</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>造纸</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>952</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>德美化工</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2054</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2790</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>605001</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>轨交设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>601827</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1322</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>金富科技</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3018</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>宁波富邦</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>600768</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>12.16</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>电网设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1299</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="F22" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1366</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>农产品加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>雪祺电气</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1387</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>白色家电</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>603137</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>金房能源</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1210</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>电力</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2830</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>彩蝶实业</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>603073</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>纺织制造</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>603172</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="F29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>一彬科技</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1278</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>汽车零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1231</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="F31" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>开普检测</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3008</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>其他社会服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1333</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>塑料制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1259</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="F34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>小家电</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>菲林格尔</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>603226</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>26.58</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>600113</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>61</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7359,7 +10231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8788,7 +11660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10453,7 +13325,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11962,7 +14834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13355,7 +16227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14884,1632 +17756,6 @@
       <c r="H42" t="inlineStr">
         <is>
           <t>食品加工制造</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>盈亏比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>行业</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>548</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-2.68</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>公路铁路运输</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>三木集团</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>632</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-1.02</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>综合</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>茂化实华</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>637</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>石油加工贸易</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>广济药业</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>952</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-6.15</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>化学制药</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>双枪科技</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1211</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>农心科技</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1231</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-3.27</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>农化制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>坤泰股份</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1260</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>汽车零部件</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>美能能源</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1299</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>燃气</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>箭牌家居</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1322</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-2.18</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>光华股份</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1333</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-6.92</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>塑料制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>楚环科技</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1336</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>23.32</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-6.56</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>环保设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>播恩集团</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1366</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-9.029999999999999</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>农产品加工</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>德冠新材</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1378</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>22.78</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>塑料制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>中天服务</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2188</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-9.93</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>*ST交投</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>2200</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>建筑装饰</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>同德化工</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>2360</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-3.38</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>2494</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-6.43</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>蓝丰生化</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>2513</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-8.93</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>农化制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>恒大高新</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>2591</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>乔治白</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>2687</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>2817</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-7.2</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>医疗器械</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>2836</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>新大正</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>2968</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-2.28</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>2969</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-2.51</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>大龙地产</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>600159</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-2.47</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>民丰特纸</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>600235</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>造纸</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>凤竹纺织</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>600493</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>纺织制造</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>宁波富邦</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>600768</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>电网设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>京能置业</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>600791</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-5.52</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>600796</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-1.52</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>广电电气</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>601616</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-5.12</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>电网设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>601827</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F33" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>603172</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-6.67</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>嘉华股份</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>603182</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>农产品加工</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>建研院</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>603183</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F36" t="n">
-        <v>-4.41</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>其他社会服务</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>金海高科</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>603311</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="F37" t="n">
-        <v>-1.51</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>白色家电</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>惠达卫浴</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>603385</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="F38" t="n">
-        <v>-3.17</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>*ST星农</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>603789</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>专用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>歌力思</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>603808</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F40" t="n">
-        <v>-5.73</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>威奥股份</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>605001</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F41" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>轨交设备</t>
         </is>
       </c>
     </row>
@@ -16602,14 +17848,14 @@
         <v>5.59</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.15</v>
+        <v>-2.68</v>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -16626,11 +17872,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>三木集团</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>952</v>
+        <v>632</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -16638,22 +17884,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.99</v>
+        <v>3.93</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.29</v>
+        <v>-1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>综合</t>
         </is>
       </c>
     </row>
@@ -16665,11 +17911,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>茂化实华</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1231</v>
+        <v>637</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -16677,22 +17923,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.11</v>
+        <v>4.21</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.36</v>
+        <v>-0.95</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>石油加工贸易</t>
         </is>
       </c>
     </row>
@@ -16704,11 +17950,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>利仁科技</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1259</v>
+        <v>952</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -16716,22 +17962,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.82</v>
+        <v>6.99</v>
       </c>
       <c r="F5" t="n">
-        <v>0.31</v>
+        <v>-6.15</v>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>小家电</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -16743,11 +17989,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>坤泰股份</t>
+          <t>双枪科技</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1260</v>
+        <v>1211</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -16755,22 +18001,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.18</v>
+        <v>24.8</v>
       </c>
       <c r="F6" t="n">
-        <v>9.19</v>
+        <v>0.44</v>
       </c>
       <c r="G6" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>汽车零部件</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -16782,11 +18028,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1299</v>
+        <v>1231</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -16794,22 +18040,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12.23</v>
+        <v>21.11</v>
       </c>
       <c r="F7" t="n">
-        <v>1.39</v>
+        <v>-3.27</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>燃气</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -16821,11 +18067,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>坤泰股份</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1322</v>
+        <v>1260</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -16833,22 +18079,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.73</v>
+        <v>18.18</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.03</v>
+        <v>10.56</v>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
@@ -16860,11 +18106,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1333</v>
+        <v>1299</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -16872,22 +18118,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.69</v>
+        <v>12.23</v>
       </c>
       <c r="F9" t="n">
-        <v>-7.18</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>燃气</t>
         </is>
       </c>
     </row>
@@ -16899,11 +18145,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1336</v>
+        <v>1322</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -16911,22 +18157,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.32</v>
+        <v>8.73</v>
       </c>
       <c r="F10" t="n">
-        <v>-5.19</v>
+        <v>-2.18</v>
       </c>
       <c r="G10" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>环保设备</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -16938,11 +18184,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1366</v>
+        <v>1333</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -16950,22 +18196,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13.62</v>
+        <v>22.69</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.34</v>
+        <v>-6.92</v>
       </c>
       <c r="G11" t="n">
         <v>1.97</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>农产品加工</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -16977,11 +18223,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>中天服务</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2188</v>
+        <v>1336</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -16989,22 +18235,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5.94</v>
+        <v>23.32</v>
       </c>
       <c r="F12" t="n">
-        <v>-8.25</v>
+        <v>-6.56</v>
       </c>
       <c r="G12" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>环保设备</t>
         </is>
       </c>
     </row>
@@ -17016,11 +18262,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>*ST交投</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2200</v>
+        <v>1366</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -17028,22 +18274,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7.22</v>
+        <v>13.62</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-9.029999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.57</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -17055,11 +18301,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>德冠新材</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2360</v>
+        <v>1378</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -17067,22 +18313,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.32</v>
+        <v>22.78</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.32</v>
+        <v>-1.01</v>
       </c>
       <c r="G14" t="n">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -17094,11 +18340,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>中天服务</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2494</v>
+        <v>2188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -17106,22 +18352,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.13</v>
+        <v>5.94</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.7</v>
+        <v>-9.93</v>
       </c>
       <c r="G15" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -17133,11 +18379,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>蓝丰生化</t>
+          <t>*ST交投</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2513</v>
+        <v>2200</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -17145,22 +18391,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5.6</v>
+        <v>7.22</v>
       </c>
       <c r="F16" t="n">
-        <v>-8.039999999999999</v>
+        <v>-1.11</v>
       </c>
       <c r="G16" t="n">
-        <v>1.92</v>
+        <v>0.57</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -17172,11 +18418,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ST瑞和</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2620</v>
+        <v>2360</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -17184,22 +18430,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.16</v>
+        <v>5.32</v>
       </c>
       <c r="F17" t="n">
-        <v>2.71</v>
+        <v>-3.38</v>
       </c>
       <c r="G17" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -17211,11 +18457,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2687</v>
+        <v>2494</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -17223,17 +18469,17 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.6</v>
+        <v>5.13</v>
       </c>
       <c r="F18" t="n">
-        <v>0.43</v>
+        <v>-6.43</v>
       </c>
       <c r="G18" t="n">
-        <v>1.54</v>
+        <v>1.88</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -17250,11 +18496,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>世龙实业</t>
+          <t>蓝丰生化</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2748</v>
+        <v>2513</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -17262,22 +18508,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9.51</v>
+        <v>5.6</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.05</v>
+        <v>-8.93</v>
       </c>
       <c r="G19" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>化学原料</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -17289,11 +18535,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>永东股份</t>
+          <t>恒大高新</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2753</v>
+        <v>2591</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -17301,22 +18547,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.25</v>
+        <v>5.88</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.21</v>
+        <v>-0.51</v>
       </c>
       <c r="G20" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>橡胶制品</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -17328,11 +18574,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>瑞尔特</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2790</v>
+        <v>2687</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -17340,22 +18586,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>7.71</v>
+        <v>4.6</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.72</v>
+        <v>-1.3</v>
       </c>
       <c r="G21" t="n">
-        <v>2.01</v>
+        <v>1.53</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -17382,14 +18628,14 @@
         <v>8.06</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.09</v>
+        <v>-7.2</v>
       </c>
       <c r="G22" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -17406,11 +18652,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>新大正</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2968</v>
+        <v>2836</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -17418,22 +18664,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.95</v>
+        <v>9.26</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.37</v>
+        <v>0.43</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -17445,11 +18691,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>新大正</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -17457,22 +18703,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.59</v>
+        <v>10.95</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.51</v>
+        <v>-2.28</v>
       </c>
       <c r="G24" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>包装印刷</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -17484,11 +18730,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>600113</v>
+        <v>2969</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -17496,22 +18742,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>58.6</v>
+        <v>3.59</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.62</v>
+        <v>-2.51</v>
       </c>
       <c r="G25" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>零售</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -17538,14 +18784,14 @@
         <v>2.83</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.71</v>
+        <v>-2.47</v>
       </c>
       <c r="G26" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -17577,14 +18823,14 @@
         <v>6.38</v>
       </c>
       <c r="F27" t="n">
-        <v>1.1</v>
+        <v>2.35</v>
       </c>
       <c r="G27" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -17601,11 +18847,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>600791</v>
+        <v>600493</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -17613,22 +18859,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.07</v>
+        <v>6.5</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.93</v>
+        <v>0.62</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2.01</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>纺织制造</t>
         </is>
       </c>
     </row>
@@ -17640,11 +18886,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>宁波富邦</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>600796</v>
+        <v>600768</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -17652,22 +18898,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.91</v>
+        <v>12.16</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.68</v>
+        <v>0.9</v>
       </c>
       <c r="G29" t="n">
-        <v>1.71</v>
+        <v>2.01</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -17679,11 +18925,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>博闻科技</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>600883</v>
+        <v>600791</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -17691,22 +18937,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8.220000000000001</v>
+        <v>5.07</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.89</v>
+        <v>-5.52</v>
       </c>
       <c r="G30" t="n">
-        <v>1.97</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>种植业与林业</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -17718,11 +18964,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>广电电气</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>601616</v>
+        <v>600796</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -17730,22 +18976,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.91</v>
+        <v>5.91</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.58</v>
+        <v>-1.52</v>
       </c>
       <c r="G31" t="n">
-        <v>1.23</v>
+        <v>1.71</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -17757,11 +19003,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>三峰环境</t>
+          <t>广电电气</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>601827</v>
+        <v>601616</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -17769,22 +19015,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>8.550000000000001</v>
+        <v>3.91</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.47</v>
+        <v>-5.12</v>
       </c>
       <c r="G32" t="n">
-        <v>2.07</v>
+        <v>1.22</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -17796,11 +19042,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>出版传媒</t>
+          <t>三峰环境</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>601999</v>
+        <v>601827</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -17808,22 +19054,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>7.22</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.39</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>文化传媒</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -17835,11 +19081,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>恒尚节能</t>
+          <t>万丰股份</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>603137</v>
+        <v>603172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -17847,22 +19093,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>15.56</v>
+        <v>17.23</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.89</v>
+        <v>-6.67</v>
       </c>
       <c r="G34" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -17874,11 +19120,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>嘉华股份</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>603172</v>
+        <v>603182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -17886,22 +19132,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>17.23</v>
+        <v>13.85</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.95</v>
+        <v>0.72</v>
       </c>
       <c r="G35" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -17928,14 +19174,14 @@
         <v>4.54</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.08</v>
+        <v>-4.41</v>
       </c>
       <c r="G36" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -17952,11 +19198,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>惠达卫浴</t>
+          <t>金海高科</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>603385</v>
+        <v>603311</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -17964,22 +19210,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6.95</v>
+        <v>11.25</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.45</v>
+        <v>-1.51</v>
       </c>
       <c r="G37" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>白色家电</t>
         </is>
       </c>
     </row>
@@ -17991,11 +19237,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>宁水集团</t>
+          <t>惠达卫浴</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>603700</v>
+        <v>603385</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -18003,22 +19249,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>12.53</v>
+        <v>6.95</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.15</v>
+        <v>-3.17</v>
       </c>
       <c r="G38" t="n">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -18045,14 +19291,14 @@
         <v>5.85</v>
       </c>
       <c r="F39" t="n">
-        <v>1.88</v>
+        <v>2.91</v>
       </c>
       <c r="G39" t="n">
-        <v>2.11</v>
+        <v>0.55</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -18084,14 +19330,14 @@
         <v>8.550000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>-7.37</v>
+        <v>-5.73</v>
       </c>
       <c r="G40" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -18123,14 +19369,14 @@
         <v>7.7</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.82</v>
+        <v>-2.6</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">

--- a/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
@@ -7,18 +7,19 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -515,7 +516,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -553,7 +554,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -591,7 +592,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -629,7 +630,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -667,7 +668,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -705,7 +706,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -743,7 +744,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -781,7 +782,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -819,7 +820,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -857,7 +858,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -895,7 +896,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -933,7 +934,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -971,7 +972,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1009,7 +1010,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1047,7 +1048,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1085,7 +1086,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1123,7 +1124,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1161,7 +1162,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1199,7 +1200,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1237,7 +1238,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1275,7 +1276,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1313,7 +1314,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1351,7 +1352,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1389,7 +1390,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1427,7 +1428,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1465,7 +1466,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1503,7 +1504,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1541,7 +1542,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1579,7 +1580,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1617,7 +1618,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1655,7 +1656,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1693,7 +1694,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1731,7 +1732,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1829,14 +1830,14 @@
         <v>5.59</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.15</v>
+        <v>-2.68</v>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -1853,11 +1854,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>三木集团</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>952</v>
+        <v>632</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -1865,22 +1866,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.99</v>
+        <v>3.93</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.29</v>
+        <v>-1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>综合</t>
         </is>
       </c>
     </row>
@@ -1892,11 +1893,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>茂化实华</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1231</v>
+        <v>637</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1904,22 +1905,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.11</v>
+        <v>4.21</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.36</v>
+        <v>-0.95</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>石油加工贸易</t>
         </is>
       </c>
     </row>
@@ -1931,11 +1932,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>利仁科技</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1259</v>
+        <v>952</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1943,22 +1944,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.82</v>
+        <v>6.99</v>
       </c>
       <c r="F5" t="n">
-        <v>0.31</v>
+        <v>-6.15</v>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>小家电</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -1970,11 +1971,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>坤泰股份</t>
+          <t>双枪科技</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1260</v>
+        <v>1211</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1982,22 +1983,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.18</v>
+        <v>24.8</v>
       </c>
       <c r="F6" t="n">
-        <v>9.19</v>
+        <v>0.44</v>
       </c>
       <c r="G6" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>汽车零部件</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -2009,11 +2010,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1299</v>
+        <v>1231</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -2021,22 +2022,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12.23</v>
+        <v>21.11</v>
       </c>
       <c r="F7" t="n">
-        <v>1.39</v>
+        <v>-3.27</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>燃气</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -2048,11 +2049,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>坤泰股份</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1322</v>
+        <v>1260</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -2060,22 +2061,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.73</v>
+        <v>18.18</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.03</v>
+        <v>10.56</v>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
@@ -2087,11 +2088,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1333</v>
+        <v>1299</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -2099,22 +2100,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.69</v>
+        <v>12.23</v>
       </c>
       <c r="F9" t="n">
-        <v>-7.18</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>燃气</t>
         </is>
       </c>
     </row>
@@ -2126,11 +2127,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1336</v>
+        <v>1322</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -2138,22 +2139,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.32</v>
+        <v>8.73</v>
       </c>
       <c r="F10" t="n">
-        <v>-5.19</v>
+        <v>-2.18</v>
       </c>
       <c r="G10" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>环保设备</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -2165,11 +2166,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1366</v>
+        <v>1333</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -2177,22 +2178,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13.62</v>
+        <v>22.69</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.34</v>
+        <v>-6.92</v>
       </c>
       <c r="G11" t="n">
         <v>1.97</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>农产品加工</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -2204,11 +2205,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>中天服务</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2188</v>
+        <v>1336</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2216,22 +2217,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5.94</v>
+        <v>23.32</v>
       </c>
       <c r="F12" t="n">
-        <v>-8.25</v>
+        <v>-6.56</v>
       </c>
       <c r="G12" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>环保设备</t>
         </is>
       </c>
     </row>
@@ -2243,11 +2244,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>*ST交投</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2200</v>
+        <v>1366</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2255,22 +2256,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7.22</v>
+        <v>13.62</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-9.029999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.57</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -2282,11 +2283,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>德冠新材</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2360</v>
+        <v>1378</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2294,22 +2295,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.32</v>
+        <v>22.78</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.32</v>
+        <v>-1.01</v>
       </c>
       <c r="G14" t="n">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -2321,11 +2322,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>中天服务</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2494</v>
+        <v>2188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2333,22 +2334,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.13</v>
+        <v>5.94</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.7</v>
+        <v>-9.93</v>
       </c>
       <c r="G15" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -2360,11 +2361,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>蓝丰生化</t>
+          <t>*ST交投</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2513</v>
+        <v>2200</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2372,22 +2373,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5.6</v>
+        <v>7.22</v>
       </c>
       <c r="F16" t="n">
-        <v>-8.039999999999999</v>
+        <v>-1.11</v>
       </c>
       <c r="G16" t="n">
-        <v>1.92</v>
+        <v>0.57</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -2399,11 +2400,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ST瑞和</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2620</v>
+        <v>2360</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2411,22 +2412,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.16</v>
+        <v>5.32</v>
       </c>
       <c r="F17" t="n">
-        <v>2.71</v>
+        <v>-3.38</v>
       </c>
       <c r="G17" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -2438,11 +2439,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2687</v>
+        <v>2494</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2450,17 +2451,17 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.6</v>
+        <v>5.13</v>
       </c>
       <c r="F18" t="n">
-        <v>0.43</v>
+        <v>-6.43</v>
       </c>
       <c r="G18" t="n">
-        <v>1.54</v>
+        <v>1.88</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2477,11 +2478,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>世龙实业</t>
+          <t>蓝丰生化</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2748</v>
+        <v>2513</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2489,22 +2490,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9.51</v>
+        <v>5.6</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.05</v>
+        <v>-8.93</v>
       </c>
       <c r="G19" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>化学原料</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -2516,11 +2517,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>永东股份</t>
+          <t>恒大高新</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2753</v>
+        <v>2591</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2528,22 +2529,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.25</v>
+        <v>5.88</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.21</v>
+        <v>-0.51</v>
       </c>
       <c r="G20" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>橡胶制品</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -2555,11 +2556,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>瑞尔特</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2790</v>
+        <v>2687</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2567,22 +2568,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>7.71</v>
+        <v>4.6</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.72</v>
+        <v>-1.3</v>
       </c>
       <c r="G21" t="n">
-        <v>2.01</v>
+        <v>1.53</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -2609,14 +2610,14 @@
         <v>8.06</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.09</v>
+        <v>-7.2</v>
       </c>
       <c r="G22" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2633,11 +2634,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>新大正</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2968</v>
+        <v>2836</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2645,22 +2646,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.95</v>
+        <v>9.26</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.37</v>
+        <v>0.43</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -2672,11 +2673,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>新大正</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2684,22 +2685,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.59</v>
+        <v>10.95</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.51</v>
+        <v>-2.28</v>
       </c>
       <c r="G24" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>包装印刷</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -2711,11 +2712,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>600113</v>
+        <v>2969</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2723,22 +2724,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>58.6</v>
+        <v>3.59</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.62</v>
+        <v>-2.51</v>
       </c>
       <c r="G25" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>零售</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -2765,14 +2766,14 @@
         <v>2.83</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.71</v>
+        <v>-2.47</v>
       </c>
       <c r="G26" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2804,14 +2805,14 @@
         <v>6.38</v>
       </c>
       <c r="F27" t="n">
-        <v>1.1</v>
+        <v>2.35</v>
       </c>
       <c r="G27" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2828,11 +2829,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>600791</v>
+        <v>600493</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2840,22 +2841,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.07</v>
+        <v>6.5</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.93</v>
+        <v>0.62</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2.01</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>纺织制造</t>
         </is>
       </c>
     </row>
@@ -2867,11 +2868,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>宁波富邦</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>600796</v>
+        <v>600768</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2879,22 +2880,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.91</v>
+        <v>12.16</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.68</v>
+        <v>0.9</v>
       </c>
       <c r="G29" t="n">
-        <v>1.71</v>
+        <v>2.01</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -2906,11 +2907,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>博闻科技</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>600883</v>
+        <v>600791</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2918,22 +2919,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8.220000000000001</v>
+        <v>5.07</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.89</v>
+        <v>-5.52</v>
       </c>
       <c r="G30" t="n">
-        <v>1.97</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>种植业与林业</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -2945,11 +2946,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>广电电气</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>601616</v>
+        <v>600796</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2957,22 +2958,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.91</v>
+        <v>5.91</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.58</v>
+        <v>-1.52</v>
       </c>
       <c r="G31" t="n">
-        <v>1.23</v>
+        <v>1.71</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -2984,11 +2985,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>三峰环境</t>
+          <t>广电电气</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>601827</v>
+        <v>601616</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2996,22 +2997,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>8.550000000000001</v>
+        <v>3.91</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.47</v>
+        <v>-5.12</v>
       </c>
       <c r="G32" t="n">
-        <v>2.07</v>
+        <v>1.22</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -3023,11 +3024,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>出版传媒</t>
+          <t>三峰环境</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>601999</v>
+        <v>601827</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3035,22 +3036,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>7.22</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.39</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>文化传媒</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -3062,11 +3063,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>恒尚节能</t>
+          <t>万丰股份</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>603137</v>
+        <v>603172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3074,22 +3075,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>15.56</v>
+        <v>17.23</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.89</v>
+        <v>-6.67</v>
       </c>
       <c r="G34" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -3101,11 +3102,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>嘉华股份</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>603172</v>
+        <v>603182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3113,22 +3114,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>17.23</v>
+        <v>13.85</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.95</v>
+        <v>0.72</v>
       </c>
       <c r="G35" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -3155,14 +3156,14 @@
         <v>4.54</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.08</v>
+        <v>-4.41</v>
       </c>
       <c r="G36" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -3179,11 +3180,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>惠达卫浴</t>
+          <t>金海高科</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>603385</v>
+        <v>603311</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3191,22 +3192,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6.95</v>
+        <v>11.25</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.45</v>
+        <v>-1.51</v>
       </c>
       <c r="G37" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>白色家电</t>
         </is>
       </c>
     </row>
@@ -3218,11 +3219,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>宁水集团</t>
+          <t>惠达卫浴</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>603700</v>
+        <v>603385</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3230,22 +3231,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>12.53</v>
+        <v>6.95</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.15</v>
+        <v>-3.17</v>
       </c>
       <c r="G38" t="n">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -3272,14 +3273,14 @@
         <v>5.85</v>
       </c>
       <c r="F39" t="n">
-        <v>1.88</v>
+        <v>2.91</v>
       </c>
       <c r="G39" t="n">
-        <v>2.11</v>
+        <v>0.55</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3311,14 +3312,14 @@
         <v>8.550000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>-7.37</v>
+        <v>-5.73</v>
       </c>
       <c r="G40" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3350,14 +3351,14 @@
         <v>7.7</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.82</v>
+        <v>-2.6</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3372,6 +3373,1632 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>盈亏比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>548</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>公路铁路运输</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>952</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-5.29</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1231</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-3.36</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1259</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>小家电</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>汽车零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1299</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1322</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1333</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-7.18</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>塑料制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1336</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-5.19</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>环保设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1366</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-7.34</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>农产品加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>中天服务</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2188</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-8.25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2200</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2360</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2494</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2513</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-8.039999999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ST瑞和</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2620</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2687</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2748</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>化学原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2753</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2790</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-2.72</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2817</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-5.09</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>医疗器械</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2968</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2969</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>600113</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>600159</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>600235</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>造纸</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>600791</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-4.93</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>600796</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>博闻科技</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>600883</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-3.89</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>种植业与林业</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>601616</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-3.58</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>电网设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>601827</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>出版传媒</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>601999</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>文化传媒</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>603137</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>603172</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>603183</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>其他社会服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>603385</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-2.45</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>宁水集团</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>603700</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>*ST星农</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>603789</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>603808</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-7.37</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>605001</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>轨交设备</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5036,7 +6663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7703,6 +9330,1255 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>785</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="F2" t="n">
+        <v>30.23</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>600159</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>603183</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>其他社会服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2687</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>苏能股份</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>600925</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>煤炭开采加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2494</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2360</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>福建水泥</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>600802</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>建筑材料</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>凤竹纺织</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>600493</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>纺织制造</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>952</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2753</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>金花股份</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>600080</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>中药</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2817</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>医疗器械</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>优彩资源</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>化学纤维</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1322</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2836</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>上海雅仕</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>603329</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>物流</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>金富科技</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3018</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>603968</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1366</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>农产品加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>雪祺电气</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1387</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>白色家电</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>603137</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>金房能源</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1210</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>电力</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2830</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>彩蝶实业</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>603073</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>纺织制造</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>603172</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>一彬科技</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1278</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>汽车零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1231</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1333</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>塑料制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1336</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>环保设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>劲旅环境</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1230</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>23.61</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1259</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>小家电</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9018,7 +11894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10231,7 +13107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11660,7 +14536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13325,7 +16201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14834,7 +17710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16227,7 +19103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17762,1630 +20638,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>盈亏比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>行业</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>湖南投资</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>548</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-2.68</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>公路铁路运输</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>三木集团</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>632</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="F3" t="n">
-        <v>-1.02</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>综合</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>茂化实华</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>637</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>石油加工贸易</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>广济药业</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>952</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-6.15</v>
-      </c>
-      <c r="G5" t="n">
-        <v>2</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>化学制药</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>双枪科技</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1211</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>农心科技</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1231</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="F7" t="n">
-        <v>-3.27</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>农化制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>坤泰股份</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1260</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="F8" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>汽车零部件</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>美能能源</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1299</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>燃气</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>箭牌家居</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1322</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-2.18</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>光华股份</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1333</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-6.92</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>塑料制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>楚环科技</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1336</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>23.32</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-6.56</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>环保设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>播恩集团</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1366</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-9.029999999999999</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>农产品加工</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>德冠新材</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1378</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>22.78</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>塑料制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>中天服务</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2188</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-9.93</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>*ST交投</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>2200</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>建筑装饰</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>同德化工</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>2360</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-3.38</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>2494</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-6.43</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>蓝丰生化</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>2513</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-8.93</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>农化制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>恒大高新</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>2591</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>5.88</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>乔治白</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>2687</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>2817</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-7.2</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>医疗器械</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>2836</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>新大正</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>2968</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-2.28</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>2969</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-2.51</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>大龙地产</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>600159</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="F26" t="n">
-        <v>-2.47</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>民丰特纸</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>600235</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>6.38</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>造纸</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>凤竹纺织</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>600493</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>纺织制造</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>宁波富邦</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>600768</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>电网设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>京能置业</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>600791</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F30" t="n">
-        <v>-5.52</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>600796</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="F31" t="n">
-        <v>-1.52</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>广电电气</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>601616</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="F32" t="n">
-        <v>-5.12</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>电网设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>三峰环境</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>601827</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F33" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>603172</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="F34" t="n">
-        <v>-6.67</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>嘉华股份</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>603182</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>农产品加工</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>建研院</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>603183</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F36" t="n">
-        <v>-4.41</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>其他社会服务</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>金海高科</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>603311</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="F37" t="n">
-        <v>-1.51</v>
-      </c>
-      <c r="G37" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>白色家电</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>惠达卫浴</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>603385</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="F38" t="n">
-        <v>-3.17</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>*ST星农</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>603789</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>专用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>歌力思</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>603808</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F40" t="n">
-        <v>-5.73</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>威奥股份</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>605001</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F41" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>轨交设备</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
+++ b/Investment/THS/AutoTrade/data/position/Strategy_position.xlsx
@@ -7,19 +7,20 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-15" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-12" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-11" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-10" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-09" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-08" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-05" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-04" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-03" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-02" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-09-01" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-29" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-28" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08-27" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -512,11 +513,11 @@
         <v>3.21</v>
       </c>
       <c r="F2" t="n">
-        <v>30.23</v>
+        <v>29.61</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -528,17 +529,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>大龙地产</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>600159</t>
+          <t>603322</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -547,19 +548,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2.83</v>
+        <v>39.71</v>
       </c>
       <c r="F3" t="n">
-        <v>2.04</v>
+        <v>31.89</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>IT服务</t>
         </is>
       </c>
     </row>
@@ -571,12 +572,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>建研院</t>
+          <t>大龙地产</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>603183</t>
+          <t>600159</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -585,19 +586,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.54</v>
+        <v>2.83</v>
       </c>
       <c r="F4" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>其他社会服务</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -609,12 +610,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>建研院</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>002687</t>
+          <t>603183</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -623,19 +624,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.6</v>
+        <v>4.54</v>
       </c>
       <c r="F5" t="n">
-        <v>1.52</v>
+        <v>1.97</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>其他社会服务</t>
         </is>
       </c>
     </row>
@@ -647,12 +648,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>苏能股份</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>600925</t>
+          <t>002687</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -661,19 +662,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4.95</v>
+        <v>4.6</v>
       </c>
       <c r="F6" t="n">
-        <v>0.85</v>
+        <v>1.51</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>煤炭开采加工</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -685,12 +686,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>苏能股份</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>002494</t>
+          <t>600925</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -699,19 +700,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5.05</v>
+        <v>4.95</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0.86</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>煤炭开采加工</t>
         </is>
       </c>
     </row>
@@ -723,12 +724,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>002360</t>
+          <t>002494</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -737,19 +738,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.18</v>
+        <v>5.05</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01</v>
+        <v>1.99</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -761,12 +762,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>福建水泥</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>600802</t>
+          <t>600493</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,19 +776,19 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5.43</v>
+        <v>6.5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.73</v>
+        <v>1.99</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>建筑材料</t>
+          <t>纺织制造</t>
         </is>
       </c>
     </row>
@@ -799,12 +800,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>凤竹纺织</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>600493</t>
+          <t>000952</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -813,19 +814,19 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6.5</v>
+        <v>6.55</v>
       </c>
       <c r="F10" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>纺织制造</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -837,12 +838,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>民丰特纸</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>000952</t>
+          <t>600235</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -851,19 +852,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6.55</v>
+        <v>6.75</v>
       </c>
       <c r="F11" t="n">
-        <v>1.95</v>
+        <v>1.17</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>造纸</t>
         </is>
       </c>
     </row>
@@ -892,11 +893,11 @@
         <v>6.84</v>
       </c>
       <c r="F12" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -930,11 +931,11 @@
         <v>7.13</v>
       </c>
       <c r="F13" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -972,7 +973,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -989,12 +990,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>黄山胶囊</t>
+          <t>威奥股份</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>002817</t>
+          <t>605001</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1003,19 +1004,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>7.67</v>
+        <v>7.53</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0.74</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>医疗器械</t>
+          <t>轨交设备</t>
         </is>
       </c>
     </row>
@@ -1027,12 +1028,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>优彩资源</t>
+          <t>黄山胶囊</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>002998</t>
+          <t>002817</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1041,19 +1042,19 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>8.140000000000001</v>
+        <v>7.67</v>
       </c>
       <c r="F16" t="n">
         <v>2</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>化学纤维</t>
+          <t>医疗器械</t>
         </is>
       </c>
     </row>
@@ -1065,12 +1066,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>优彩资源</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>001322</t>
+          <t>002998</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1079,19 +1080,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8.73</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>化学纤维</t>
         </is>
       </c>
     </row>
@@ -1103,12 +1104,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>新宏泽</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>002836</t>
+          <t>001322</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1117,19 +1118,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9.619999999999999</v>
+        <v>8.73</v>
       </c>
       <c r="F18" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>包装印刷</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -1141,12 +1142,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>上海雅仕</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>603329</t>
+          <t>002836</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1155,19 +1156,19 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>11.37</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>1.66</v>
+        <v>1.93</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>物流</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -1179,12 +1180,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>金富科技</t>
+          <t>庄园牧场</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>003018</t>
+          <t>002910</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1193,19 +1194,19 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>11.74</v>
+        <v>10.28</v>
       </c>
       <c r="F20" t="n">
-        <v>0.38</v>
+        <v>1.96</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>包装印刷</t>
+          <t>饮料制造</t>
         </is>
       </c>
     </row>
@@ -1238,7 +1239,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1255,12 +1256,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>宁波富邦</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>001366</t>
+          <t>600768</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1269,19 +1270,19 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>13.62</v>
+        <v>12.63</v>
       </c>
       <c r="F22" t="n">
         <v>1.98</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>农产品加工</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -1293,12 +1294,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>雪祺电气</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>001366</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1307,19 +1308,19 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>13.77</v>
+        <v>13.62</v>
       </c>
       <c r="F23" t="n">
-        <v>1.76</v>
+        <v>1.97</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>白色家电</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -1331,12 +1332,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>恒尚节能</t>
+          <t>雪祺电气</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>603137</t>
+          <t>001387</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1345,19 +1346,19 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>14.74</v>
+        <v>13.77</v>
       </c>
       <c r="F24" t="n">
-        <v>1.91</v>
+        <v>0.05</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>白色家电</t>
         </is>
       </c>
     </row>
@@ -1369,12 +1370,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>金房能源</t>
+          <t>恒尚节能</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>001210</t>
+          <t>603137</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1383,19 +1384,19 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>14.92</v>
+        <v>14.74</v>
       </c>
       <c r="F25" t="n">
-        <v>2.05</v>
+        <v>1.86</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>电力</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -1407,12 +1408,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>名雕股份</t>
+          <t>金房能源</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>002830</t>
+          <t>001210</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1421,19 +1422,19 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>16.95</v>
+        <v>14.92</v>
       </c>
       <c r="F26" t="n">
-        <v>0.41</v>
+        <v>2.08</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>电力</t>
         </is>
       </c>
     </row>
@@ -1445,12 +1446,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>彩蝶实业</t>
+          <t>弘宇股份</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>603073</t>
+          <t>002890</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1459,19 +1460,19 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>17.15</v>
+        <v>15.03</v>
       </c>
       <c r="F27" t="n">
-        <v>0.09</v>
+        <v>1.05</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>纺织制造</t>
+          <t>专用设备</t>
         </is>
       </c>
     </row>
@@ -1483,12 +1484,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>名雕股份</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>603172</t>
+          <t>002830</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1497,19 +1498,19 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>17.23</v>
+        <v>16.95</v>
       </c>
       <c r="F28" t="n">
-        <v>2.03</v>
+        <v>0.41</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1522,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>一彬科技</t>
+          <t>彩蝶实业</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>001278</t>
+          <t>603073</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1535,19 +1536,19 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>18.71</v>
+        <v>17.15</v>
       </c>
       <c r="F29" t="n">
-        <v>0.75</v>
+        <v>0.09</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>汽车零部件</t>
+          <t>纺织制造</t>
         </is>
       </c>
     </row>
@@ -1559,12 +1560,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>万丰股份</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>001231</t>
+          <t>603172</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1573,19 +1574,19 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>21.11</v>
+        <v>17.23</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1598,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>001333</t>
+          <t>001231</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1611,19 +1612,19 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>22.69</v>
+        <v>21.11</v>
       </c>
       <c r="F31" t="n">
-        <v>1.95</v>
+        <v>2.01</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -1635,12 +1636,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>001336</t>
+          <t>001333</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1649,19 +1650,19 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>23.16</v>
+        <v>22.69</v>
       </c>
       <c r="F32" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>环保设备</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -1673,12 +1674,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>劲旅环境</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>001230</t>
+          <t>001336</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1687,19 +1688,19 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>23.61</v>
+        <v>23.16</v>
       </c>
       <c r="F33" t="n">
-        <v>1.11</v>
+        <v>1.96</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>环保设备</t>
         </is>
       </c>
     </row>
@@ -1711,12 +1712,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>利仁科技</t>
+          <t>亚通精工</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>001259</t>
+          <t>603190</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1725,19 +1726,19 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>25.22</v>
+        <v>23.77</v>
       </c>
       <c r="F34" t="n">
-        <v>0.49</v>
+        <v>1.98</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-09-15</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>小家电</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
@@ -1752,7 +1753,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,20 +1789,15 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>盈亏比例%</t>
+          <t>新比例%</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>新比例%</t>
+          <t>时间</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>行业</t>
         </is>
@@ -1810,16 +1806,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AI市场追踪策略</t>
+          <t>GPT定期精选</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>湖南投资</t>
+          <t>超讯通信</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>548</v>
+        <v>603322</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -1827,22 +1823,19 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5.59</v>
+        <v>43.76</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.68</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.03</v>
+        <v>35.15</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>公路铁路运输</t>
+          <t>IT服务</t>
         </is>
       </c>
     </row>
@@ -1854,11 +1847,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>三木集团</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>632</v>
+        <v>952</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -1866,22 +1859,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3.93</v>
+        <v>6.99</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.02</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>综合</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -1893,11 +1883,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>茂化实华</t>
+          <t>双枪科技</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>637</v>
+        <v>1211</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1905,22 +1895,19 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.21</v>
+        <v>24.8</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.95</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>石油加工贸易</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -1932,11 +1919,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>952</v>
+        <v>1231</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1944,22 +1931,19 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6.99</v>
+        <v>21.11</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.15</v>
-      </c>
-      <c r="G5" t="n">
         <v>2</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>化学制药</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -1971,11 +1955,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>双枪科技</t>
+          <t>坤泰股份</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1211</v>
+        <v>1260</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1983,22 +1967,19 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.8</v>
+        <v>18.18</v>
       </c>
       <c r="F6" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2.01</v>
+        <v>2.11</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>家居用品</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
@@ -2010,11 +1991,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1231</v>
+        <v>1299</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -2022,22 +2003,19 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21.11</v>
+        <v>12.23</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.27</v>
-      </c>
-      <c r="G7" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>农化制品</t>
+          <t>燃气</t>
         </is>
       </c>
     </row>
@@ -2049,11 +2027,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>坤泰股份</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1260</v>
+        <v>1322</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -2061,22 +2039,19 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>18.18</v>
+        <v>8.73</v>
       </c>
       <c r="F8" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>汽车零部件</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -2088,11 +2063,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1299</v>
+        <v>1333</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -2100,22 +2075,19 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>12.23</v>
+        <v>22.69</v>
       </c>
       <c r="F9" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>燃气</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -2127,11 +2099,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1322</v>
+        <v>1336</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -2139,22 +2111,19 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8.73</v>
+        <v>23.32</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.18</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>家居用品</t>
+          <t>环保设备</t>
         </is>
       </c>
     </row>
@@ -2166,11 +2135,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1333</v>
+        <v>1366</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -2178,22 +2147,19 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.69</v>
+        <v>13.62</v>
       </c>
       <c r="F11" t="n">
-        <v>-6.92</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>塑料制品</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -2205,11 +2171,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>中天服务</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1336</v>
+        <v>2188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -2217,22 +2183,19 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>23.32</v>
+        <v>5.94</v>
       </c>
       <c r="F12" t="n">
-        <v>-6.56</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>环保设备</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -2244,11 +2207,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>*ST交投</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1366</v>
+        <v>2200</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2256,22 +2219,19 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>13.62</v>
+        <v>7.22</v>
       </c>
       <c r="F13" t="n">
-        <v>-9.029999999999999</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.95</v>
+        <v>0.2</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>农产品加工</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -2283,11 +2243,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>德冠新材</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1378</v>
+        <v>2360</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2295,22 +2255,19 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.78</v>
+        <v>5.32</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.01</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>塑料制品</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -2322,11 +2279,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>中天服务</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2188</v>
+        <v>2494</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2334,22 +2291,19 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.94</v>
+        <v>5.13</v>
       </c>
       <c r="F15" t="n">
-        <v>-9.93</v>
-      </c>
-      <c r="G15" t="n">
         <v>1.87</v>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>房地产</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -2361,11 +2315,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>*ST交投</t>
+          <t>蓝丰生化</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2200</v>
+        <v>2513</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2373,22 +2327,19 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7.22</v>
+        <v>5.6</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.11</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.57</v>
+        <v>1.93</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>建筑装饰</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -2400,11 +2351,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2360</v>
+        <v>2687</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2412,22 +2363,19 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.32</v>
+        <v>4.6</v>
       </c>
       <c r="F17" t="n">
-        <v>-3.38</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.99</v>
+        <v>1.51</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>化学制品</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -2439,11 +2387,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>瑞尔特</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2494</v>
+        <v>2790</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2451,22 +2399,19 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5.13</v>
+        <v>7.33</v>
       </c>
       <c r="F18" t="n">
-        <v>-6.43</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1.88</v>
+        <v>1.97</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -2478,11 +2423,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>蓝丰生化</t>
+          <t>黄山胶囊</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2513</v>
+        <v>2817</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2490,22 +2435,19 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5.6</v>
+        <v>8.06</v>
       </c>
       <c r="F19" t="n">
-        <v>-8.93</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>农化制品</t>
+          <t>医疗器械</t>
         </is>
       </c>
     </row>
@@ -2517,11 +2459,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>恒大高新</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2591</v>
+        <v>2836</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2529,22 +2471,19 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.88</v>
+        <v>9.26</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.51</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1.99</v>
+        <v>2</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>化学制品</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -2556,11 +2495,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>美芝股份</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2687</v>
+        <v>2856</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2568,22 +2507,19 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4.6</v>
+        <v>10.15</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.3</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.53</v>
+        <v>2.02</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -2595,11 +2531,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>黄山胶囊</t>
+          <t>新大正</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2817</v>
+        <v>2968</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2607,22 +2543,19 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>8.06</v>
+        <v>10.95</v>
       </c>
       <c r="F22" t="n">
-        <v>-7.2</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1.94</v>
+        <v>1.99</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>医疗器械</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -2634,11 +2567,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>新宏泽</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2836</v>
+        <v>2969</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2646,20 +2579,17 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9.26</v>
+        <v>3.59</v>
       </c>
       <c r="F23" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="G23" t="n">
-        <v>2.01</v>
+        <v>1.98</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H23" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
         <is>
           <t>包装印刷</t>
         </is>
@@ -2673,11 +2603,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>新大正</t>
+          <t>金花股份</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2968</v>
+        <v>600080</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2685,22 +2615,19 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>10.95</v>
+        <v>7.49</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.28</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>房地产</t>
+          <t>中药</t>
         </is>
       </c>
     </row>
@@ -2712,11 +2639,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>浙江东日</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2969</v>
+        <v>600113</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2724,22 +2651,19 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.59</v>
+        <v>57.82</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.51</v>
-      </c>
-      <c r="G25" t="n">
-        <v>2.01</v>
+        <v>1.97</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
+          <t>零售</t>
         </is>
       </c>
     </row>
@@ -2766,17 +2690,14 @@
         <v>2.83</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.47</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H26" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
         <is>
           <t>房地产</t>
         </is>
@@ -2790,11 +2711,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>民丰特纸</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>600235</v>
+        <v>600493</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2802,22 +2723,19 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6.38</v>
+        <v>6.5</v>
       </c>
       <c r="F27" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="G27" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>造纸</t>
+          <t>纺织制造</t>
         </is>
       </c>
     </row>
@@ -2829,11 +2747,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>凤竹纺织</t>
+          <t>宁波富邦</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>600493</v>
+        <v>600768</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2841,22 +2759,19 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6.5</v>
+        <v>12.16</v>
       </c>
       <c r="F28" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2.01</v>
+        <v>2</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>纺织制造</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -2868,11 +2783,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>宁波富邦</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>600768</v>
+        <v>600791</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2880,22 +2795,19 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>12.16</v>
+        <v>5.07</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2.01</v>
+        <v>0.98</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>电网设备</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -2907,11 +2819,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>600791</v>
+        <v>600796</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2919,22 +2831,19 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5.07</v>
+        <v>5.91</v>
       </c>
       <c r="F30" t="n">
-        <v>-5.52</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
+        <v>1.7</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>房地产</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -2946,11 +2855,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>福建水泥</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>600796</v>
+        <v>600802</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2958,22 +2867,19 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5.91</v>
+        <v>5.36</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.52</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.71</v>
+        <v>1.98</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>环境治理</t>
+          <t>建筑材料</t>
         </is>
       </c>
     </row>
@@ -2985,11 +2891,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>广电电气</t>
+          <t>万里股份</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>601616</v>
+        <v>600847</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2997,22 +2903,19 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3.91</v>
+        <v>10.77</v>
       </c>
       <c r="F32" t="n">
-        <v>-5.12</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.22</v>
+        <v>1.92</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>电网设备</t>
+          <t>电池</t>
         </is>
       </c>
     </row>
@@ -3024,11 +2927,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>三峰环境</t>
+          <t>重庆燃气</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>601827</v>
+        <v>600917</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3036,22 +2939,19 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>8.550000000000001</v>
+        <v>5.73</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.9399999999999999</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2.08</v>
+        <v>1.86</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>环境治理</t>
+          <t>燃气</t>
         </is>
       </c>
     </row>
@@ -3078,17 +2978,14 @@
         <v>17.23</v>
       </c>
       <c r="F34" t="n">
-        <v>-6.67</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.93</v>
+        <v>2</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H34" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
         <is>
           <t>化学制品</t>
         </is>
@@ -3117,17 +3014,14 @@
         <v>13.85</v>
       </c>
       <c r="F35" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2.04</v>
+        <v>0.31</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H35" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
         <is>
           <t>农产品加工</t>
         </is>
@@ -3156,17 +3050,14 @@
         <v>4.54</v>
       </c>
       <c r="F36" t="n">
-        <v>-4.41</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H36" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
         <is>
           <t>其他社会服务</t>
         </is>
@@ -3180,11 +3071,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>金海高科</t>
+          <t>亚邦股份</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>603311</v>
+        <v>603188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3192,22 +3083,19 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>11.25</v>
+        <v>4.24</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.51</v>
-      </c>
-      <c r="G37" t="n">
         <v>1.97</v>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>白色家电</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -3234,17 +3122,14 @@
         <v>6.95</v>
       </c>
       <c r="F38" t="n">
-        <v>-3.17</v>
-      </c>
-      <c r="G38" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H38" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
         <is>
           <t>家居用品</t>
         </is>
@@ -3258,11 +3143,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>*ST星农</t>
+          <t>宁水集团</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>603789</v>
+        <v>603700</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3270,22 +3155,19 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5.85</v>
+        <v>12.27</v>
       </c>
       <c r="F39" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.55</v>
+        <v>2.06</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>专用设备</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -3312,17 +3194,14 @@
         <v>8.550000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>-5.73</v>
-      </c>
-      <c r="G40" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H40" t="inlineStr">
-        <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
         <is>
           <t>服装家纺</t>
         </is>
@@ -3351,19 +3230,52 @@
         <v>7.7</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="G41" t="n">
-        <v>2</v>
+        <v>1.98</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-08-29 16:13:00</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
           <t>轨交设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>春雪食品</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>605567</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>10.23</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2025-09-02</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>食品加工制造</t>
         </is>
       </c>
     </row>
@@ -3456,14 +3368,14 @@
         <v>5.59</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.15</v>
+        <v>-2.68</v>
       </c>
       <c r="G2" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -3480,11 +3392,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>广济药业</t>
+          <t>三木集团</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>952</v>
+        <v>632</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -3492,22 +3404,22 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6.99</v>
+        <v>3.93</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.29</v>
+        <v>-1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>化学制药</t>
+          <t>综合</t>
         </is>
       </c>
     </row>
@@ -3519,11 +3431,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>农心科技</t>
+          <t>茂化实华</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1231</v>
+        <v>637</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -3531,22 +3443,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.11</v>
+        <v>4.21</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.36</v>
+        <v>-0.95</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>石油加工贸易</t>
         </is>
       </c>
     </row>
@@ -3558,11 +3470,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>利仁科技</t>
+          <t>广济药业</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1259</v>
+        <v>952</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -3570,22 +3482,22 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>25.82</v>
+        <v>6.99</v>
       </c>
       <c r="F5" t="n">
-        <v>0.31</v>
+        <v>-6.15</v>
       </c>
       <c r="G5" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>小家电</t>
+          <t>化学制药</t>
         </is>
       </c>
     </row>
@@ -3597,11 +3509,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>坤泰股份</t>
+          <t>双枪科技</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1260</v>
+        <v>1211</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -3609,22 +3521,22 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.18</v>
+        <v>24.8</v>
       </c>
       <c r="F6" t="n">
-        <v>9.19</v>
+        <v>0.44</v>
       </c>
       <c r="G6" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>汽车零部件</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -3636,11 +3548,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>美能能源</t>
+          <t>农心科技</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1299</v>
+        <v>1231</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -3648,22 +3560,22 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>12.23</v>
+        <v>21.11</v>
       </c>
       <c r="F7" t="n">
-        <v>1.39</v>
+        <v>-3.27</v>
       </c>
       <c r="G7" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>燃气</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -3675,11 +3587,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>箭牌家居</t>
+          <t>坤泰股份</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1322</v>
+        <v>1260</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -3687,22 +3599,22 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.73</v>
+        <v>18.18</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.03</v>
+        <v>10.56</v>
       </c>
       <c r="G8" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>汽车零部件</t>
         </is>
       </c>
     </row>
@@ -3714,11 +3626,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>光华股份</t>
+          <t>美能能源</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1333</v>
+        <v>1299</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -3726,22 +3638,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.69</v>
+        <v>12.23</v>
       </c>
       <c r="F9" t="n">
-        <v>-7.18</v>
+        <v>2.7</v>
       </c>
       <c r="G9" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>燃气</t>
         </is>
       </c>
     </row>
@@ -3753,11 +3665,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>楚环科技</t>
+          <t>箭牌家居</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1336</v>
+        <v>1322</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -3765,22 +3677,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.32</v>
+        <v>8.73</v>
       </c>
       <c r="F10" t="n">
-        <v>-5.19</v>
+        <v>-2.18</v>
       </c>
       <c r="G10" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>环保设备</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -3792,11 +3704,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>播恩集团</t>
+          <t>光华股份</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1366</v>
+        <v>1333</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -3804,22 +3716,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13.62</v>
+        <v>22.69</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.34</v>
+        <v>-6.92</v>
       </c>
       <c r="G11" t="n">
         <v>1.97</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>农产品加工</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -3831,11 +3743,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>中天服务</t>
+          <t>楚环科技</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2188</v>
+        <v>1336</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -3843,22 +3755,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5.94</v>
+        <v>23.32</v>
       </c>
       <c r="F12" t="n">
-        <v>-8.25</v>
+        <v>-6.56</v>
       </c>
       <c r="G12" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>环保设备</t>
         </is>
       </c>
     </row>
@@ -3870,11 +3782,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>*ST交投</t>
+          <t>播恩集团</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2200</v>
+        <v>1366</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -3882,22 +3794,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7.22</v>
+        <v>13.62</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-9.029999999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>0.57</v>
+        <v>1.95</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -3909,11 +3821,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>同德化工</t>
+          <t>德冠新材</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2360</v>
+        <v>1378</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -3921,22 +3833,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5.32</v>
+        <v>22.78</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.32</v>
+        <v>-1.01</v>
       </c>
       <c r="G14" t="n">
-        <v>2.01</v>
+        <v>1.96</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -3948,11 +3860,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>华斯股份</t>
+          <t>中天服务</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2494</v>
+        <v>2188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -3960,22 +3872,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>5.13</v>
+        <v>5.94</v>
       </c>
       <c r="F15" t="n">
-        <v>-3.7</v>
+        <v>-9.93</v>
       </c>
       <c r="G15" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>服装家纺</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -3987,11 +3899,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>蓝丰生化</t>
+          <t>*ST交投</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2513</v>
+        <v>2200</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -3999,22 +3911,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5.6</v>
+        <v>7.22</v>
       </c>
       <c r="F16" t="n">
-        <v>-8.039999999999999</v>
+        <v>-1.11</v>
       </c>
       <c r="G16" t="n">
-        <v>1.92</v>
+        <v>0.57</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>农化制品</t>
+          <t>建筑装饰</t>
         </is>
       </c>
     </row>
@@ -4026,11 +3938,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ST瑞和</t>
+          <t>同德化工</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2620</v>
+        <v>2360</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -4038,22 +3950,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.16</v>
+        <v>5.32</v>
       </c>
       <c r="F17" t="n">
-        <v>2.71</v>
+        <v>-3.38</v>
       </c>
       <c r="G17" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -4065,11 +3977,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>乔治白</t>
+          <t>华斯股份</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2687</v>
+        <v>2494</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -4077,17 +3989,17 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4.6</v>
+        <v>5.13</v>
       </c>
       <c r="F18" t="n">
-        <v>0.43</v>
+        <v>-6.43</v>
       </c>
       <c r="G18" t="n">
-        <v>1.54</v>
+        <v>1.88</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -4104,11 +4016,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>世龙实业</t>
+          <t>蓝丰生化</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2748</v>
+        <v>2513</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -4116,22 +4028,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9.51</v>
+        <v>5.6</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.05</v>
+        <v>-8.93</v>
       </c>
       <c r="G19" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>化学原料</t>
+          <t>农化制品</t>
         </is>
       </c>
     </row>
@@ -4143,11 +4055,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>永东股份</t>
+          <t>恒大高新</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2753</v>
+        <v>2591</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -4155,22 +4067,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.25</v>
+        <v>5.88</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.21</v>
+        <v>-0.51</v>
       </c>
       <c r="G20" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>橡胶制品</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -4182,11 +4094,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>瑞尔特</t>
+          <t>乔治白</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2790</v>
+        <v>2687</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -4194,22 +4106,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>7.71</v>
+        <v>4.6</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.72</v>
+        <v>-1.3</v>
       </c>
       <c r="G21" t="n">
-        <v>2.01</v>
+        <v>1.53</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>服装家纺</t>
         </is>
       </c>
     </row>
@@ -4236,14 +4148,14 @@
         <v>8.06</v>
       </c>
       <c r="F22" t="n">
-        <v>-5.09</v>
+        <v>-7.2</v>
       </c>
       <c r="G22" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -4260,11 +4172,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>新大正</t>
+          <t>新宏泽</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2968</v>
+        <v>2836</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -4272,22 +4184,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>10.95</v>
+        <v>9.26</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.37</v>
+        <v>0.43</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -4299,11 +4211,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>嘉美包装</t>
+          <t>新大正</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -4311,22 +4223,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.59</v>
+        <v>10.95</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.51</v>
+        <v>-2.28</v>
       </c>
       <c r="G24" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>包装印刷</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -4338,11 +4250,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>浙江东日</t>
+          <t>嘉美包装</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>600113</v>
+        <v>2969</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -4350,22 +4262,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>58.6</v>
+        <v>3.59</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.62</v>
+        <v>-2.51</v>
       </c>
       <c r="G25" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>零售</t>
+          <t>包装印刷</t>
         </is>
       </c>
     </row>
@@ -4392,14 +4304,14 @@
         <v>2.83</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.71</v>
+        <v>-2.47</v>
       </c>
       <c r="G26" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -4431,14 +4343,14 @@
         <v>6.38</v>
       </c>
       <c r="F27" t="n">
-        <v>1.1</v>
+        <v>2.35</v>
       </c>
       <c r="G27" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -4455,11 +4367,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>京能置业</t>
+          <t>凤竹纺织</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>600791</v>
+        <v>600493</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -4467,22 +4379,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.07</v>
+        <v>6.5</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.93</v>
+        <v>0.62</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>2.01</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>房地产</t>
+          <t>纺织制造</t>
         </is>
       </c>
     </row>
@@ -4494,11 +4406,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>钱江生化</t>
+          <t>宁波富邦</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>600796</v>
+        <v>600768</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -4506,22 +4418,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5.91</v>
+        <v>12.16</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.68</v>
+        <v>0.9</v>
       </c>
       <c r="G29" t="n">
-        <v>1.71</v>
+        <v>2.01</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -4533,11 +4445,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>博闻科技</t>
+          <t>京能置业</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>600883</v>
+        <v>600791</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -4545,22 +4457,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8.220000000000001</v>
+        <v>5.07</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.89</v>
+        <v>-5.52</v>
       </c>
       <c r="G30" t="n">
-        <v>1.97</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>种植业与林业</t>
+          <t>房地产</t>
         </is>
       </c>
     </row>
@@ -4572,11 +4484,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>广电电气</t>
+          <t>钱江生化</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>601616</v>
+        <v>600796</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4584,22 +4496,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>3.91</v>
+        <v>5.91</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.58</v>
+        <v>-1.52</v>
       </c>
       <c r="G31" t="n">
-        <v>1.23</v>
+        <v>1.71</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -4611,11 +4523,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>三峰环境</t>
+          <t>广电电气</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>601827</v>
+        <v>601616</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4623,22 +4535,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>8.550000000000001</v>
+        <v>3.91</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.47</v>
+        <v>-5.12</v>
       </c>
       <c r="G32" t="n">
-        <v>2.07</v>
+        <v>1.22</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>环境治理</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -4650,11 +4562,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>出版传媒</t>
+          <t>三峰环境</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>601999</v>
+        <v>601827</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4662,22 +4574,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>7.22</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.39</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>文化传媒</t>
+          <t>环境治理</t>
         </is>
       </c>
     </row>
@@ -4689,11 +4601,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>恒尚节能</t>
+          <t>万丰股份</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>603137</v>
+        <v>603172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4701,22 +4613,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>15.56</v>
+        <v>17.23</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.89</v>
+        <v>-6.67</v>
       </c>
       <c r="G34" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>建筑装饰</t>
+          <t>化学制品</t>
         </is>
       </c>
     </row>
@@ -4728,11 +4640,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>万丰股份</t>
+          <t>嘉华股份</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>603172</v>
+        <v>603182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4740,22 +4652,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>17.23</v>
+        <v>13.85</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.95</v>
+        <v>0.72</v>
       </c>
       <c r="G35" t="n">
-        <v>1.97</v>
+        <v>2.04</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>化学制品</t>
+          <t>农产品加工</t>
         </is>
       </c>
     </row>
@@ -4782,14 +4694,14 @@
         <v>4.54</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.08</v>
+        <v>-4.41</v>
       </c>
       <c r="G36" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -4806,11 +4718,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>惠达卫浴</t>
+          <t>金海高科</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>603385</v>
+        <v>603311</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4818,22 +4730,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6.95</v>
+        <v>11.25</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.45</v>
+        <v>-1.51</v>
       </c>
       <c r="G37" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>家居用品</t>
+          <t>白色家电</t>
         </is>
       </c>
     </row>
@@ -4845,11 +4757,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>宁水集团</t>
+          <t>惠达卫浴</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>603700</v>
+        <v>603385</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4857,22 +4769,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>12.53</v>
+        <v>6.95</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.15</v>
+        <v>-3.17</v>
       </c>
       <c r="G38" t="n">
-        <v>2.01</v>
+        <v>1.93</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>家居用品</t>
         </is>
       </c>
     </row>
@@ -4899,14 +4811,14 @@
         <v>5.85</v>
       </c>
       <c r="F39" t="n">
-        <v>1.88</v>
+        <v>2.91</v>
       </c>
       <c r="G39" t="n">
-        <v>2.11</v>
+        <v>0.55</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -4938,14 +4850,14 @@
         <v>8.550000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>-7.37</v>
+        <v>-5.73</v>
       </c>
       <c r="G40" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -4977,14 +4889,14 @@
         <v>7.7</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.82</v>
+        <v>-2.6</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>2025-08-28 16:17:00</t>
+          <t>2025-08-29 16:13:00</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4999,6 +4911,1632 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>盈亏比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>湖南投资</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>548</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>公路铁路运输</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>952</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-5.29</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1231</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-3.36</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1259</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>25.82</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>小家电</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>坤泰股份</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1260</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>18.18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>汽车零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>美能能源</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1299</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>12.23</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>燃气</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1322</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1333</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-7.18</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>塑料制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1336</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-5.19</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>环保设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1366</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-7.34</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>农产品加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>中天服务</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2188</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-8.25</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>*ST交投</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2200</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2360</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2494</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>蓝丰生化</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2513</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-8.039999999999999</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ST瑞和</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2620</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2687</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>世龙实业</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2748</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>化学原料</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2753</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>瑞尔特</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2790</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-2.72</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2817</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>8.06</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-5.09</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>医疗器械</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>新大正</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>2968</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>嘉美包装</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2969</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>浙江东日</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>600113</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>58.6</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-3.62</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>600159</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>民丰特纸</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>600235</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>造纸</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>京能置业</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>600791</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-4.93</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>钱江生化</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>600796</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>博闻科技</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>600883</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-3.89</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>种植业与林业</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>广电电气</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>601616</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-3.58</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>电网设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>三峰环境</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>601827</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>出版传媒</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>601999</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>文化传媒</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>603137</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>603172</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-3.95</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>603183</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-3.08</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>其他社会服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>惠达卫浴</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>603385</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-2.45</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>宁水集团</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>603700</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>12.53</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-2.15</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>通用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>*ST星农</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>603789</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>专用设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>歌力思</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>603808</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-7.37</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>威奥股份</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>605001</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>2025-08-28 16:17:00</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>轨交设备</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6663,7 +8201,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9407,7 +10945,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -9443,7 +10981,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -9479,7 +11017,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -9515,7 +11053,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -9551,7 +11089,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -9587,7 +11125,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -9623,7 +11161,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -9659,7 +11197,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -9695,7 +11233,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -9731,7 +11269,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -9767,7 +11305,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -9803,7 +11341,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -9839,7 +11377,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -9875,7 +11413,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -9911,7 +11449,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -9947,7 +11485,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -9983,7 +11521,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -10019,7 +11557,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -10055,7 +11593,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -10091,7 +11629,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -10127,7 +11665,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -10163,7 +11701,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -10199,7 +11737,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -10235,7 +11773,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -10271,7 +11809,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -10307,7 +11845,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -10343,7 +11881,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -10379,7 +11917,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -10415,7 +11953,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -10451,7 +11989,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -10487,7 +12025,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -10523,7 +12061,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -10559,7 +12097,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-12</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -10574,6 +12112,1255 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>标的名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>代码</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>行业</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>785</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="F2" t="n">
+        <v>30.23</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>零售</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>大龙地产</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>600159</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>房地产</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>建研院</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>603183</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>其他社会服务</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>乔治白</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2687</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>苏能股份</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>600925</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>煤炭开采加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2494</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>服装家纺</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>同德化工</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2360</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>福建水泥</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>600802</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>建筑材料</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>凤竹纺织</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>600493</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>纺织制造</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>广济药业</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>952</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>化学制药</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>双箭股份</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2381</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>永东股份</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2753</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>橡胶制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>金花股份</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>600080</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>中药</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>黄山胶囊</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2817</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>医疗器械</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>优彩资源</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2998</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>8.140000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>化学纤维</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>箭牌家居</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1322</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>8.73</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>家居用品</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>新宏泽</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2836</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>上海雅仕</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>603329</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>物流</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>金富科技</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>3018</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>包装印刷</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>醋化股份</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>603968</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>播恩集团</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1366</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>13.62</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>农产品加工</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>雪祺电气</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1387</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>白色家电</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>恒尚节能</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>603137</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>14.74</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>金房能源</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1210</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>14.92</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>电力</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>名雕股份</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2830</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>建筑装饰</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>彩蝶实业</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>603073</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>纺织制造</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>万丰股份</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>603172</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>17.23</v>
+      </c>
+      <c r="F28" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>化学制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>一彬科技</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1278</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>汽车零部件</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>农心科技</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1231</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>21.11</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>农化制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>光华股份</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1333</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>塑料制品</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>楚环科技</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1336</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>23.16</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>环保设备</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>劲旅环境</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1230</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>23.61</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>环境治理</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AI市场追踪策略</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>利仁科技</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1259</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>25.22</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>小家电</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11894,7 +14681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13107,7 +15894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14536,7 +17323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16201,7 +18988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17710,7 +20497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19101,1541 +21888,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>标的名称</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>代码</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>行业</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>603322</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>43.76</v>
-      </c>
-      <c r="F2" t="n">
-        <v>35.15</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>IT服务</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>广济药业</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>952</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>化学制药</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>双枪科技</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1211</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>农心科技</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1231</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>21.11</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>农化制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>坤泰股份</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1260</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>18.18</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>汽车零部件</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>美能能源</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1299</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>12.23</v>
-      </c>
-      <c r="F7" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>燃气</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>箭牌家居</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1322</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>光华股份</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1333</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="F9" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>塑料制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>楚环科技</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1336</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>23.32</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>环保设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>播恩集团</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1366</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>13.62</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>农产品加工</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>中天服务</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>2188</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>*ST交投</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>2200</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>7.22</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>建筑装饰</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>同德化工</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>2360</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>华斯股份</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>2494</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>5.13</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>蓝丰生化</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>2513</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>农化制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>乔治白</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>2687</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>瑞尔特</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>2790</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>黄山胶囊</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>2817</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>医疗器械</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>新宏泽</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>2836</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E20" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>美芝股份</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>2856</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="F21" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>建筑装饰</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>新大正</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>2968</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>10.95</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>嘉美包装</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>2969</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>包装印刷</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>金花股份</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>600080</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>中药</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>浙江东日</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>600113</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E25" t="n">
-        <v>57.82</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>零售</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>大龙地产</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>600159</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>凤竹纺织</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>600493</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>纺织制造</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>宁波富邦</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>600768</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>电网设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>京能置业</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>600791</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>房地产</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>钱江生化</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>600796</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E30" t="n">
-        <v>5.91</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>环境治理</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>福建水泥</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>600802</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E31" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="F31" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>建筑材料</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>万里股份</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>600847</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E32" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="F32" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>电池</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>重庆燃气</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>600917</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>燃气</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>万丰股份</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>603172</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>17.23</v>
-      </c>
-      <c r="F34" t="n">
-        <v>2</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>嘉华股份</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>603182</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>13.85</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>农产品加工</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>建研院</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>603183</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>其他社会服务</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>亚邦股份</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>603188</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>化学制品</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>惠达卫浴</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>603385</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>家居用品</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>宁水集团</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>603700</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>12.27</v>
-      </c>
-      <c r="F39" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>通用设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>歌力思</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>603808</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>8.550000000000001</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>服装家纺</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>威奥股份</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>605001</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E41" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>轨交设备</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>AI市场追踪策略</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>春雪食品</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>605567</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E42" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>2025-09-02</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>食品加工制造</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>